--- a/xlsx/moscow.xlsx
+++ b/xlsx/moscow.xlsx
@@ -24188,7 +24188,7 @@
         </is>
       </c>
       <c r="T415" t="n">
-        <v>1687100</v>
+        <v>1686900</v>
       </c>
       <c r="U415" t="inlineStr">
         <is>
@@ -24745,11 +24745,11 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>2674000</v>
+        <v>2919200</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/oting/paladin/</t>
+          <t>https://alcon-auto.ru/oting/paladin-1434717577</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="N426" t="n">
-        <v>2674000</v>
+        <v>3249000</v>
       </c>
       <c r="O426" t="inlineStr">
         <is>

--- a/xlsx/moscow.xlsx
+++ b/xlsx/moscow.xlsx
@@ -1068,11 +1068,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1840090</v>
+        <v>1054000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/geely/belgee-x70-1456765391</t>
+          <t>https://kosmos-cars.ru/cars/belgee/x70/</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1091,6 +1091,14 @@
           <t>https://warshauto.ru/belgee/belgee-x70-1456765391</t>
         </is>
       </c>
+      <c r="N11" t="n">
+        <v>1054000</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/belgee/x70/</t>
+        </is>
+      </c>
       <c r="T11" t="n">
         <v>1840090</v>
       </c>
@@ -9061,6 +9069,14 @@
       <c r="M155" t="inlineStr">
         <is>
           <t>https://warshauto.ru/geely/okavango-1433354985</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>2067000</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/geely/okavango_new/</t>
         </is>
       </c>
       <c r="P155" t="n">

--- a/xlsx/moscow.xlsx
+++ b/xlsx/moscow.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y513"/>
+  <dimension ref="A1:Y512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21317,7 +21317,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -21327,46 +21327,30 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="D394" t="n">
-        <v>964000</v>
+        <v>2729000</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/peugeot/408-19981555</t>
-        </is>
-      </c>
-      <c r="L394" t="n">
-        <v>964000</v>
-      </c>
-      <c r="M394" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/peugeot/408-19981555</t>
-        </is>
-      </c>
-      <c r="R394" t="n">
-        <v>964200</v>
-      </c>
-      <c r="S394" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/peugeot/408/</t>
-        </is>
-      </c>
-      <c r="T394" t="n">
-        <v>964200</v>
-      </c>
-      <c r="U394" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/peugeot/408-2385</t>
+          <t>https://kosmos-cars.ru/cars/peugeot/4008/</t>
+        </is>
+      </c>
+      <c r="N394" t="n">
+        <v>2729000</v>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/peugeot/4008/</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -21376,54 +21360,46 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>5008 New</t>
+          <t>408</t>
         </is>
       </c>
       <c r="D395" t="n">
-        <v>1979000</v>
+        <v>964000</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/peugeot/5008-81739</t>
+          <t>https://warshauto.ru/peugeot/408-19981555</t>
         </is>
       </c>
       <c r="L395" t="n">
-        <v>1979100</v>
+        <v>964000</v>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/peugeot/5008-889893497</t>
-        </is>
-      </c>
-      <c r="N395" t="n">
-        <v>2939000</v>
-      </c>
-      <c r="O395" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/peugeot/5008/</t>
+          <t>https://warshauto.ru/peugeot/408-19981555</t>
         </is>
       </c>
       <c r="R395" t="n">
-        <v>1979000</v>
+        <v>964200</v>
       </c>
       <c r="S395" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/peugeot/5008-new21/</t>
+          <t>https://vita-auto.ru/peugeot/408/</t>
         </is>
       </c>
       <c r="T395" t="n">
-        <v>1979000</v>
+        <v>964200</v>
       </c>
       <c r="U395" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/peugeot/5008-81739</t>
+          <t>https://alcon-auto.ru/peugeot/408-2385</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -21433,38 +21409,54 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Expert</t>
+          <t>5008 New</t>
         </is>
       </c>
       <c r="D396" t="n">
-        <v>1187410</v>
+        <v>1979000</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/peugeot/expert-19981943</t>
+          <t>https://alcon-auto.ru/peugeot/5008-81739</t>
         </is>
       </c>
       <c r="L396" t="n">
-        <v>1187410</v>
+        <v>1979100</v>
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/peugeot/expert-19981943</t>
+          <t>https://warshauto.ru/peugeot/5008-889893497</t>
+        </is>
+      </c>
+      <c r="N396" t="n">
+        <v>2939000</v>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/peugeot/5008/</t>
+        </is>
+      </c>
+      <c r="R396" t="n">
+        <v>1979000</v>
+      </c>
+      <c r="S396" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/peugeot/5008-new21/</t>
         </is>
       </c>
       <c r="T396" t="n">
-        <v>1187610</v>
+        <v>1979000</v>
       </c>
       <c r="U396" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/peugeot/expert-5814</t>
+          <t>https://alcon-auto.ru/peugeot/5008-81739</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>540</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -21474,46 +21466,38 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Partner Crossway</t>
+          <t>Expert</t>
         </is>
       </c>
       <c r="D397" t="n">
-        <v>1021300</v>
+        <v>1187410</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/peugeot/partner-97596</t>
+          <t>https://warshauto.ru/peugeot/expert-19981943</t>
         </is>
       </c>
       <c r="L397" t="n">
-        <v>1021400</v>
+        <v>1187410</v>
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/peugeot/partner-979511015</t>
-        </is>
-      </c>
-      <c r="R397" t="n">
-        <v>1021300</v>
-      </c>
-      <c r="S397" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/peugeot/partner-crossway/</t>
+          <t>https://warshauto.ru/peugeot/expert-19981943</t>
         </is>
       </c>
       <c r="T397" t="n">
-        <v>1021300</v>
+        <v>1187610</v>
       </c>
       <c r="U397" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/peugeot/partner-97596</t>
+          <t>https://alcon-auto.ru/peugeot/expert-5814</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -21523,87 +21507,95 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Traveller</t>
+          <t>Partner Crossway</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>2140000</v>
+        <v>1021300</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/peugeot/traveller-6195</t>
+          <t>https://alcon-auto.ru/peugeot/partner-97596</t>
         </is>
       </c>
       <c r="L398" t="n">
-        <v>2140100</v>
+        <v>1021400</v>
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/peugeot/traveller-19982075</t>
+          <t>https://warshauto.ru/peugeot/partner-979511015</t>
         </is>
       </c>
       <c r="R398" t="n">
-        <v>2140000</v>
+        <v>1021300</v>
       </c>
       <c r="S398" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/peugeot/traveller/</t>
+          <t>https://vita-auto.ru/peugeot/partner-crossway/</t>
         </is>
       </c>
       <c r="T398" t="n">
-        <v>2140000</v>
+        <v>1021300</v>
       </c>
       <c r="U398" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/peugeot/traveller-6195</t>
+          <t>https://alcon-auto.ru/peugeot/partner-97596</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Peugeot</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Gentra</t>
+          <t>Traveller</t>
         </is>
       </c>
       <c r="D399" t="n">
-        <v>746300</v>
+        <v>2140000</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/ravon/gentra/2015-2018-sedan-4/</t>
-        </is>
-      </c>
-      <c r="N399" t="n">
-        <v>747000</v>
-      </c>
-      <c r="O399" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/ravon/gentra/</t>
-        </is>
-      </c>
-      <c r="P399" t="n">
-        <v>746300</v>
-      </c>
-      <c r="Q399" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/ravon/gentra/2015-2018-sedan-4/</t>
+          <t>https://alcon-auto.ru/peugeot/traveller-6195</t>
+        </is>
+      </c>
+      <c r="L399" t="n">
+        <v>2140100</v>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/peugeot/traveller-19982075</t>
+        </is>
+      </c>
+      <c r="R399" t="n">
+        <v>2140000</v>
+      </c>
+      <c r="S399" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/peugeot/traveller/</t>
+        </is>
+      </c>
+      <c r="T399" t="n">
+        <v>2140000</v>
+      </c>
+      <c r="U399" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/peugeot/traveller-6195</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -21613,62 +21605,38 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Gentra</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>610100</v>
+        <v>746300</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/ravon/nexia-r3-8171</t>
-        </is>
-      </c>
-      <c r="L400" t="n">
-        <v>610200</v>
-      </c>
-      <c r="M400" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/ravon/nexia-r3-19982122</t>
+          <t>https://idol-avto.ru/cars-new/ravon/gentra/2015-2018-sedan-4/</t>
         </is>
       </c>
       <c r="N400" t="n">
-        <v>805000</v>
+        <v>747000</v>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/ravon/nexia_r3/</t>
+          <t>https://kosmos-cars.ru/cars/ravon/gentra/</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>804200</v>
+        <v>746300</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/ravon/nexia-r3/2015-2020-sedan-4/</t>
-        </is>
-      </c>
-      <c r="R400" t="n">
-        <v>610100</v>
-      </c>
-      <c r="S400" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/ravon/nexia-r3/</t>
-        </is>
-      </c>
-      <c r="T400" t="n">
-        <v>610100</v>
-      </c>
-      <c r="U400" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/ravon/nexia-r3-8171</t>
+          <t>https://idol-avto.ru/cars-new/ravon/gentra/2015-2018-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -21678,62 +21646,62 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>578300</v>
+        <v>610100</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/ravon/r2-6012</t>
+          <t>https://alcon-auto.ru/ravon/nexia-r3-8171</t>
         </is>
       </c>
       <c r="L401" t="n">
-        <v>578400</v>
+        <v>610200</v>
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/ravon/r2-19982154</t>
+          <t>https://warshauto.ru/ravon/nexia-r3-19982122</t>
         </is>
       </c>
       <c r="N401" t="n">
-        <v>863000</v>
+        <v>805000</v>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/ravon/r2/</t>
+          <t>https://kosmos-cars.ru/cars/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>862100</v>
+        <v>804200</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/ravon/r2/2016-2020-hatchback-5/</t>
+          <t>https://idol-avto.ru/cars-new/ravon/nexia-r3/2015-2020-sedan-4/</t>
         </is>
       </c>
       <c r="R401" t="n">
-        <v>578300</v>
+        <v>610100</v>
       </c>
       <c r="S401" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/ravon/r2/</t>
+          <t>https://vita-auto.ru/ravon/nexia-r3/</t>
         </is>
       </c>
       <c r="T401" t="n">
-        <v>578300</v>
+        <v>610100</v>
       </c>
       <c r="U401" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/ravon/r2-6012</t>
+          <t>https://alcon-auto.ru/ravon/nexia-r3-8171</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -21743,119 +21711,127 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>636000</v>
+        <v>578300</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/ravon/r4-19982254</t>
+          <t>https://alcon-auto.ru/ravon/r2-6012</t>
         </is>
       </c>
       <c r="L402" t="n">
-        <v>636000</v>
+        <v>578400</v>
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/ravon/r4-19982254</t>
+          <t>https://warshauto.ru/ravon/r2-19982154</t>
         </is>
       </c>
       <c r="N402" t="n">
-        <v>831000</v>
+        <v>863000</v>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/ravon/r4/</t>
+          <t>https://kosmos-cars.ru/cars/ravon/r2/</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>830200</v>
+        <v>862100</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/ravon/r4/2016-2020-sedan-4/</t>
+          <t>https://idol-avto.ru/cars-new/ravon/r2/2016-2020-hatchback-5/</t>
         </is>
       </c>
       <c r="R402" t="n">
-        <v>636200</v>
+        <v>578300</v>
       </c>
       <c r="S402" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/ravon/r4/</t>
+          <t>https://vita-auto.ru/ravon/r2/</t>
         </is>
       </c>
       <c r="T402" t="n">
-        <v>636200</v>
+        <v>578300</v>
       </c>
       <c r="U402" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/ravon/r4-4045</t>
+          <t>https://alcon-auto.ru/ravon/r2-6012</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D403" t="n">
-        <v>689300</v>
+        <v>636000</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/renault/arkana/i-allroad-5/</t>
+          <t>https://warshauto.ru/ravon/r4-19982254</t>
         </is>
       </c>
       <c r="L403" t="n">
-        <v>971100</v>
+        <v>636000</v>
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/renault/arkana-39926894</t>
+          <t>https://warshauto.ru/ravon/r4-19982254</t>
         </is>
       </c>
       <c r="N403" t="n">
-        <v>915300</v>
+        <v>831000</v>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/renault/arkana/</t>
+          <t>https://kosmos-cars.ru/cars/ravon/r4/</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>689300</v>
+        <v>830200</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/renault/arkana/i-allroad-5/</t>
+          <t>https://idol-avto.ru/cars-new/ravon/r4/2016-2020-sedan-4/</t>
+        </is>
+      </c>
+      <c r="R403" t="n">
+        <v>636200</v>
+      </c>
+      <c r="S403" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/ravon/r4/</t>
         </is>
       </c>
       <c r="T403" t="n">
-        <v>971000</v>
+        <v>636200</v>
       </c>
       <c r="U403" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/renault/arkana-4831</t>
+          <t>https://alcon-auto.ru/ravon/r4-4045</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -21865,38 +21841,54 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Arkana New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>767000</v>
+        <v>689300</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/renault/new-arkana</t>
-        </is>
-      </c>
-      <c r="H404" t="n">
-        <v>767000</v>
-      </c>
-      <c r="I404" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/renault/new-arkana</t>
-        </is>
-      </c>
-      <c r="R404" t="n">
+          <t>https://idol-avto.ru/cars-new/renault/arkana/i-allroad-5/</t>
+        </is>
+      </c>
+      <c r="L404" t="n">
+        <v>971100</v>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/renault/arkana-39926894</t>
+        </is>
+      </c>
+      <c r="N404" t="n">
+        <v>915300</v>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="P404" t="n">
+        <v>689300</v>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/renault/arkana/i-allroad-5/</t>
+        </is>
+      </c>
+      <c r="T404" t="n">
         <v>971000</v>
       </c>
-      <c r="S404" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/renault/arkana/</t>
+      <c r="U404" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/renault/arkana-4831</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -21906,30 +21898,38 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Dokker</t>
+          <t>Arkana New</t>
         </is>
       </c>
       <c r="D405" t="n">
-        <v>859990</v>
+        <v>767000</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/renault/dokker</t>
+          <t>https://dc-dbr.ru/catalog/renault/new-arkana</t>
         </is>
       </c>
       <c r="H405" t="n">
-        <v>859990</v>
+        <v>767000</v>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/renault/dokker</t>
+          <t>https://dc-dbr.ru/catalog/renault/new-arkana</t>
+        </is>
+      </c>
+      <c r="R405" t="n">
+        <v>971000</v>
+      </c>
+      <c r="S405" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -21939,30 +21939,30 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Dokker</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>649400</v>
+        <v>859990</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/renault/duster/ii-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P406" t="n">
-        <v>649400</v>
-      </c>
-      <c r="Q406" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/renault/duster/ii-allroad-5/</t>
+          <t>https://dc-dbr.ru/catalog/renault/dokker</t>
+        </is>
+      </c>
+      <c r="H406" t="n">
+        <v>859990</v>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/renault/dokker</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -21972,30 +21972,30 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Duster 2021</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D407" t="n">
-        <v>647100</v>
+        <v>649400</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/renault/duster-1409</t>
-        </is>
-      </c>
-      <c r="T407" t="n">
-        <v>647100</v>
-      </c>
-      <c r="U407" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/renault/duster-1409</t>
+          <t>https://idol-avto.ru/cars-new/renault/duster/ii-allroad-5/</t>
+        </is>
+      </c>
+      <c r="P407" t="n">
+        <v>649400</v>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/renault/duster/ii-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -22005,62 +22005,30 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Duster 2021</t>
         </is>
       </c>
       <c r="D408" t="n">
-        <v>543400</v>
+        <v>647100</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/renault/duster-new</t>
-        </is>
-      </c>
-      <c r="H408" t="n">
-        <v>543400</v>
-      </c>
-      <c r="I408" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/renault/duster-new</t>
-        </is>
-      </c>
-      <c r="L408" t="n">
-        <v>772200</v>
-      </c>
-      <c r="M408" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/renault/duster-hm-889894231</t>
-        </is>
-      </c>
-      <c r="N408" t="n">
-        <v>1142000</v>
-      </c>
-      <c r="O408" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/renault/duster_new/</t>
-        </is>
-      </c>
-      <c r="R408" t="n">
-        <v>772100</v>
-      </c>
-      <c r="S408" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/renault/duster-new/</t>
+          <t>https://alcon-auto.ru/renault/duster-1409</t>
         </is>
       </c>
       <c r="T408" t="n">
-        <v>772100</v>
+        <v>647100</v>
       </c>
       <c r="U408" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/renault/duster-hm-84197</t>
+          <t>https://alcon-auto.ru/renault/duster-1409</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -22070,38 +22038,62 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D409" t="n">
-        <v>669300</v>
+        <v>543400</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/renault/kaptur/i-res-allroad-5/</t>
+          <t>https://dc-dbr.ru/catalog/renault/duster-new</t>
+        </is>
+      </c>
+      <c r="H409" t="n">
+        <v>543400</v>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/renault/duster-new</t>
+        </is>
+      </c>
+      <c r="L409" t="n">
+        <v>772200</v>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/renault/duster-hm-889894231</t>
         </is>
       </c>
       <c r="N409" t="n">
-        <v>789900</v>
+        <v>1142000</v>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="P409" t="n">
-        <v>669300</v>
-      </c>
-      <c r="Q409" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/renault/kaptur/i-res-allroad-5/</t>
+          <t>https://kosmos-cars.ru/cars/renault/duster_new/</t>
+        </is>
+      </c>
+      <c r="R409" t="n">
+        <v>772100</v>
+      </c>
+      <c r="S409" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/renault/duster-new/</t>
+        </is>
+      </c>
+      <c r="T409" t="n">
+        <v>772100</v>
+      </c>
+      <c r="U409" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/renault/duster-hm-84197</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -22111,54 +22103,38 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Kaptur New</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D410" t="n">
-        <v>702600</v>
+        <v>669300</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/renault/kaptur-new</t>
-        </is>
-      </c>
-      <c r="H410" t="n">
-        <v>702600</v>
-      </c>
-      <c r="I410" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/renault/kaptur-new</t>
-        </is>
-      </c>
-      <c r="L410" t="n">
-        <v>1015000</v>
-      </c>
-      <c r="M410" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/renault/kaptur-174560704</t>
-        </is>
-      </c>
-      <c r="R410" t="n">
-        <v>1015200</v>
-      </c>
-      <c r="S410" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/renault/kaptur-new/</t>
-        </is>
-      </c>
-      <c r="T410" t="n">
-        <v>1015200</v>
-      </c>
-      <c r="U410" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/renault/kaptur-12562</t>
+          <t>https://idol-avto.ru/cars-new/renault/kaptur/i-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="N410" t="n">
+        <v>789900</v>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="P410" t="n">
+        <v>669300</v>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/renault/kaptur/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -22168,38 +22144,54 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur New</t>
         </is>
       </c>
       <c r="D411" t="n">
-        <v>460300</v>
+        <v>702600</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/renault/logan/</t>
-        </is>
-      </c>
-      <c r="N411" t="n">
-        <v>460300</v>
-      </c>
-      <c r="O411" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/renault/logan/</t>
-        </is>
-      </c>
-      <c r="P411" t="n">
-        <v>489500</v>
-      </c>
-      <c r="Q411" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/renault/logan/ii-res-sedan-4/</t>
+          <t>https://dc-dbr.ru/catalog/renault/kaptur-new</t>
+        </is>
+      </c>
+      <c r="H411" t="n">
+        <v>702600</v>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/renault/kaptur-new</t>
+        </is>
+      </c>
+      <c r="L411" t="n">
+        <v>1015000</v>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/renault/kaptur-174560704</t>
+        </is>
+      </c>
+      <c r="R411" t="n">
+        <v>1015200</v>
+      </c>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/renault/kaptur-new/</t>
+        </is>
+      </c>
+      <c r="T411" t="n">
+        <v>1015200</v>
+      </c>
+      <c r="U411" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/renault/kaptur-12562</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -22209,54 +22201,38 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Logan New</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D412" t="n">
-        <v>476700</v>
+        <v>460300</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/renault/new-logan</t>
-        </is>
-      </c>
-      <c r="H412" t="n">
-        <v>476700</v>
-      </c>
-      <c r="I412" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/renault/new-logan</t>
-        </is>
-      </c>
-      <c r="L412" t="n">
-        <v>494200</v>
-      </c>
-      <c r="M412" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/renault/logan-19982996</t>
-        </is>
-      </c>
-      <c r="R412" t="n">
-        <v>494100</v>
-      </c>
-      <c r="S412" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/renault/logan-new/</t>
-        </is>
-      </c>
-      <c r="T412" t="n">
-        <v>494100</v>
-      </c>
-      <c r="U412" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/renault/logan-1608</t>
+          <t>https://kosmos-cars.ru/cars/renault/logan/</t>
+        </is>
+      </c>
+      <c r="N412" t="n">
+        <v>460300</v>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/renault/logan/</t>
+        </is>
+      </c>
+      <c r="P412" t="n">
+        <v>489500</v>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/renault/logan/ii-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -22266,62 +22242,54 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan New</t>
         </is>
       </c>
       <c r="D413" t="n">
-        <v>520850</v>
+        <v>476700</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/renault/logan-stepway</t>
+          <t>https://dc-dbr.ru/catalog/renault/new-logan</t>
         </is>
       </c>
       <c r="H413" t="n">
-        <v>520850</v>
+        <v>476700</v>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/renault/logan-stepway</t>
+          <t>https://dc-dbr.ru/catalog/renault/new-logan</t>
         </is>
       </c>
       <c r="L413" t="n">
-        <v>642500</v>
+        <v>494200</v>
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/renault/logan-stepway-37354967</t>
-        </is>
-      </c>
-      <c r="N413" t="n">
-        <v>555300</v>
-      </c>
-      <c r="O413" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/renault/logan_stepway/</t>
-        </is>
-      </c>
-      <c r="P413" t="n">
-        <v>529500</v>
-      </c>
-      <c r="Q413" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
+          <t>https://warshauto.ru/renault/logan-19982996</t>
+        </is>
+      </c>
+      <c r="R413" t="n">
+        <v>494100</v>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/renault/logan-new/</t>
         </is>
       </c>
       <c r="T413" t="n">
-        <v>642400</v>
+        <v>494100</v>
       </c>
       <c r="U413" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/renault/logan-stepway-4422</t>
+          <t>https://alcon-auto.ru/renault/logan-1608</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -22331,30 +22299,62 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Logan Stepway New</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D414" t="n">
-        <v>636100</v>
+        <v>520850</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/renault/logan-stepway-new/</t>
-        </is>
-      </c>
-      <c r="R414" t="n">
-        <v>636100</v>
-      </c>
-      <c r="S414" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/renault/logan-stepway-new/</t>
+          <t>https://dc-dbr.ru/catalog/renault/logan-stepway</t>
+        </is>
+      </c>
+      <c r="H414" t="n">
+        <v>520850</v>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/renault/logan-stepway</t>
+        </is>
+      </c>
+      <c r="L414" t="n">
+        <v>642500</v>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/renault/logan-stepway-37354967</t>
+        </is>
+      </c>
+      <c r="N414" t="n">
+        <v>555300</v>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="P414" t="n">
+        <v>529500</v>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
+        </is>
+      </c>
+      <c r="T414" t="n">
+        <v>642400</v>
+      </c>
+      <c r="U414" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/renault/logan-stepway-4422</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -22364,38 +22364,30 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway New</t>
         </is>
       </c>
       <c r="D415" t="n">
-        <v>519500</v>
+        <v>636100</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
-        </is>
-      </c>
-      <c r="N415" t="n">
-        <v>547300</v>
-      </c>
-      <c r="O415" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/renault/sandero/</t>
-        </is>
-      </c>
-      <c r="P415" t="n">
-        <v>519500</v>
-      </c>
-      <c r="Q415" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
+          <t>https://vita-auto.ru/renault/logan-stepway-new/</t>
+        </is>
+      </c>
+      <c r="R415" t="n">
+        <v>636100</v>
+      </c>
+      <c r="S415" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/renault/logan-stepway-new/</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -22405,54 +22397,38 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Sandero New</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D416" t="n">
-        <v>514000</v>
+        <v>519500</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/renault/new-sandero</t>
-        </is>
-      </c>
-      <c r="H416" t="n">
-        <v>514000</v>
-      </c>
-      <c r="I416" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/renault/new-sandero</t>
-        </is>
-      </c>
-      <c r="L416" t="n">
-        <v>592400</v>
-      </c>
-      <c r="M416" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/renault/sandero-19983279</t>
-        </is>
-      </c>
-      <c r="R416" t="n">
-        <v>592300</v>
-      </c>
-      <c r="S416" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/renault/sandero-new/</t>
-        </is>
-      </c>
-      <c r="T416" t="n">
-        <v>592300</v>
-      </c>
-      <c r="U416" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/renault/sandero-7008</t>
+          <t>https://idol-avto.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
+        </is>
+      </c>
+      <c r="N416" t="n">
+        <v>547300</v>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="P416" t="n">
+        <v>519500</v>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -22462,38 +22438,54 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero New</t>
         </is>
       </c>
       <c r="D417" t="n">
-        <v>549500</v>
+        <v>514000</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/renault/sandero/ii-res-hatchback-stepway-5/</t>
-        </is>
-      </c>
-      <c r="N417" t="n">
-        <v>565300</v>
-      </c>
-      <c r="O417" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="P417" t="n">
-        <v>549500</v>
-      </c>
-      <c r="Q417" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/renault/sandero/ii-res-hatchback-stepway-5/</t>
+          <t>https://dc-dbr.ru/catalog/renault/new-sandero</t>
+        </is>
+      </c>
+      <c r="H417" t="n">
+        <v>514000</v>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/renault/new-sandero</t>
+        </is>
+      </c>
+      <c r="L417" t="n">
+        <v>592400</v>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/renault/sandero-19983279</t>
+        </is>
+      </c>
+      <c r="R417" t="n">
+        <v>592300</v>
+      </c>
+      <c r="S417" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/renault/sandero-new/</t>
+        </is>
+      </c>
+      <c r="T417" t="n">
+        <v>592300</v>
+      </c>
+      <c r="U417" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/renault/sandero-7008</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -22503,89 +22495,95 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Sandero Stepway New</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D418" t="n">
-        <v>554000</v>
+        <v>549500</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/renault/new-sandero-stepway</t>
-        </is>
-      </c>
-      <c r="H418" t="n">
-        <v>554000</v>
-      </c>
-      <c r="I418" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/renault/new-sandero-stepway</t>
-        </is>
-      </c>
-      <c r="L418" t="n">
-        <v>686300</v>
-      </c>
-      <c r="M418" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/renault/sandero-stepway-37355046</t>
-        </is>
-      </c>
-      <c r="R418" t="n">
-        <v>680200</v>
-      </c>
-      <c r="S418" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/renault/sandero-stepway-new/</t>
-        </is>
-      </c>
-      <c r="T418" t="n">
-        <v>686500</v>
-      </c>
-      <c r="U418" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/renault/sandero-stepway-8151</t>
+          <t>https://idol-avto.ru/cars-new/renault/sandero/ii-res-hatchback-stepway-5/</t>
+        </is>
+      </c>
+      <c r="N418" t="n">
+        <v>565300</v>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="P418" t="n">
+        <v>549500</v>
+      </c>
+      <c r="Q418" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/renault/sandero/ii-res-hatchback-stepway-5/</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Rising</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Sandero Stepway New</t>
         </is>
       </c>
       <c r="D419" t="n">
-        <v>6310000</v>
+        <v>554000</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/rising/f7-1</t>
-        </is>
-      </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>6310000</t>
-        </is>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>https://nord-car.ru/catalog/rising/f7-1</t>
+          <t>https://dc-dbr.ru/catalog/renault/new-sandero-stepway</t>
+        </is>
+      </c>
+      <c r="H419" t="n">
+        <v>554000</v>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/renault/new-sandero-stepway</t>
+        </is>
+      </c>
+      <c r="L419" t="n">
+        <v>686300</v>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/renault/sandero-stepway-37355046</t>
+        </is>
+      </c>
+      <c r="R419" t="n">
+        <v>680200</v>
+      </c>
+      <c r="S419" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/renault/sandero-stepway-new/</t>
+        </is>
+      </c>
+      <c r="T419" t="n">
+        <v>686500</v>
+      </c>
+      <c r="U419" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/renault/sandero-stepway-8151</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>568</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -22595,115 +22593,67 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>R7</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D420" t="n">
-        <v>6940000</v>
+        <v>6310000</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/rising/r7</t>
+          <t>https://nord-car.ru/catalog/rising/f7-1</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>6940000</t>
+          <t>6310000</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/rising/r7</t>
+          <t>https://nord-car.ru/catalog/rising/f7-1</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Rising</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>R7</t>
         </is>
       </c>
       <c r="D421" t="n">
-        <v>799000</v>
+        <v>6940000</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/swm/g01/</t>
+          <t>https://nord-car.ru/catalog/rising/r7</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>1938220</t>
+          <t>6940000</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/swm/g01</t>
-        </is>
-      </c>
-      <c r="H421" t="n">
-        <v>2438220</v>
-      </c>
-      <c r="I421" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/swm/g01</t>
-        </is>
-      </c>
-      <c r="L421" t="n">
-        <v>1732500</v>
-      </c>
-      <c r="M421" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/swm/g01-1170518139</t>
-        </is>
-      </c>
-      <c r="N421" t="n">
-        <v>799000</v>
-      </c>
-      <c r="O421" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/swm/g01/</t>
-        </is>
-      </c>
-      <c r="P421" t="n">
-        <v>1741300</v>
-      </c>
-      <c r="Q421" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/swm/g01/2018-allroad-5/</t>
-        </is>
-      </c>
-      <c r="R421" t="n">
-        <v>1732500</v>
-      </c>
-      <c r="S421" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/swm/g01/</t>
-        </is>
-      </c>
-      <c r="T421" t="n">
-        <v>1732500</v>
-      </c>
-      <c r="U421" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/swm/g01-1170518139</t>
+          <t>https://nord-car.ru/catalog/rising/r7</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -22713,80 +22663,80 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D422" t="n">
-        <v>990000</v>
+        <v>799000</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/swm/g01f/</t>
+          <t>https://kosmos-cars.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2088340</t>
+          <t>1938220</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/swm/g01f</t>
+          <t>https://nord-car.ru/catalog/swm/g01</t>
         </is>
       </c>
       <c r="H422" t="n">
-        <v>2588340</v>
+        <v>2438220</v>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/swm/g01f</t>
+          <t>https://dc-dbr.ru/catalog/swm/g01</t>
         </is>
       </c>
       <c r="L422" t="n">
-        <v>1867700</v>
+        <v>1732500</v>
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/swm/g01f-1170518169</t>
+          <t>https://warshauto.ru/swm/g01-1170518139</t>
         </is>
       </c>
       <c r="N422" t="n">
-        <v>990000</v>
+        <v>799000</v>
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/swm/g01f/</t>
+          <t>https://kosmos-cars.ru/cars/swm/g01/</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>1953000</v>
+        <v>1741300</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/swm/g01f/2018-allroad-5/</t>
+          <t>https://idol-avto.ru/cars-new/swm/g01/2018-allroad-5/</t>
         </is>
       </c>
       <c r="R422" t="n">
-        <v>1867700</v>
+        <v>1732500</v>
       </c>
       <c r="S422" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/swm/g01f/</t>
+          <t>https://vita-auto.ru/swm/g01/</t>
         </is>
       </c>
       <c r="T422" t="n">
-        <v>1867700</v>
+        <v>1732500</v>
       </c>
       <c r="U422" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/swm/g01f-1170518169</t>
+          <t>https://alcon-auto.ru/swm/g01-1170518139</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -22796,145 +22746,163 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D423" t="n">
-        <v>949000</v>
+        <v>990000</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/swm/g05_pro/</t>
+          <t>https://kosmos-cars.ru/cars/swm/g01f/</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2125960</t>
+          <t>2088340</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/swm/g05-pro</t>
+          <t>https://nord-car.ru/catalog/swm/g01f</t>
         </is>
       </c>
       <c r="H423" t="n">
-        <v>2625960</v>
+        <v>2588340</v>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/swm/g05-pro</t>
+          <t>https://dc-dbr.ru/catalog/swm/g01f</t>
         </is>
       </c>
       <c r="L423" t="n">
-        <v>2063500</v>
+        <v>1867700</v>
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/swm/g05-pro-1170518249</t>
+          <t>https://warshauto.ru/swm/g01f-1170518169</t>
         </is>
       </c>
       <c r="N423" t="n">
-        <v>949000</v>
+        <v>990000</v>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/swm/g05_pro/</t>
+          <t>https://kosmos-cars.ru/cars/swm/g01f/</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>1982000</v>
+        <v>1953000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/swm/g05pro/2021-allroad-5/</t>
+          <t>https://idol-avto.ru/cars-new/swm/g01f/2018-allroad-5/</t>
         </is>
       </c>
       <c r="R423" t="n">
-        <v>2063500</v>
+        <v>1867700</v>
       </c>
       <c r="S423" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/swm/g05-pro/</t>
+          <t>https://vita-auto.ru/swm/g01f/</t>
         </is>
       </c>
       <c r="T423" t="n">
-        <v>2063500</v>
+        <v>1867700</v>
       </c>
       <c r="U423" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/swm/g05-pro-1170518249</t>
+          <t>https://alcon-auto.ru/swm/g01f-1170518169</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D424" t="n">
-        <v>720700</v>
+        <v>949000</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/skoda/karoq</t>
+          <t>https://kosmos-cars.ru/cars/swm/g05_pro/</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2125960</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>https://nord-car.ru/catalog/swm/g05-pro</t>
         </is>
       </c>
       <c r="H424" t="n">
-        <v>720700</v>
+        <v>2625960</v>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/skoda/karoq</t>
+          <t>https://dc-dbr.ru/catalog/swm/g05-pro</t>
         </is>
       </c>
       <c r="L424" t="n">
-        <v>1221200</v>
+        <v>2063500</v>
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/skoda/karoq-149265591</t>
+          <t>https://warshauto.ru/swm/g05-pro-1170518249</t>
         </is>
       </c>
       <c r="N424" t="n">
-        <v>1956000</v>
+        <v>949000</v>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/skoda/karoq/</t>
+          <t>https://kosmos-cars.ru/cars/swm/g05_pro/</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>778100</v>
+        <v>1982000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/skoda/karoq/i-allroad-5/</t>
+          <t>https://idol-avto.ru/cars-new/swm/g05pro/2021-allroad-5/</t>
+        </is>
+      </c>
+      <c r="R424" t="n">
+        <v>2063500</v>
+      </c>
+      <c r="S424" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/swm/g05-pro/</t>
         </is>
       </c>
       <c r="T424" t="n">
-        <v>1221100</v>
+        <v>2063500</v>
       </c>
       <c r="U424" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/skoda/karoq-17532</t>
+          <t>https://alcon-auto.ru/swm/g05-pro-1170518249</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -22944,30 +22912,62 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Karoq New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D425" t="n">
+        <v>720700</v>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="H425" t="n">
+        <v>720700</v>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="L425" t="n">
+        <v>1221200</v>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/skoda/karoq-149265591</t>
+        </is>
+      </c>
+      <c r="N425" t="n">
+        <v>1956000</v>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="P425" t="n">
+        <v>778100</v>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/skoda/karoq/i-allroad-5/</t>
+        </is>
+      </c>
+      <c r="T425" t="n">
         <v>1221100</v>
       </c>
-      <c r="E425" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="R425" t="n">
-        <v>1221100</v>
-      </c>
-      <c r="S425" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/skoda/karoq/</t>
+      <c r="U425" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/skoda/karoq-17532</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>572</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -22977,30 +22977,30 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Karoq Restyling</t>
+          <t>Karoq New</t>
         </is>
       </c>
       <c r="D426" t="n">
-        <v>1648400</v>
+        <v>1221100</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P426" t="n">
-        <v>1648400</v>
-      </c>
-      <c r="Q426" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
+          <t>https://vita-auto.ru/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="R426" t="n">
+        <v>1221100</v>
+      </c>
+      <c r="S426" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -23010,46 +23010,30 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Karoq Restyling</t>
         </is>
       </c>
       <c r="D427" t="n">
-        <v>929000</v>
+        <v>1648400</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/skoda/kodiaq</t>
-        </is>
-      </c>
-      <c r="H427" t="n">
-        <v>929000</v>
-      </c>
-      <c r="I427" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/skoda/kodiaq</t>
-        </is>
-      </c>
-      <c r="N427" t="n">
-        <v>2330000</v>
-      </c>
-      <c r="O427" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/skoda/kodiaq/</t>
+          <t>https://idol-avto.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>929100</v>
+        <v>1648400</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/skoda/kodiaq/i-allroad-5/</t>
+          <t>https://idol-avto.ru/cars-new/skoda/karoq/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -23059,30 +23043,46 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Kodiaq 2021 New</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D428" t="n">
-        <v>1914900</v>
+        <v>929000</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/skoda/kodiaq-91548</t>
-        </is>
-      </c>
-      <c r="T428" t="n">
-        <v>1914900</v>
-      </c>
-      <c r="U428" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/skoda/kodiaq-91548</t>
+          <t>https://dc-dbr.ru/catalog/skoda/kodiaq</t>
+        </is>
+      </c>
+      <c r="H428" t="n">
+        <v>929000</v>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/skoda/kodiaq</t>
+        </is>
+      </c>
+      <c r="N428" t="n">
+        <v>2330000</v>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="P428" t="n">
+        <v>929100</v>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/skoda/kodiaq/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>577</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -23092,7 +23092,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq 2021 New</t>
         </is>
       </c>
       <c r="D429" t="n">
@@ -23100,30 +23100,22 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/skoda/kodiaq-new-2021/</t>
-        </is>
-      </c>
-      <c r="L429" t="n">
-        <v>1915000</v>
-      </c>
-      <c r="M429" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/skoda/kodiaq-989590900</t>
-        </is>
-      </c>
-      <c r="R429" t="n">
+          <t>https://alcon-auto.ru/skoda/kodiaq-91548</t>
+        </is>
+      </c>
+      <c r="T429" t="n">
         <v>1914900</v>
       </c>
-      <c r="S429" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/skoda/kodiaq-new-2021/</t>
+      <c r="U429" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/skoda/kodiaq-91548</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -23133,30 +23125,38 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Kodiaq Restyling</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D430" t="n">
-        <v>1743300</v>
+        <v>1914900</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
-        </is>
-      </c>
-      <c r="P430" t="n">
-        <v>1743300</v>
-      </c>
-      <c r="Q430" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
+          <t>https://vita-auto.ru/skoda/kodiaq-new-2021/</t>
+        </is>
+      </c>
+      <c r="L430" t="n">
+        <v>1915000</v>
+      </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/skoda/kodiaq-989590900</t>
+        </is>
+      </c>
+      <c r="R430" t="n">
+        <v>1914900</v>
+      </c>
+      <c r="S430" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/skoda/kodiaq-new-2021/</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -23166,38 +23166,30 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq Restyling</t>
         </is>
       </c>
       <c r="D431" t="n">
-        <v>1006000</v>
+        <v>1743300</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
-        </is>
-      </c>
-      <c r="N431" t="n">
-        <v>1899000</v>
-      </c>
-      <c r="O431" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/skoda/octavia/</t>
+          <t>https://idol-avto.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>1006000</v>
+        <v>1743300</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
+          <t>https://idol-avto.ru/cars-new/skoda/kodiaq/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -23207,30 +23199,38 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Octavia A8</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D432" t="n">
-        <v>831000</v>
+        <v>1006000</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/skoda/octavia-a8</t>
-        </is>
-      </c>
-      <c r="H432" t="n">
-        <v>831000</v>
-      </c>
-      <c r="I432" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/skoda/octavia-a8</t>
+          <t>https://idol-avto.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
+        </is>
+      </c>
+      <c r="N432" t="n">
+        <v>1899000</v>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="P432" t="n">
+        <v>1006000</v>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/skoda/octavia/iv-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -23240,46 +23240,30 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia A8</t>
         </is>
       </c>
       <c r="D433" t="n">
-        <v>1152000</v>
+        <v>831000</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/skoda/octavia-13504</t>
-        </is>
-      </c>
-      <c r="L433" t="n">
-        <v>1152100</v>
-      </c>
-      <c r="M433" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/skoda/octavia-132500259</t>
-        </is>
-      </c>
-      <c r="R433" t="n">
-        <v>1152000</v>
-      </c>
-      <c r="S433" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/skoda/octavia-new20/</t>
-        </is>
-      </c>
-      <c r="T433" t="n">
-        <v>1152000</v>
-      </c>
-      <c r="U433" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/skoda/octavia-13504</t>
+          <t>https://dc-dbr.ru/catalog/skoda/octavia-a8</t>
+        </is>
+      </c>
+      <c r="H433" t="n">
+        <v>831000</v>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/skoda/octavia-a8</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -23289,38 +23273,46 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D434" t="n">
-        <v>899000</v>
+        <v>1152000</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/skoda/rapid/ii-liftback-5/</t>
-        </is>
-      </c>
-      <c r="N434" t="n">
-        <v>899000</v>
-      </c>
-      <c r="O434" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="P434" t="n">
-        <v>899000</v>
-      </c>
-      <c r="Q434" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/skoda/rapid/ii-liftback-5/</t>
+          <t>https://alcon-auto.ru/skoda/octavia-13504</t>
+        </is>
+      </c>
+      <c r="L434" t="n">
+        <v>1152100</v>
+      </c>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/skoda/octavia-132500259</t>
+        </is>
+      </c>
+      <c r="R434" t="n">
+        <v>1152000</v>
+      </c>
+      <c r="S434" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/skoda/octavia-new20/</t>
+        </is>
+      </c>
+      <c r="T434" t="n">
+        <v>1152000</v>
+      </c>
+      <c r="U434" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/skoda/octavia-13504</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -23330,54 +23322,38 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D435" t="n">
-        <v>579700</v>
+        <v>899000</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/skoda/rapid-new</t>
-        </is>
-      </c>
-      <c r="H435" t="n">
-        <v>579700</v>
-      </c>
-      <c r="I435" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/skoda/rapid-new</t>
-        </is>
-      </c>
-      <c r="L435" t="n">
-        <v>747600</v>
-      </c>
-      <c r="M435" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/skoda/rapid-149265678</t>
-        </is>
-      </c>
-      <c r="R435" t="n">
-        <v>747500</v>
-      </c>
-      <c r="S435" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/skoda/rapid-new20/</t>
-        </is>
-      </c>
-      <c r="T435" t="n">
-        <v>747500</v>
-      </c>
-      <c r="U435" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/skoda/rapid-19928</t>
+          <t>https://idol-avto.ru/cars-new/skoda/rapid/ii-liftback-5/</t>
+        </is>
+      </c>
+      <c r="N435" t="n">
+        <v>899000</v>
+      </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="P435" t="n">
+        <v>899000</v>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/skoda/rapid/ii-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -23387,38 +23363,54 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D436" t="n">
-        <v>1223800</v>
+        <v>579700</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/skoda/superb/iii-liftback-5/</t>
-        </is>
-      </c>
-      <c r="N436" t="n">
-        <v>2222000</v>
-      </c>
-      <c r="O436" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="P436" t="n">
-        <v>1223800</v>
-      </c>
-      <c r="Q436" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/skoda/superb/iii-liftback-5/</t>
+          <t>https://dc-dbr.ru/catalog/skoda/rapid-new</t>
+        </is>
+      </c>
+      <c r="H436" t="n">
+        <v>579700</v>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/skoda/rapid-new</t>
+        </is>
+      </c>
+      <c r="L436" t="n">
+        <v>747600</v>
+      </c>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/skoda/rapid-149265678</t>
+        </is>
+      </c>
+      <c r="R436" t="n">
+        <v>747500</v>
+      </c>
+      <c r="S436" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/skoda/rapid-new20/</t>
+        </is>
+      </c>
+      <c r="T436" t="n">
+        <v>747500</v>
+      </c>
+      <c r="U436" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/skoda/rapid-19928</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -23428,46 +23420,38 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Superb Combi New</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D437" t="n">
-        <v>2227100</v>
+        <v>1223800</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/skoda/superb-6752</t>
-        </is>
-      </c>
-      <c r="L437" t="n">
-        <v>2227200</v>
-      </c>
-      <c r="M437" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/skoda/superb-76230659</t>
-        </is>
-      </c>
-      <c r="R437" t="n">
-        <v>2227100</v>
-      </c>
-      <c r="S437" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/skoda/superb-combi-b8new/</t>
-        </is>
-      </c>
-      <c r="T437" t="n">
-        <v>2227100</v>
-      </c>
-      <c r="U437" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/skoda/superb-6752</t>
+          <t>https://idol-avto.ru/cars-new/skoda/superb/iii-liftback-5/</t>
+        </is>
+      </c>
+      <c r="N437" t="n">
+        <v>2222000</v>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="P437" t="n">
+        <v>1223800</v>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/skoda/superb/iii-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -23477,176 +23461,160 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>Superb Combi New</t>
         </is>
       </c>
       <c r="D438" t="n">
-        <v>1933100</v>
+        <v>2227100</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/skoda/superb-6563</t>
+          <t>https://alcon-auto.ru/skoda/superb-6752</t>
         </is>
       </c>
       <c r="L438" t="n">
-        <v>1933200</v>
+        <v>2227200</v>
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/skoda/superb-76230668</t>
+          <t>https://warshauto.ru/skoda/superb-76230659</t>
         </is>
       </c>
       <c r="R438" t="n">
-        <v>1933100</v>
+        <v>2227100</v>
       </c>
       <c r="S438" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/skoda/superb-b8new/</t>
+          <t>https://vita-auto.ru/skoda/superb-combi-b8new/</t>
         </is>
       </c>
       <c r="T438" t="n">
-        <v>1933100</v>
+        <v>2227100</v>
       </c>
       <c r="U438" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/skoda/superb-6563</t>
+          <t>https://alcon-auto.ru/skoda/superb-6752</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Skywell</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>ET5</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="D439" t="n">
-        <v>3226800</v>
+        <v>1933100</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/skywell/et5/2021-allroad-5/</t>
+          <t>https://alcon-auto.ru/skoda/superb-6563</t>
         </is>
       </c>
       <c r="L439" t="n">
-        <v>3990200</v>
+        <v>1933200</v>
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/skywell/et5-1082222163</t>
-        </is>
-      </c>
-      <c r="N439" t="n">
-        <v>3230000</v>
-      </c>
-      <c r="O439" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/skywell/et5/</t>
-        </is>
-      </c>
-      <c r="P439" t="n">
-        <v>3226800</v>
-      </c>
-      <c r="Q439" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/skywell/et5/2021-allroad-5/</t>
+          <t>https://warshauto.ru/skoda/superb-76230668</t>
         </is>
       </c>
       <c r="R439" t="n">
-        <v>3990100</v>
+        <v>1933100</v>
       </c>
       <c r="S439" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/skywell/et5/</t>
+          <t>https://vita-auto.ru/skoda/superb-b8new/</t>
         </is>
       </c>
       <c r="T439" t="n">
-        <v>3990100</v>
+        <v>1933100</v>
       </c>
       <c r="U439" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/skywell/et5-102653</t>
+          <t>https://alcon-auto.ru/skoda/superb-6563</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skywell</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>ET5</t>
         </is>
       </c>
       <c r="D440" t="n">
-        <v>1023100</v>
+        <v>3226800</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/solaris/hc/</t>
+          <t>https://idol-avto.ru/cars-new/skywell/et5/2021-allroad-5/</t>
         </is>
       </c>
       <c r="L440" t="n">
-        <v>1023200</v>
+        <v>3990200</v>
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/solaris/hc-1433380823</t>
+          <t>https://warshauto.ru/skywell/et5-1082222163</t>
         </is>
       </c>
       <c r="N440" t="n">
-        <v>1292000</v>
+        <v>3230000</v>
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/solaris/hc/</t>
+          <t>https://kosmos-cars.ru/cars/skywell/et5/</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>1290700</v>
+        <v>3226800</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/solaris/hc/2022-allroad-5/</t>
+          <t>https://idol-avto.ru/cars-new/skywell/et5/2021-allroad-5/</t>
         </is>
       </c>
       <c r="R440" t="n">
-        <v>1023100</v>
+        <v>3990100</v>
       </c>
       <c r="S440" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/solaris/hc/</t>
+          <t>https://vita-auto.ru/skywell/et5/</t>
         </is>
       </c>
       <c r="T440" t="n">
-        <v>1023200</v>
+        <v>3990100</v>
       </c>
       <c r="U440" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/solaris/hc-1433380823</t>
+          <t>https://alcon-auto.ru/skywell/et5-102653</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -23656,62 +23624,62 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D441" t="n">
-        <v>795200</v>
+        <v>1023100</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/solaris/hs/2022-sedan-4/</t>
+          <t>https://vita-auto.ru/solaris/hc/</t>
         </is>
       </c>
       <c r="L441" t="n">
-        <v>819200</v>
+        <v>1023200</v>
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/solaris/hs-1433380848</t>
+          <t>https://warshauto.ru/solaris/hc-1433380823</t>
         </is>
       </c>
       <c r="N441" t="n">
-        <v>796000</v>
+        <v>1292000</v>
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/solaris/hs/</t>
+          <t>https://kosmos-cars.ru/cars/solaris/hc/</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>795200</v>
+        <v>1290700</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/solaris/hs/2022-sedan-4/</t>
+          <t>https://idol-avto.ru/cars-new/solaris/hc/2022-allroad-5/</t>
         </is>
       </c>
       <c r="R441" t="n">
-        <v>819100</v>
+        <v>1023100</v>
       </c>
       <c r="S441" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/solaris/hs/</t>
+          <t>https://vita-auto.ru/solaris/hc/</t>
         </is>
       </c>
       <c r="T441" t="n">
-        <v>819200</v>
+        <v>1023200</v>
       </c>
       <c r="U441" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/solaris/hs-1433380848</t>
+          <t>https://alcon-auto.ru/solaris/hc-1433380823</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -23721,62 +23689,62 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D442" t="n">
-        <v>858100</v>
+        <v>795200</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/solaris/krs/2024-sedan-4/</t>
+          <t>https://idol-avto.ru/cars-new/solaris/hs/2022-sedan-4/</t>
         </is>
       </c>
       <c r="L442" t="n">
-        <v>892200</v>
+        <v>819200</v>
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/solaris/krs-1433380858</t>
+          <t>https://warshauto.ru/solaris/hs-1433380848</t>
         </is>
       </c>
       <c r="N442" t="n">
-        <v>859000</v>
+        <v>796000</v>
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/solaris/krs/</t>
+          <t>https://kosmos-cars.ru/cars/solaris/hs/</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>858100</v>
+        <v>795200</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/solaris/krs/2024-sedan-4/</t>
+          <t>https://idol-avto.ru/cars-new/solaris/hs/2022-sedan-4/</t>
         </is>
       </c>
       <c r="R442" t="n">
-        <v>892100</v>
+        <v>819100</v>
       </c>
       <c r="S442" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/solaris/krs/</t>
+          <t>https://vita-auto.ru/solaris/hs/</t>
         </is>
       </c>
       <c r="T442" t="n">
-        <v>892200</v>
+        <v>819200</v>
       </c>
       <c r="U442" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/solaris/krs-1433380858</t>
+          <t>https://alcon-auto.ru/solaris/hs-1433380848</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -23786,146 +23754,170 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D443" t="n">
-        <v>935100</v>
+        <v>858100</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/solaris/krx/</t>
+          <t>https://idol-avto.ru/cars-new/solaris/krs/2024-sedan-4/</t>
         </is>
       </c>
       <c r="L443" t="n">
-        <v>935200</v>
+        <v>892200</v>
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/solaris/krx-1433380867</t>
+          <t>https://warshauto.ru/solaris/krs-1433380858</t>
         </is>
       </c>
       <c r="N443" t="n">
-        <v>976000</v>
+        <v>859000</v>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/solaris/krx/</t>
+          <t>https://kosmos-cars.ru/cars/solaris/krs/</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>975000</v>
+        <v>858100</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
+          <t>https://idol-avto.ru/cars-new/solaris/krs/2024-sedan-4/</t>
         </is>
       </c>
       <c r="R443" t="n">
-        <v>935100</v>
+        <v>892100</v>
       </c>
       <c r="S443" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/solaris/krx/</t>
+          <t>https://vita-auto.ru/solaris/krs/</t>
         </is>
       </c>
       <c r="T443" t="n">
-        <v>935200</v>
+        <v>892200</v>
       </c>
       <c r="U443" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/solaris/krx-1433380867</t>
+          <t>https://alcon-auto.ru/solaris/krs-1433380858</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>DX8S Chieftain Edition</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D444" t="n">
-        <v>2600000</v>
+        <v>935100</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/soueast/dx8s-chieftain-edition</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>2600000</t>
-        </is>
-      </c>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>https://nord-car.ru/catalog/soueast/dx8s-chieftain-edition</t>
-        </is>
-      </c>
-      <c r="H444" t="n">
-        <v>2600000</v>
-      </c>
-      <c r="I444" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/soueast/dx8s-chieftain-edition</t>
+          <t>https://vita-auto.ru/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="L444" t="n">
+        <v>935200</v>
+      </c>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/solaris/krx-1433380867</t>
+        </is>
+      </c>
+      <c r="N444" t="n">
+        <v>976000</v>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="P444" t="n">
+        <v>975000</v>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/solaris/krx/2024-hatchback-5/</t>
+        </is>
+      </c>
+      <c r="R444" t="n">
+        <v>935100</v>
+      </c>
+      <c r="S444" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="T444" t="n">
+        <v>935200</v>
+      </c>
+      <c r="U444" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/solaris/krx-1433380867</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>SsangYong</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Actyon</t>
+          <t>DX8S Chieftain Edition</t>
         </is>
       </c>
       <c r="D445" t="n">
-        <v>795000</v>
+        <v>2600000</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/ssangyong/actyon-19984778</t>
-        </is>
-      </c>
-      <c r="L445" t="n">
-        <v>795000</v>
-      </c>
-      <c r="M445" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/ssangyong/actyon-19984778</t>
-        </is>
-      </c>
-      <c r="T445" t="n">
-        <v>795200</v>
-      </c>
-      <c r="U445" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/ssangyong/actyon-5189</t>
+          <t>https://dc-dbr.ru/catalog/soueast/dx8s-chieftain-edition</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>2600000</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>https://nord-car.ru/catalog/soueast/dx8s-chieftain-edition</t>
+        </is>
+      </c>
+      <c r="H445" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/soueast/dx8s-chieftain-edition</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -23935,30 +23927,38 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Actyon New</t>
+          <t>Actyon</t>
         </is>
       </c>
       <c r="D446" t="n">
+        <v>795000</v>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/ssangyong/actyon-19984778</t>
+        </is>
+      </c>
+      <c r="L446" t="n">
+        <v>795000</v>
+      </c>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/ssangyong/actyon-19984778</t>
+        </is>
+      </c>
+      <c r="T446" t="n">
         <v>795200</v>
       </c>
-      <c r="E446" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/ssangyong/actyon-new-2018/</t>
-        </is>
-      </c>
-      <c r="R446" t="n">
-        <v>795200</v>
-      </c>
-      <c r="S446" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/ssangyong/actyon-new-2018/</t>
+      <c r="U446" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/ssangyong/actyon-5189</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -23968,30 +23968,30 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Stavic</t>
+          <t>Actyon New</t>
         </is>
       </c>
       <c r="D447" t="n">
-        <v>1072200</v>
+        <v>795200</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/ssangyong/stavic/</t>
+          <t>https://vita-auto.ru/ssangyong/actyon-new-2018/</t>
         </is>
       </c>
       <c r="R447" t="n">
-        <v>1072200</v>
+        <v>795200</v>
       </c>
       <c r="S447" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/ssangyong/stavic/</t>
+          <t>https://vita-auto.ru/ssangyong/actyon-new-2018/</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>603</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -24001,95 +24001,79 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Tivol</t>
+          <t>Stavic</t>
         </is>
       </c>
       <c r="D448" t="n">
-        <v>619100</v>
+        <v>1072200</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/ssangyong/tivoli-2120</t>
-        </is>
-      </c>
-      <c r="L448" t="n">
-        <v>619200</v>
-      </c>
-      <c r="M448" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/ssangyong/tivoli-19985721</t>
+          <t>https://vita-auto.ru/ssangyong/stavic/</t>
         </is>
       </c>
       <c r="R448" t="n">
-        <v>619100</v>
+        <v>1072200</v>
       </c>
       <c r="S448" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/ssangyong/tivoli/</t>
-        </is>
-      </c>
-      <c r="T448" t="n">
-        <v>619100</v>
-      </c>
-      <c r="U448" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/ssangyong/tivoli-2120</t>
+          <t>https://vita-auto.ru/ssangyong/stavic/</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>SsangYong</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Baleno</t>
+          <t>Tivol</t>
         </is>
       </c>
       <c r="D449" t="n">
-        <v>1499200</v>
+        <v>619100</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/suzuki/baleno/</t>
+          <t>https://alcon-auto.ru/ssangyong/tivoli-2120</t>
         </is>
       </c>
       <c r="L449" t="n">
-        <v>1499300</v>
+        <v>619200</v>
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/suzuki/baleno-1153159950</t>
+          <t>https://warshauto.ru/ssangyong/tivoli-19985721</t>
         </is>
       </c>
       <c r="R449" t="n">
-        <v>1499200</v>
+        <v>619100</v>
       </c>
       <c r="S449" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/suzuki/baleno/</t>
+          <t>https://vita-auto.ru/ssangyong/tivoli/</t>
         </is>
       </c>
       <c r="T449" t="n">
-        <v>1499300</v>
+        <v>619100</v>
       </c>
       <c r="U449" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/suzuki/baleno-111652</t>
+          <t>https://alcon-auto.ru/ssangyong/tivoli-2120</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>605</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -24099,54 +24083,46 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Jimny New</t>
+          <t>Baleno</t>
         </is>
       </c>
       <c r="D450" t="n">
-        <v>1069000</v>
+        <v>1499200</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/suzuki/new-jimny</t>
-        </is>
-      </c>
-      <c r="H450" t="n">
-        <v>1069000</v>
-      </c>
-      <c r="I450" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/suzuki/new-jimny</t>
+          <t>https://vita-auto.ru/suzuki/baleno/</t>
         </is>
       </c>
       <c r="L450" t="n">
-        <v>1379200</v>
+        <v>1499300</v>
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/suzuki/jimny-39929222</t>
+          <t>https://warshauto.ru/suzuki/baleno-1153159950</t>
         </is>
       </c>
       <c r="R450" t="n">
-        <v>1379100</v>
+        <v>1499200</v>
       </c>
       <c r="S450" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/suzuki/jimny-new-62019/</t>
+          <t>https://vita-auto.ru/suzuki/baleno/</t>
         </is>
       </c>
       <c r="T450" t="n">
-        <v>1379100</v>
+        <v>1499300</v>
       </c>
       <c r="U450" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/suzuki/jimny-6464</t>
+          <t>https://alcon-auto.ru/suzuki/baleno-111652</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -24156,54 +24132,54 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Jimny New</t>
         </is>
       </c>
       <c r="D451" t="n">
-        <v>869000</v>
+        <v>1069000</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/suzuki/sx4</t>
+          <t>https://dc-dbr.ru/catalog/suzuki/new-jimny</t>
         </is>
       </c>
       <c r="H451" t="n">
-        <v>869000</v>
+        <v>1069000</v>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/suzuki/sx4</t>
+          <t>https://dc-dbr.ru/catalog/suzuki/new-jimny</t>
         </is>
       </c>
       <c r="L451" t="n">
-        <v>984200</v>
+        <v>1379200</v>
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/suzuki/sx4-19989823</t>
+          <t>https://warshauto.ru/suzuki/jimny-39929222</t>
         </is>
       </c>
       <c r="R451" t="n">
-        <v>984100</v>
+        <v>1379100</v>
       </c>
       <c r="S451" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/suzuki/sx4/</t>
+          <t>https://vita-auto.ru/suzuki/jimny-new-62019/</t>
         </is>
       </c>
       <c r="T451" t="n">
-        <v>984100</v>
+        <v>1379100</v>
       </c>
       <c r="U451" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/suzuki/sx4-4090</t>
+          <t>https://alcon-auto.ru/suzuki/jimny-6464</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -24213,30 +24189,54 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D452" t="n">
-        <v>919000</v>
+        <v>869000</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/suzuki/vitara</t>
+          <t>https://dc-dbr.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
       <c r="H452" t="n">
-        <v>919000</v>
+        <v>869000</v>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/suzuki/vitara</t>
+          <t>https://dc-dbr.ru/catalog/suzuki/sx4</t>
+        </is>
+      </c>
+      <c r="L452" t="n">
+        <v>984200</v>
+      </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/suzuki/sx4-19989823</t>
+        </is>
+      </c>
+      <c r="R452" t="n">
+        <v>984100</v>
+      </c>
+      <c r="S452" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/suzuki/sx4/</t>
+        </is>
+      </c>
+      <c r="T452" t="n">
+        <v>984100</v>
+      </c>
+      <c r="U452" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/suzuki/sx4-4090</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -24246,129 +24246,79 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Vitara New</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D453" t="n">
-        <v>1199100</v>
+        <v>919000</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/suzuki/vitara-3732</t>
-        </is>
-      </c>
-      <c r="L453" t="n">
-        <v>1199200</v>
-      </c>
-      <c r="M453" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/suzuki/vitara-39929667</t>
-        </is>
-      </c>
-      <c r="R453" t="n">
-        <v>1199100</v>
-      </c>
-      <c r="S453" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/suzuki/vitara-new/</t>
-        </is>
-      </c>
-      <c r="T453" t="n">
-        <v>1199100</v>
-      </c>
-      <c r="U453" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/suzuki/vitara-3732</t>
+          <t>https://dc-dbr.ru/catalog/suzuki/vitara</t>
+        </is>
+      </c>
+      <c r="H453" t="n">
+        <v>919000</v>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/suzuki/vitara</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>609</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Vitara New</t>
         </is>
       </c>
       <c r="D454" t="n">
-        <v>2250000</v>
+        <v>1199100</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/tank/300</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>2250000</t>
-        </is>
-      </c>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>https://nord-car.ru/catalog/tank/300</t>
-        </is>
-      </c>
-      <c r="H454" t="n">
-        <v>3599000</v>
-      </c>
-      <c r="I454" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/tank/300</t>
+          <t>https://alcon-auto.ru/suzuki/vitara-3732</t>
         </is>
       </c>
       <c r="L454" t="n">
-        <v>2829300</v>
+        <v>1199200</v>
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/tank/300-1148025570</t>
-        </is>
-      </c>
-      <c r="N454" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="O454" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/tank/300/</t>
-        </is>
-      </c>
-      <c r="P454" t="n">
-        <v>2496500</v>
-      </c>
-      <c r="Q454" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/tank/300/2021-allroad-5/</t>
+          <t>https://warshauto.ru/suzuki/vitara-39929667</t>
         </is>
       </c>
       <c r="R454" t="n">
-        <v>2829200</v>
+        <v>1199100</v>
       </c>
       <c r="S454" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/tank/300/</t>
+          <t>https://vita-auto.ru/suzuki/vitara-new/</t>
         </is>
       </c>
       <c r="T454" t="n">
-        <v>2829200</v>
+        <v>1199100</v>
       </c>
       <c r="U454" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/tank/300-115221</t>
+          <t>https://alcon-auto.ru/suzuki/vitara-3732</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -24378,129 +24328,163 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D455" t="n">
-        <v>3799000</v>
+        <v>2250000</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/tank/500</t>
+          <t>https://nord-car.ru/catalog/tank/300</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>3799000</t>
+          <t>2250000</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/tank/500</t>
+          <t>https://nord-car.ru/catalog/tank/300</t>
         </is>
       </c>
       <c r="H455" t="n">
-        <v>3799000</v>
+        <v>3599000</v>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/tank/500</t>
+          <t>https://dc-dbr.ru/catalog/tank/300</t>
         </is>
       </c>
       <c r="L455" t="n">
-        <v>4089300</v>
+        <v>2829300</v>
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/tank/500-1153160689</t>
+          <t>https://warshauto.ru/tank/300-1148025570</t>
         </is>
       </c>
       <c r="N455" t="n">
-        <v>3999000</v>
+        <v>2499000</v>
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/tank/500/</t>
+          <t>https://kosmos-cars.ru/cars/tank/300/</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>3995000</v>
+        <v>2496500</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/tank/500/2021-allroad-5/</t>
+          <t>https://idol-avto.ru/cars-new/tank/300/2021-allroad-5/</t>
         </is>
       </c>
       <c r="R455" t="n">
-        <v>4089200</v>
+        <v>2829200</v>
       </c>
       <c r="S455" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/tank/500/</t>
+          <t>https://vita-auto.ru/tank/300/</t>
         </is>
       </c>
       <c r="T455" t="n">
-        <v>4089200</v>
+        <v>2829200</v>
       </c>
       <c r="U455" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/tank/500-112908</t>
+          <t>https://alcon-auto.ru/tank/300-115221</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Alphard</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D456" t="n">
-        <v>6683200</v>
+        <v>3799000</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/toyota/alphard-2269</t>
+          <t>https://dc-dbr.ru/catalog/tank/500</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>3799000</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>https://nord-car.ru/catalog/tank/500</t>
+        </is>
+      </c>
+      <c r="H456" t="n">
+        <v>3799000</v>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/tank/500</t>
         </is>
       </c>
       <c r="L456" t="n">
-        <v>6683300</v>
+        <v>4089300</v>
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/toyota/alphard-19988047</t>
+          <t>https://warshauto.ru/tank/500-1153160689</t>
+        </is>
+      </c>
+      <c r="N456" t="n">
+        <v>3999000</v>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/tank/500/</t>
+        </is>
+      </c>
+      <c r="P456" t="n">
+        <v>3995000</v>
+      </c>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/tank/500/2021-allroad-5/</t>
         </is>
       </c>
       <c r="R456" t="n">
-        <v>6683200</v>
+        <v>4089200</v>
       </c>
       <c r="S456" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/toyota/alphard/</t>
+          <t>https://vita-auto.ru/tank/500/</t>
         </is>
       </c>
       <c r="T456" t="n">
-        <v>6683200</v>
+        <v>4089200</v>
       </c>
       <c r="U456" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/toyota/alphard-2269</t>
+          <t>https://alcon-auto.ru/tank/500-112908</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>616</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -24510,38 +24494,46 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>Alphard</t>
         </is>
       </c>
       <c r="D457" t="n">
-        <v>1863100</v>
+        <v>6683200</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/toyota/c-hr/i-res-allroad-5/</t>
-        </is>
-      </c>
-      <c r="N457" t="n">
-        <v>1865000</v>
-      </c>
-      <c r="O457" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/toyota/c-hr/</t>
-        </is>
-      </c>
-      <c r="P457" t="n">
-        <v>1863100</v>
-      </c>
-      <c r="Q457" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/toyota/c-hr/i-res-allroad-5/</t>
+          <t>https://alcon-auto.ru/toyota/alphard-2269</t>
+        </is>
+      </c>
+      <c r="L457" t="n">
+        <v>6683300</v>
+      </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/toyota/alphard-19988047</t>
+        </is>
+      </c>
+      <c r="R457" t="n">
+        <v>6683200</v>
+      </c>
+      <c r="S457" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/toyota/alphard/</t>
+        </is>
+      </c>
+      <c r="T457" t="n">
+        <v>6683200</v>
+      </c>
+      <c r="U457" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/toyota/alphard-2269</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -24551,54 +24543,38 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>CH-R New</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D458" t="n">
-        <v>1736600</v>
+        <v>1863100</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/toyota/c-hr-12483</t>
-        </is>
-      </c>
-      <c r="H458" t="n">
-        <v>2629999</v>
-      </c>
-      <c r="I458" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/toyota/c-hr-new</t>
-        </is>
-      </c>
-      <c r="L458" t="n">
-        <v>1736700</v>
-      </c>
-      <c r="M458" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/toyota/c-hr-132503048</t>
-        </is>
-      </c>
-      <c r="R458" t="n">
-        <v>1736600</v>
-      </c>
-      <c r="S458" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/toyota/c-hr-20new/</t>
-        </is>
-      </c>
-      <c r="T458" t="n">
-        <v>1736600</v>
-      </c>
-      <c r="U458" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/toyota/c-hr-12483</t>
+          <t>https://idol-avto.ru/cars-new/toyota/c-hr/i-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="N458" t="n">
+        <v>1865000</v>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/toyota/c-hr/</t>
+        </is>
+      </c>
+      <c r="P458" t="n">
+        <v>1863100</v>
+      </c>
+      <c r="Q458" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/toyota/c-hr/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -24608,38 +24584,54 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>CH-R New</t>
         </is>
       </c>
       <c r="D459" t="n">
-        <v>2679300</v>
+        <v>1736600</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/toyota/camry/viii-res-sedan-4/</t>
-        </is>
-      </c>
-      <c r="N459" t="n">
-        <v>2682000</v>
-      </c>
-      <c r="O459" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/toyota/camry/</t>
-        </is>
-      </c>
-      <c r="P459" t="n">
-        <v>2679300</v>
-      </c>
-      <c r="Q459" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/toyota/camry/viii-res-sedan-4/</t>
+          <t>https://alcon-auto.ru/toyota/c-hr-12483</t>
+        </is>
+      </c>
+      <c r="H459" t="n">
+        <v>2629999</v>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/toyota/c-hr-new</t>
+        </is>
+      </c>
+      <c r="L459" t="n">
+        <v>1736700</v>
+      </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/toyota/c-hr-132503048</t>
+        </is>
+      </c>
+      <c r="R459" t="n">
+        <v>1736600</v>
+      </c>
+      <c r="S459" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/toyota/c-hr-20new/</t>
+        </is>
+      </c>
+      <c r="T459" t="n">
+        <v>1736600</v>
+      </c>
+      <c r="U459" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/toyota/c-hr-12483</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -24649,70 +24641,38 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D460" t="n">
-        <v>1708299</v>
+        <v>2679300</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/toyota/camry-new</t>
-        </is>
-      </c>
-      <c r="H460" t="n">
-        <v>1708299</v>
-      </c>
-      <c r="I460" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/toyota/camry-new</t>
-        </is>
-      </c>
-      <c r="L460" t="n">
-        <v>2099500</v>
-      </c>
-      <c r="M460" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/toyota/camry-xv70-982648937</t>
+          <t>https://idol-avto.ru/cars-new/toyota/camry/viii-res-sedan-4/</t>
         </is>
       </c>
       <c r="N460" t="n">
-        <v>2859000</v>
+        <v>2682000</v>
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/toyota/new_camry/</t>
+          <t>https://kosmos-cars.ru/cars/toyota/camry/</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>3209800</v>
+        <v>2679300</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/toyota/camry/ix-sedan-4/</t>
-        </is>
-      </c>
-      <c r="R460" t="n">
-        <v>2099700</v>
-      </c>
-      <c r="S460" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/toyota/camry-new2021/</t>
-        </is>
-      </c>
-      <c r="T460" t="n">
-        <v>2099700</v>
-      </c>
-      <c r="U460" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/toyota/camry-xv70-98576</t>
+          <t>https://idol-avto.ru/cars-new/toyota/camry/viii-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -24722,38 +24682,70 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D461" t="n">
-        <v>1248800</v>
+        <v>1708299</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/toyota/corolla/xii-sedan-4/</t>
+          <t>https://dc-dbr.ru/catalog/toyota/camry-new</t>
+        </is>
+      </c>
+      <c r="H461" t="n">
+        <v>1708299</v>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/toyota/camry-new</t>
+        </is>
+      </c>
+      <c r="L461" t="n">
+        <v>2099500</v>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/toyota/camry-xv70-982648937</t>
         </is>
       </c>
       <c r="N461" t="n">
-        <v>1250000</v>
+        <v>2859000</v>
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/toyota/corolla/</t>
+          <t>https://kosmos-cars.ru/cars/toyota/new_camry/</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>1248800</v>
+        <v>3209800</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/toyota/corolla/xii-sedan-4/</t>
+          <t>https://idol-avto.ru/cars-new/toyota/camry/ix-sedan-4/</t>
+        </is>
+      </c>
+      <c r="R461" t="n">
+        <v>2099700</v>
+      </c>
+      <c r="S461" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/toyota/camry-new2021/</t>
+        </is>
+      </c>
+      <c r="T461" t="n">
+        <v>2099700</v>
+      </c>
+      <c r="U461" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/toyota/camry-xv70-98576</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -24763,54 +24755,38 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Corolla New</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D462" t="n">
-        <v>980300</v>
+        <v>1248800</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/toyota/new-corolla</t>
-        </is>
-      </c>
-      <c r="H462" t="n">
-        <v>980300</v>
-      </c>
-      <c r="I462" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/toyota/new-corolla</t>
-        </is>
-      </c>
-      <c r="L462" t="n">
-        <v>1240100</v>
-      </c>
-      <c r="M462" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/toyota/corolla-39930671</t>
-        </is>
-      </c>
-      <c r="R462" t="n">
-        <v>1240000</v>
-      </c>
-      <c r="S462" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/toyota/corolla-new-2021/</t>
-        </is>
-      </c>
-      <c r="T462" t="n">
-        <v>1240000</v>
-      </c>
-      <c r="U462" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/toyota/corolla-9546</t>
+          <t>https://idol-avto.ru/cars-new/toyota/corolla/xii-sedan-4/</t>
+        </is>
+      </c>
+      <c r="N462" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/toyota/corolla/</t>
+        </is>
+      </c>
+      <c r="P462" t="n">
+        <v>1248800</v>
+      </c>
+      <c r="Q462" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/toyota/corolla/xii-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -24820,46 +24796,54 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Fortuner New</t>
+          <t>Corolla New</t>
         </is>
       </c>
       <c r="D463" t="n">
-        <v>2566100</v>
+        <v>980300</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/toyota/fortuner-18349</t>
+          <t>https://dc-dbr.ru/catalog/toyota/new-corolla</t>
+        </is>
+      </c>
+      <c r="H463" t="n">
+        <v>980300</v>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/toyota/new-corolla</t>
         </is>
       </c>
       <c r="L463" t="n">
-        <v>2566200</v>
+        <v>1240100</v>
       </c>
       <c r="M463" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/toyota/fortuner-177018055</t>
+          <t>https://warshauto.ru/toyota/corolla-39930671</t>
         </is>
       </c>
       <c r="R463" t="n">
-        <v>2566100</v>
+        <v>1240000</v>
       </c>
       <c r="S463" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/toyota/fortuner-2020/</t>
+          <t>https://vita-auto.ru/toyota/corolla-new-2021/</t>
         </is>
       </c>
       <c r="T463" t="n">
-        <v>2566100</v>
+        <v>1240000</v>
       </c>
       <c r="U463" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/toyota/fortuner-18349</t>
+          <t>https://alcon-auto.ru/toyota/corolla-9546</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>619</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -24869,30 +24853,46 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Fortuner New</t>
         </is>
       </c>
       <c r="D464" t="n">
-        <v>4931000</v>
+        <v>2566100</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/toyota/highlander/</t>
-        </is>
-      </c>
-      <c r="N464" t="n">
-        <v>4931000</v>
-      </c>
-      <c r="O464" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/toyota/highlander/</t>
+          <t>https://alcon-auto.ru/toyota/fortuner-18349</t>
+        </is>
+      </c>
+      <c r="L464" t="n">
+        <v>2566200</v>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/toyota/fortuner-177018055</t>
+        </is>
+      </c>
+      <c r="R464" t="n">
+        <v>2566100</v>
+      </c>
+      <c r="S464" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/toyota/fortuner-2020/</t>
+        </is>
+      </c>
+      <c r="T464" t="n">
+        <v>2566100</v>
+      </c>
+      <c r="U464" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/toyota/fortuner-18349</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -24902,46 +24902,30 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Highlander New</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D465" t="n">
-        <v>3647100</v>
+        <v>4931000</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/toyota/highlander-1131</t>
-        </is>
-      </c>
-      <c r="L465" t="n">
-        <v>3647200</v>
-      </c>
-      <c r="M465" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/toyota/highlander-76235505</t>
-        </is>
-      </c>
-      <c r="R465" t="n">
-        <v>3647100</v>
-      </c>
-      <c r="S465" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/toyota/highlander-new-2020/</t>
-        </is>
-      </c>
-      <c r="T465" t="n">
-        <v>3647100</v>
-      </c>
-      <c r="U465" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/toyota/highlander-1131</t>
+          <t>https://kosmos-cars.ru/cars/toyota/highlander/</t>
+        </is>
+      </c>
+      <c r="N465" t="n">
+        <v>4931000</v>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/toyota/highlander/</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>626</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -24951,46 +24935,46 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Hilux New</t>
+          <t>Highlander New</t>
         </is>
       </c>
       <c r="D466" t="n">
-        <v>2430000</v>
+        <v>3647100</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/toyota/hilux-pick-up-177018301</t>
+          <t>https://alcon-auto.ru/toyota/highlander-1131</t>
         </is>
       </c>
       <c r="L466" t="n">
-        <v>2430000</v>
+        <v>3647200</v>
       </c>
       <c r="M466" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/toyota/hilux-pick-up-177018301</t>
+          <t>https://warshauto.ru/toyota/highlander-76235505</t>
         </is>
       </c>
       <c r="R466" t="n">
-        <v>2430200</v>
+        <v>3647100</v>
       </c>
       <c r="S466" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/toyota/hilux-new-2020/</t>
+          <t>https://vita-auto.ru/toyota/highlander-new-2020/</t>
         </is>
       </c>
       <c r="T466" t="n">
-        <v>2430200</v>
+        <v>3647100</v>
       </c>
       <c r="U466" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/toyota/hilux-pick-up-14723</t>
+          <t>https://alcon-auto.ru/toyota/highlander-1131</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>628</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -25000,38 +24984,46 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Hilux New</t>
         </is>
       </c>
       <c r="D467" t="n">
-        <v>8724000</v>
+        <v>2430000</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_300/</t>
-        </is>
-      </c>
-      <c r="N467" t="n">
-        <v>8724000</v>
-      </c>
-      <c r="O467" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_300/</t>
-        </is>
-      </c>
-      <c r="P467" t="n">
-        <v>9755200</v>
-      </c>
-      <c r="Q467" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/toyota/landcruiser/300-allroad-5/</t>
+          <t>https://warshauto.ru/toyota/hilux-pick-up-177018301</t>
+        </is>
+      </c>
+      <c r="L467" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/toyota/hilux-pick-up-177018301</t>
+        </is>
+      </c>
+      <c r="R467" t="n">
+        <v>2430200</v>
+      </c>
+      <c r="S467" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/toyota/hilux-new-2020/</t>
+        </is>
+      </c>
+      <c r="T467" t="n">
+        <v>2430200</v>
+      </c>
+      <c r="U467" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/toyota/hilux-pick-up-14723</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -25041,30 +25033,38 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Land Cruiser 300 GR-Sport</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D468" t="n">
-        <v>11456500</v>
+        <v>8724000</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_300/</t>
         </is>
       </c>
       <c r="N468" t="n">
-        <v>11456500</v>
+        <v>8724000</v>
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
+          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_300/</t>
+        </is>
+      </c>
+      <c r="P468" t="n">
+        <v>9755200</v>
+      </c>
+      <c r="Q468" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/toyota/landcruiser/300-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -25074,38 +25074,30 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Land Cruiser 300 GR-Sport</t>
         </is>
       </c>
       <c r="D469" t="n">
-        <v>5044000</v>
+        <v>11456500</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/toyota/land-cruiser-prado/150-res3-allroad-5/</t>
+          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
       <c r="N469" t="n">
-        <v>5049000</v>
+        <v>11456500</v>
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_prado/</t>
-        </is>
-      </c>
-      <c r="P469" t="n">
-        <v>5044000</v>
-      </c>
-      <c r="Q469" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/toyota/land-cruiser-prado/150-res3-allroad-5/</t>
+          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -25115,30 +25107,38 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado New</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D470" t="n">
-        <v>9211000</v>
+        <v>5044000</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_250_prado_new/</t>
+          <t>https://idol-avto.ru/cars-new/toyota/land-cruiser-prado/150-res3-allroad-5/</t>
         </is>
       </c>
       <c r="N470" t="n">
-        <v>9211000</v>
+        <v>5049000</v>
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_250_prado_new/</t>
+          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_prado/</t>
+        </is>
+      </c>
+      <c r="P470" t="n">
+        <v>5044000</v>
+      </c>
+      <c r="Q470" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/toyota/land-cruiser-prado/150-res3-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>741</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -25148,38 +25148,30 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Land Cruiser Prado New</t>
         </is>
       </c>
       <c r="D471" t="n">
-        <v>1988000</v>
+        <v>9211000</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/toyota/rav4/v-allroad-5/</t>
+          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_250_prado_new/</t>
         </is>
       </c>
       <c r="N471" t="n">
-        <v>2482000</v>
+        <v>9211000</v>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/toyota/rav4/</t>
-        </is>
-      </c>
-      <c r="P471" t="n">
-        <v>1988000</v>
-      </c>
-      <c r="Q471" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/toyota/rav4/v-allroad-5/</t>
+          <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_250_prado_new/</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -25189,111 +25181,95 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>RAV4 New</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D472" t="n">
-        <v>1471199</v>
+        <v>1988000</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/toyota/rav4-new</t>
-        </is>
-      </c>
-      <c r="H472" t="n">
-        <v>1471199</v>
-      </c>
-      <c r="I472" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/toyota/rav4-new</t>
-        </is>
-      </c>
-      <c r="L472" t="n">
-        <v>1702700</v>
-      </c>
-      <c r="M472" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/toyota/rav4-19997026</t>
-        </is>
-      </c>
-      <c r="R472" t="n">
-        <v>1702600</v>
-      </c>
-      <c r="S472" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/toyota/rav4-xa50-2019/</t>
-        </is>
-      </c>
-      <c r="T472" t="n">
-        <v>1702600</v>
-      </c>
-      <c r="U472" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/toyota/rav4-2307</t>
+          <t>https://idol-avto.ru/cars-new/toyota/rav4/v-allroad-5/</t>
+        </is>
+      </c>
+      <c r="N472" t="n">
+        <v>2482000</v>
+      </c>
+      <c r="O472" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/toyota/rav4/</t>
+        </is>
+      </c>
+      <c r="P472" t="n">
+        <v>1988000</v>
+      </c>
+      <c r="Q472" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/toyota/rav4/v-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>RAV4 New</t>
         </is>
       </c>
       <c r="D473" t="n">
-        <v>360500</v>
+        <v>1471199</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/uaz/hunter</t>
+          <t>https://dc-dbr.ru/catalog/toyota/rav4-new</t>
         </is>
       </c>
       <c r="H473" t="n">
-        <v>360500</v>
+        <v>1471199</v>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/uaz/hunter</t>
+          <t>https://dc-dbr.ru/catalog/toyota/rav4-new</t>
         </is>
       </c>
       <c r="L473" t="n">
-        <v>936710</v>
+        <v>1702700</v>
       </c>
       <c r="M473" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/uaz/hanter-19995435</t>
+          <t>https://warshauto.ru/toyota/rav4-19997026</t>
         </is>
       </c>
       <c r="R473" t="n">
-        <v>936610</v>
+        <v>1702600</v>
       </c>
       <c r="S473" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/uaz/hanter/</t>
+          <t>https://vita-auto.ru/toyota/rav4-xa50-2019/</t>
         </is>
       </c>
       <c r="T473" t="n">
-        <v>936610</v>
+        <v>1702600</v>
       </c>
       <c r="U473" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/uaz/hanter-4650</t>
+          <t>https://alcon-auto.ru/toyota/rav4-2307</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -25303,54 +25279,54 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D474" t="n">
-        <v>1054720</v>
+        <v>360500</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/uaz/patriot-1857</t>
+          <t>https://dc-dbr.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="H474" t="n">
+        <v>360500</v>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="L474" t="n">
-        <v>1054820</v>
+        <v>936710</v>
       </c>
       <c r="M474" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/uaz/patriot-19995272</t>
-        </is>
-      </c>
-      <c r="P474" t="n">
-        <v>1348700</v>
-      </c>
-      <c r="Q474" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/uaz/3163/i-res-3-allroad-5/</t>
+          <t>https://warshauto.ru/uaz/hanter-19995435</t>
         </is>
       </c>
       <c r="R474" t="n">
-        <v>1054720</v>
+        <v>936610</v>
       </c>
       <c r="S474" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/uaz/patriot/</t>
+          <t>https://vita-auto.ru/uaz/hanter/</t>
         </is>
       </c>
       <c r="T474" t="n">
-        <v>1054720</v>
+        <v>936610</v>
       </c>
       <c r="U474" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/uaz/patriot-1857</t>
+          <t>https://alcon-auto.ru/uaz/hanter-4650</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -25360,38 +25336,54 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D475" t="n">
-        <v>393380</v>
+        <v>1054720</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/uaz/patriot-new</t>
-        </is>
-      </c>
-      <c r="H475" t="n">
-        <v>393380</v>
-      </c>
-      <c r="I475" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/uaz/patriot-new</t>
-        </is>
-      </c>
-      <c r="N475" t="n">
-        <v>619400</v>
-      </c>
-      <c r="O475" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/uaz/patriot/</t>
+          <t>https://alcon-auto.ru/uaz/patriot-1857</t>
+        </is>
+      </c>
+      <c r="L475" t="n">
+        <v>1054820</v>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/uaz/patriot-19995272</t>
+        </is>
+      </c>
+      <c r="P475" t="n">
+        <v>1348700</v>
+      </c>
+      <c r="Q475" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/uaz/3163/i-res-3-allroad-5/</t>
+        </is>
+      </c>
+      <c r="R475" t="n">
+        <v>1054720</v>
+      </c>
+      <c r="S475" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="T475" t="n">
+        <v>1054720</v>
+      </c>
+      <c r="U475" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/uaz/patriot-1857</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -25401,46 +25393,38 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D476" t="n">
-        <v>1077970</v>
+        <v>393380</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/uaz/patriot-pikap/</t>
-        </is>
-      </c>
-      <c r="L476" t="n">
-        <v>1265000</v>
-      </c>
-      <c r="M476" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/uaz/patriot-pikap-19995342</t>
-        </is>
-      </c>
-      <c r="R476" t="n">
-        <v>1077970</v>
-      </c>
-      <c r="S476" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/uaz/patriot-pikap/</t>
-        </is>
-      </c>
-      <c r="T476" t="n">
-        <v>1264900</v>
-      </c>
-      <c r="U476" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/uaz/patriot-pikap-9844</t>
+          <t>https://dc-dbr.ru/catalog/uaz/patriot-new</t>
+        </is>
+      </c>
+      <c r="H476" t="n">
+        <v>393380</v>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/uaz/patriot-new</t>
+        </is>
+      </c>
+      <c r="N476" t="n">
+        <v>619400</v>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -25450,30 +25434,46 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D477" t="n">
-        <v>1373600</v>
+        <v>1077970</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/uaz/pickup/i-res-2-pickup-two-4/</t>
-        </is>
-      </c>
-      <c r="P477" t="n">
-        <v>1373600</v>
-      </c>
-      <c r="Q477" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/uaz/pickup/i-res-2-pickup-two-4/</t>
+          <t>https://vita-auto.ru/uaz/patriot-pikap/</t>
+        </is>
+      </c>
+      <c r="L477" t="n">
+        <v>1265000</v>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/uaz/patriot-pikap-19995342</t>
+        </is>
+      </c>
+      <c r="R477" t="n">
+        <v>1077970</v>
+      </c>
+      <c r="S477" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/uaz/patriot-pikap/</t>
+        </is>
+      </c>
+      <c r="T477" t="n">
+        <v>1264900</v>
+      </c>
+      <c r="U477" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/uaz/patriot-pikap-9844</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -25483,175 +25483,173 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D478" t="n">
-        <v>344500</v>
+        <v>1373600</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/uaz/pickup-new</t>
-        </is>
-      </c>
-      <c r="H478" t="n">
-        <v>344500</v>
-      </c>
-      <c r="I478" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/uaz/pickup-new</t>
-        </is>
-      </c>
-      <c r="N478" t="n">
-        <v>666900</v>
-      </c>
-      <c r="O478" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/uaz/pikap/</t>
+          <t>https://idol-avto.ru/cars-new/uaz/pickup/i-res-2-pickup-two-4/</t>
+        </is>
+      </c>
+      <c r="P478" t="n">
+        <v>1373600</v>
+      </c>
+      <c r="Q478" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/uaz/pickup/i-res-2-pickup-two-4/</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>VGV</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>U70</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D479" t="n">
-        <v>2300000</v>
+        <v>344500</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/vgv/u70</t>
-        </is>
-      </c>
-      <c r="F479" t="inlineStr">
-        <is>
-          <t>2300000</t>
-        </is>
-      </c>
-      <c r="G479" t="inlineStr">
-        <is>
-          <t>https://nord-car.ru/catalog/vgv/u70</t>
+          <t>https://dc-dbr.ru/catalog/uaz/pickup-new</t>
         </is>
       </c>
       <c r="H479" t="n">
-        <v>2300000</v>
+        <v>344500</v>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/vgv/u70</t>
+          <t>https://dc-dbr.ru/catalog/uaz/pickup-new</t>
+        </is>
+      </c>
+      <c r="N479" t="n">
+        <v>666900</v>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/uaz/pikap/</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>664</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>VGV</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>U70</t>
         </is>
       </c>
       <c r="D480" t="n">
-        <v>3179000</v>
+        <v>2300000</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/voyah/free</t>
+          <t>https://dc-dbr.ru/catalog/vgv/u70</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>3179000</t>
+          <t>2300000</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="L480" t="n">
-        <v>6061200</v>
-      </c>
-      <c r="M480" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/voyah/free-1131589073</t>
-        </is>
-      </c>
-      <c r="R480" t="n">
-        <v>6061100</v>
-      </c>
-      <c r="S480" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/voyah/free/</t>
-        </is>
-      </c>
-      <c r="T480" t="n">
-        <v>6061200</v>
-      </c>
-      <c r="U480" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/voyah/free-119936</t>
+          <t>https://nord-car.ru/catalog/vgv/u70</t>
+        </is>
+      </c>
+      <c r="H480" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/vgv/u70</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Venucia</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>D60 Plus</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D481" t="n">
-        <v>1936000</v>
+        <v>3179000</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/venucia/d60-plus</t>
+          <t>https://nord-car.ru/catalog/voyah/free</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>1936000</t>
+          <t>3179000</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/venucia/d60-plus</t>
+          <t>https://nord-car.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+      <c r="L481" t="n">
+        <v>6061200</v>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/voyah/free-1131589073</t>
+        </is>
+      </c>
+      <c r="R481" t="n">
+        <v>6061100</v>
+      </c>
+      <c r="S481" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/voyah/free/</t>
+        </is>
+      </c>
+      <c r="T481" t="n">
+        <v>6061200</v>
+      </c>
+      <c r="U481" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/voyah/free-119936</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -25661,81 +25659,67 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>V-Online</t>
+          <t>D60 Plus</t>
         </is>
       </c>
       <c r="D482" t="n">
-        <v>2512000</v>
+        <v>1936000</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/venucia/v-online</t>
+          <t>https://nord-car.ru/catalog/venucia/d60-plus</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>2512000</t>
+          <t>1936000</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/venucia/v-online</t>
+          <t>https://nord-car.ru/catalog/venucia/d60-plus</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Venucia</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Bora</t>
+          <t>V-Online</t>
         </is>
       </c>
       <c r="D483" t="n">
-        <v>1590100</v>
+        <v>2512000</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/volkswagen/bora/</t>
-        </is>
-      </c>
-      <c r="L483" t="n">
-        <v>1590200</v>
-      </c>
-      <c r="M483" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/volkswagen/bora-1041660599</t>
-        </is>
-      </c>
-      <c r="R483" t="n">
-        <v>1590100</v>
-      </c>
-      <c r="S483" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/volkswagen/bora/</t>
-        </is>
-      </c>
-      <c r="T483" t="n">
-        <v>1590200</v>
-      </c>
-      <c r="U483" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/volkswagen/bora-108350</t>
+          <t>https://nord-car.ru/catalog/venucia/v-online</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>2512000</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>https://nord-car.ru/catalog/venucia/v-online</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>640</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -25745,38 +25729,46 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Caddy</t>
+          <t>Bora</t>
         </is>
       </c>
       <c r="D484" t="n">
-        <v>1580700</v>
+        <v>1590100</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/volkswagen/caddy-13146</t>
+          <t>https://vita-auto.ru/volkswagen/bora/</t>
         </is>
       </c>
       <c r="L484" t="n">
-        <v>1580800</v>
+        <v>1590200</v>
       </c>
       <c r="M484" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/volkswagen/caddy-159393815</t>
+          <t>https://warshauto.ru/volkswagen/bora-1041660599</t>
+        </is>
+      </c>
+      <c r="R484" t="n">
+        <v>1590100</v>
+      </c>
+      <c r="S484" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/volkswagen/bora/</t>
         </is>
       </c>
       <c r="T484" t="n">
-        <v>1580700</v>
+        <v>1590200</v>
       </c>
       <c r="U484" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/volkswagen/caddy-13146</t>
+          <t>https://alcon-auto.ru/volkswagen/bora-108350</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -25786,46 +25778,38 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Caddy Cargo</t>
+          <t>Caddy</t>
         </is>
       </c>
       <c r="D485" t="n">
-        <v>1511700</v>
+        <v>1580700</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/volkswagen/caddy-16695</t>
+          <t>https://alcon-auto.ru/volkswagen/caddy-13146</t>
         </is>
       </c>
       <c r="L485" t="n">
-        <v>1511800</v>
+        <v>1580800</v>
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/volkswagen/caddy-174563698</t>
-        </is>
-      </c>
-      <c r="R485" t="n">
-        <v>1511700</v>
-      </c>
-      <c r="S485" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/volkswagen/caddy-cargo/</t>
+          <t>https://warshauto.ru/volkswagen/caddy-159393815</t>
         </is>
       </c>
       <c r="T485" t="n">
-        <v>1511700</v>
+        <v>1580700</v>
       </c>
       <c r="U485" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/volkswagen/caddy-16695</t>
+          <t>https://alcon-auto.ru/volkswagen/caddy-13146</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -25835,30 +25819,46 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Caddy New</t>
+          <t>Caddy Cargo</t>
         </is>
       </c>
       <c r="D486" t="n">
-        <v>1580700</v>
+        <v>1511700</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/volkswagen/caddy-new/</t>
+          <t>https://alcon-auto.ru/volkswagen/caddy-16695</t>
+        </is>
+      </c>
+      <c r="L486" t="n">
+        <v>1511800</v>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/volkswagen/caddy-174563698</t>
         </is>
       </c>
       <c r="R486" t="n">
-        <v>1580700</v>
+        <v>1511700</v>
       </c>
       <c r="S486" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/volkswagen/caddy-new/</t>
+          <t>https://vita-auto.ru/volkswagen/caddy-cargo/</t>
+        </is>
+      </c>
+      <c r="T486" t="n">
+        <v>1511700</v>
+      </c>
+      <c r="U486" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/volkswagen/caddy-16695</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>643</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -25868,46 +25868,30 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Golf New</t>
+          <t>Caddy New</t>
         </is>
       </c>
       <c r="D487" t="n">
-        <v>2108000</v>
+        <v>1580700</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/volkswagen/golf-mk8-132503869</t>
-        </is>
-      </c>
-      <c r="L487" t="n">
-        <v>2108000</v>
-      </c>
-      <c r="M487" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/volkswagen/golf-mk8-132503869</t>
+          <t>https://vita-auto.ru/volkswagen/caddy-new/</t>
         </is>
       </c>
       <c r="R487" t="n">
-        <v>2108200</v>
+        <v>1580700</v>
       </c>
       <c r="S487" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/volkswagen/golf-new-21/</t>
-        </is>
-      </c>
-      <c r="T487" t="n">
-        <v>2108200</v>
-      </c>
-      <c r="U487" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/volkswagen/golf-mk8-12628</t>
+          <t>https://vita-auto.ru/volkswagen/caddy-new/</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -25917,38 +25901,46 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Golf New</t>
         </is>
       </c>
       <c r="D488" t="n">
-        <v>1070300</v>
+        <v>2108000</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="N488" t="n">
-        <v>1070300</v>
-      </c>
-      <c r="O488" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="P488" t="n">
-        <v>1283700</v>
-      </c>
-      <c r="Q488" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/volkswagen/jetta/vii-sedan-4/</t>
+          <t>https://warshauto.ru/volkswagen/golf-mk8-132503869</t>
+        </is>
+      </c>
+      <c r="L488" t="n">
+        <v>2108000</v>
+      </c>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/volkswagen/golf-mk8-132503869</t>
+        </is>
+      </c>
+      <c r="R488" t="n">
+        <v>2108200</v>
+      </c>
+      <c r="S488" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/volkswagen/golf-new-21/</t>
+        </is>
+      </c>
+      <c r="T488" t="n">
+        <v>2108200</v>
+      </c>
+      <c r="U488" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/volkswagen/golf-mk8-12628</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -25958,54 +25950,38 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Jetta New</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D489" t="n">
-        <v>862999</v>
+        <v>1070300</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/jetta-new</t>
-        </is>
-      </c>
-      <c r="H489" t="n">
-        <v>862999</v>
-      </c>
-      <c r="I489" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/jetta-new</t>
-        </is>
-      </c>
-      <c r="L489" t="n">
-        <v>1207200</v>
-      </c>
-      <c r="M489" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/volkswagen/jetta-159394228</t>
-        </is>
-      </c>
-      <c r="R489" t="n">
-        <v>1207100</v>
-      </c>
-      <c r="S489" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/volkswagen/jetta-new/</t>
-        </is>
-      </c>
-      <c r="T489" t="n">
-        <v>1207100</v>
-      </c>
-      <c r="U489" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/volkswagen/jetta-19622</t>
+          <t>https://kosmos-cars.ru/cars/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="N489" t="n">
+        <v>1070300</v>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="P489" t="n">
+        <v>1283700</v>
+      </c>
+      <c r="Q489" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/volkswagen/jetta/vii-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -26015,30 +25991,54 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Lavida Qihang</t>
+          <t>Jetta New</t>
         </is>
       </c>
       <c r="D490" t="n">
-        <v>1790000</v>
+        <v>862999</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/lavida-qihang</t>
+          <t>https://dc-dbr.ru/catalog/volkswagen/jetta-new</t>
         </is>
       </c>
       <c r="H490" t="n">
-        <v>1790000</v>
+        <v>862999</v>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/lavida-qihang</t>
+          <t>https://dc-dbr.ru/catalog/volkswagen/jetta-new</t>
+        </is>
+      </c>
+      <c r="L490" t="n">
+        <v>1207200</v>
+      </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/volkswagen/jetta-159394228</t>
+        </is>
+      </c>
+      <c r="R490" t="n">
+        <v>1207100</v>
+      </c>
+      <c r="S490" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/volkswagen/jetta-new/</t>
+        </is>
+      </c>
+      <c r="T490" t="n">
+        <v>1207100</v>
+      </c>
+      <c r="U490" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/volkswagen/jetta-19622</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>647</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -26048,38 +26048,30 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Lavida Qihang</t>
         </is>
       </c>
       <c r="D491" t="n">
-        <v>2211300</v>
+        <v>1790000</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="N491" t="n">
-        <v>2211300</v>
-      </c>
-      <c r="O491" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="P491" t="n">
-        <v>2435600</v>
-      </c>
-      <c r="Q491" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/volkswagen/passat/b8-res-sedan-4/</t>
+          <t>https://dc-dbr.ru/catalog/volkswagen/lavida-qihang</t>
+        </is>
+      </c>
+      <c r="H491" t="n">
+        <v>1790000</v>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/volkswagen/lavida-qihang</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -26089,38 +26081,38 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Passat Alltrack New</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D492" t="n">
-        <v>3042500</v>
+        <v>2211300</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/volkswagen/passat-b85-62636426</t>
-        </is>
-      </c>
-      <c r="L492" t="n">
-        <v>3042500</v>
-      </c>
-      <c r="M492" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/volkswagen/passat-b85-62636426</t>
-        </is>
-      </c>
-      <c r="T492" t="n">
-        <v>3042700</v>
-      </c>
-      <c r="U492" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/volkswagen/passat-b85-7666</t>
+          <t>https://kosmos-cars.ru/cars/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="N492" t="n">
+        <v>2211300</v>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="P492" t="n">
+        <v>2435600</v>
+      </c>
+      <c r="Q492" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/volkswagen/passat/b8-res-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -26130,46 +26122,38 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Passat New</t>
+          <t>Passat Alltrack New</t>
         </is>
       </c>
       <c r="D493" t="n">
-        <v>2233100</v>
+        <v>3042500</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/volkswagen/passat-2735</t>
+          <t>https://warshauto.ru/volkswagen/passat-b85-62636426</t>
         </is>
       </c>
       <c r="L493" t="n">
-        <v>2233200</v>
+        <v>3042500</v>
       </c>
       <c r="M493" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/volkswagen/passat-62636443</t>
-        </is>
-      </c>
-      <c r="R493" t="n">
-        <v>2233100</v>
-      </c>
-      <c r="S493" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/volkswagen/new-passat/</t>
+          <t>https://warshauto.ru/volkswagen/passat-b85-62636426</t>
         </is>
       </c>
       <c r="T493" t="n">
-        <v>2233100</v>
+        <v>3042700</v>
       </c>
       <c r="U493" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/volkswagen/passat-2735</t>
+          <t>https://alcon-auto.ru/volkswagen/passat-b85-7666</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -26179,38 +26163,46 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat New</t>
         </is>
       </c>
       <c r="D494" t="n">
-        <v>540300</v>
+        <v>2233100</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="N494" t="n">
-        <v>540300</v>
-      </c>
-      <c r="O494" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="P494" t="n">
-        <v>989000</v>
-      </c>
-      <c r="Q494" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/volkswagen/polo/vi-liftback-5/</t>
+          <t>https://alcon-auto.ru/volkswagen/passat-2735</t>
+        </is>
+      </c>
+      <c r="L494" t="n">
+        <v>2233200</v>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/volkswagen/passat-62636443</t>
+        </is>
+      </c>
+      <c r="R494" t="n">
+        <v>2233100</v>
+      </c>
+      <c r="S494" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/volkswagen/new-passat/</t>
+        </is>
+      </c>
+      <c r="T494" t="n">
+        <v>2233100</v>
+      </c>
+      <c r="U494" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/volkswagen/passat-2735</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -26220,54 +26212,38 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D495" t="n">
-        <v>550000</v>
+        <v>540300</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/new-polo</t>
-        </is>
-      </c>
-      <c r="H495" t="n">
-        <v>550000</v>
-      </c>
-      <c r="I495" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/new-polo</t>
-        </is>
-      </c>
-      <c r="L495" t="n">
-        <v>755000</v>
-      </c>
-      <c r="M495" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/volkswagen/polo-159394965</t>
-        </is>
-      </c>
-      <c r="R495" t="n">
-        <v>754900</v>
-      </c>
-      <c r="S495" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/volkswagen/polo-2020/</t>
-        </is>
-      </c>
-      <c r="T495" t="n">
-        <v>754900</v>
-      </c>
-      <c r="U495" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/volkswagen/polo-13580</t>
+          <t>https://kosmos-cars.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="N495" t="n">
+        <v>540300</v>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="P495" t="n">
+        <v>989000</v>
+      </c>
+      <c r="Q495" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/volkswagen/polo/vi-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -26277,30 +26253,54 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>T-Cross</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D496" t="n">
-        <v>2290000</v>
+        <v>550000</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/t-cross</t>
+          <t>https://dc-dbr.ru/catalog/volkswagen/new-polo</t>
         </is>
       </c>
       <c r="H496" t="n">
-        <v>2290000</v>
+        <v>550000</v>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/t-cross</t>
+          <t>https://dc-dbr.ru/catalog/volkswagen/new-polo</t>
+        </is>
+      </c>
+      <c r="L496" t="n">
+        <v>755000</v>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/volkswagen/polo-159394965</t>
+        </is>
+      </c>
+      <c r="R496" t="n">
+        <v>754900</v>
+      </c>
+      <c r="S496" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/volkswagen/polo-2020/</t>
+        </is>
+      </c>
+      <c r="T496" t="n">
+        <v>754900</v>
+      </c>
+      <c r="U496" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/volkswagen/polo-13580</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -26310,46 +26310,30 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>T-Cross</t>
         </is>
       </c>
       <c r="D497" t="n">
-        <v>1124899</v>
+        <v>2290000</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/taos</t>
+          <t>https://dc-dbr.ru/catalog/volkswagen/t-cross</t>
         </is>
       </c>
       <c r="H497" t="n">
-        <v>1124899</v>
+        <v>2290000</v>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="L497" t="n">
-        <v>1305100</v>
-      </c>
-      <c r="M497" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/volkswagen/taos-979522216</t>
-        </is>
-      </c>
-      <c r="T497" t="n">
-        <v>1305000</v>
-      </c>
-      <c r="U497" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/volkswagen/taos-94356</t>
+          <t>https://dc-dbr.ru/catalog/volkswagen/t-cross</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -26359,30 +26343,46 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Taos New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D498" t="n">
+        <v>1124899</v>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="H498" t="n">
+        <v>1124899</v>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="L498" t="n">
+        <v>1305100</v>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/volkswagen/taos-979522216</t>
+        </is>
+      </c>
+      <c r="T498" t="n">
         <v>1305000</v>
       </c>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="R498" t="n">
-        <v>1305000</v>
-      </c>
-      <c r="S498" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/volkswagen/taos/</t>
+      <c r="U498" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/volkswagen/taos-94356</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -26392,46 +26392,30 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Taos New</t>
         </is>
       </c>
       <c r="D499" t="n">
-        <v>3007999</v>
+        <v>1305000</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/teramont</t>
-        </is>
-      </c>
-      <c r="H499" t="n">
-        <v>3007999</v>
-      </c>
-      <c r="I499" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/teramont</t>
-        </is>
-      </c>
-      <c r="N499" t="n">
-        <v>4990000</v>
-      </c>
-      <c r="O499" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/volkswagen/teramont/</t>
-        </is>
-      </c>
-      <c r="P499" t="n">
-        <v>4985000</v>
-      </c>
-      <c r="Q499" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
+          <t>https://vita-auto.ru/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="R499" t="n">
+        <v>1305000</v>
+      </c>
+      <c r="S499" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -26441,46 +26425,46 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Teramont New</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D500" t="n">
-        <v>3396100</v>
+        <v>3007999</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/volkswagen/teramont-94679</t>
-        </is>
-      </c>
-      <c r="L500" t="n">
-        <v>3396200</v>
-      </c>
-      <c r="M500" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/volkswagen/teramont-979522233</t>
-        </is>
-      </c>
-      <c r="R500" t="n">
-        <v>3396100</v>
-      </c>
-      <c r="S500" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/volkswagen/teramont-new/</t>
-        </is>
-      </c>
-      <c r="T500" t="n">
-        <v>3396100</v>
-      </c>
-      <c r="U500" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/volkswagen/teramont-94679</t>
+          <t>https://dc-dbr.ru/catalog/volkswagen/teramont</t>
+        </is>
+      </c>
+      <c r="H500" t="n">
+        <v>3007999</v>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/volkswagen/teramont</t>
+        </is>
+      </c>
+      <c r="N500" t="n">
+        <v>4990000</v>
+      </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/volkswagen/teramont/</t>
+        </is>
+      </c>
+      <c r="P500" t="n">
+        <v>4985000</v>
+      </c>
+      <c r="Q500" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/volkswagen/teramont/i-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -26490,38 +26474,46 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Teramont New</t>
         </is>
       </c>
       <c r="D501" t="n">
-        <v>1933000</v>
+        <v>3396100</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
-        </is>
-      </c>
-      <c r="N501" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="O501" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="P501" t="n">
-        <v>1933000</v>
-      </c>
-      <c r="Q501" t="inlineStr">
-        <is>
-          <t>https://idol-avto.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
+          <t>https://alcon-auto.ru/volkswagen/teramont-94679</t>
+        </is>
+      </c>
+      <c r="L501" t="n">
+        <v>3396200</v>
+      </c>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/volkswagen/teramont-979522233</t>
+        </is>
+      </c>
+      <c r="R501" t="n">
+        <v>3396100</v>
+      </c>
+      <c r="S501" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/volkswagen/teramont-new/</t>
+        </is>
+      </c>
+      <c r="T501" t="n">
+        <v>3396100</v>
+      </c>
+      <c r="U501" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/volkswagen/teramont-94679</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -26531,54 +26523,38 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D502" t="n">
-        <v>1008925</v>
+        <v>1933000</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/tiguan-new</t>
-        </is>
-      </c>
-      <c r="H502" t="n">
-        <v>1008925</v>
-      </c>
-      <c r="I502" t="inlineStr">
-        <is>
-          <t>https://dc-dbr.ru/catalog/volkswagen/tiguan-new</t>
-        </is>
-      </c>
-      <c r="L502" t="n">
-        <v>1550000</v>
-      </c>
-      <c r="M502" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/volkswagen/tiguan-mk-2-193579893</t>
-        </is>
-      </c>
-      <c r="R502" t="n">
-        <v>1549900</v>
-      </c>
-      <c r="S502" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/volkswagen/tiguan-2021/</t>
-        </is>
-      </c>
-      <c r="T502" t="n">
-        <v>1549900</v>
-      </c>
-      <c r="U502" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/volkswagen/tiguan-mk-2-17355</t>
+          <t>https://idol-avto.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="N502" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>https://kosmos-cars.ru/cars/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="P502" t="n">
+        <v>1933000</v>
+      </c>
+      <c r="Q502" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/volkswagen/tiguan/ii-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -26588,165 +26564,187 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Touareg New</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D503" t="n">
-        <v>4005400</v>
+        <v>1008925</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/volkswagen/touareg-9621</t>
+          <t>https://dc-dbr.ru/catalog/volkswagen/tiguan-new</t>
+        </is>
+      </c>
+      <c r="H503" t="n">
+        <v>1008925</v>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>https://dc-dbr.ru/catalog/volkswagen/tiguan-new</t>
         </is>
       </c>
       <c r="L503" t="n">
-        <v>4005500</v>
+        <v>1550000</v>
       </c>
       <c r="M503" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/volkswagen/touareg-19991097</t>
+          <t>https://warshauto.ru/volkswagen/tiguan-mk-2-193579893</t>
         </is>
       </c>
       <c r="R503" t="n">
-        <v>4005400</v>
+        <v>1549900</v>
       </c>
       <c r="S503" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/volkswagen/touareg-new/</t>
+          <t>https://vita-auto.ru/volkswagen/tiguan-2021/</t>
         </is>
       </c>
       <c r="T503" t="n">
-        <v>4005400</v>
+        <v>1549900</v>
       </c>
       <c r="U503" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/volkswagen/touareg-9621</t>
+          <t>https://alcon-auto.ru/volkswagen/tiguan-mk-2-17355</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Wey</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Coffee 01</t>
+          <t>Touareg New</t>
         </is>
       </c>
       <c r="D504" t="n">
-        <v>5499100</v>
+        <v>4005400</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/wey/coffee-01</t>
-        </is>
-      </c>
-      <c r="F504" t="inlineStr">
-        <is>
-          <t>5499100</t>
-        </is>
-      </c>
-      <c r="G504" t="inlineStr">
-        <is>
-          <t>https://nord-car.ru/catalog/wey/coffee-01</t>
+          <t>https://alcon-auto.ru/volkswagen/touareg-9621</t>
+        </is>
+      </c>
+      <c r="L504" t="n">
+        <v>4005500</v>
+      </c>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/volkswagen/touareg-19991097</t>
+        </is>
+      </c>
+      <c r="R504" t="n">
+        <v>4005400</v>
+      </c>
+      <c r="S504" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/volkswagen/touareg-new/</t>
+        </is>
+      </c>
+      <c r="T504" t="n">
+        <v>4005400</v>
+      </c>
+      <c r="U504" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/volkswagen/touareg-9621</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>668</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Wey</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Coffee 01</t>
         </is>
       </c>
       <c r="D505" t="n">
-        <v>1899100</v>
+        <v>5499100</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/xcite/xcite-x-cross-7-1433391011</t>
-        </is>
-      </c>
-      <c r="L505" t="n">
-        <v>1899200</v>
-      </c>
-      <c r="M505" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/xcite/xcite-x-cross-7-1433391011</t>
-        </is>
-      </c>
-      <c r="R505" t="n">
-        <v>1899100</v>
-      </c>
-      <c r="S505" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/xcite/x-cross-7/</t>
-        </is>
-      </c>
-      <c r="T505" t="n">
-        <v>1899100</v>
-      </c>
-      <c r="U505" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/xcite/xcite-x-cross-7-1433391011</t>
+          <t>https://nord-car.ru/catalog/wey/coffee-01</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>5499100</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>https://nord-car.ru/catalog/wey/coffee-01</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Zeekr</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D506" t="n">
-        <v>4960000</v>
+        <v>1899100</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/zeekr/001</t>
-        </is>
-      </c>
-      <c r="F506" t="inlineStr">
-        <is>
-          <t>4960000</t>
-        </is>
-      </c>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>https://nord-car.ru/catalog/zeekr/001</t>
+          <t>https://alcon-auto.ru/xcite/xcite-x-cross-7-1433391011</t>
+        </is>
+      </c>
+      <c r="L506" t="n">
+        <v>1899200</v>
+      </c>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/xcite/xcite-x-cross-7-1433391011</t>
+        </is>
+      </c>
+      <c r="R506" t="n">
+        <v>1899100</v>
+      </c>
+      <c r="S506" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/xcite/x-cross-7/</t>
+        </is>
+      </c>
+      <c r="T506" t="n">
+        <v>1899100</v>
+      </c>
+      <c r="U506" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/xcite/xcite-x-cross-7-1433391011</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>669</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -26756,32 +26754,32 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D507" t="n">
-        <v>8641000</v>
+        <v>4960000</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/zeekr/009</t>
+          <t>https://nord-car.ru/catalog/zeekr/001</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>8641000</t>
+          <t>4960000</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/zeekr/009</t>
+          <t>https://nord-car.ru/catalog/zeekr/001</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>670</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -26791,91 +26789,67 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>009</t>
         </is>
       </c>
       <c r="D508" t="n">
-        <v>3730000</v>
+        <v>8641000</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/zeekr/x</t>
+          <t>https://nord-car.ru/catalog/zeekr/009</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>3730000</t>
+          <t>8641000</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/zeekr/x</t>
+          <t>https://nord-car.ru/catalog/zeekr/009</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Zeekr</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D509" t="n">
-        <v>891850</v>
+        <v>3730000</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/zotue/coupa</t>
+          <t>https://nord-car.ru/catalog/zeekr/x</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>891850</t>
+          <t>3730000</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>https://nord-car.ru/catalog/zotue/coupa</t>
-        </is>
-      </c>
-      <c r="L509" t="n">
-        <v>894700</v>
-      </c>
-      <c r="M509" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/zotye/coupa-19991838</t>
-        </is>
-      </c>
-      <c r="R509" t="n">
-        <v>894600</v>
-      </c>
-      <c r="S509" t="inlineStr">
-        <is>
-          <t>https://vita-auto.ru/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="T509" t="n">
-        <v>894600</v>
-      </c>
-      <c r="U509" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/zotye/coupa-6241</t>
+          <t>https://nord-car.ru/catalog/zeekr/x</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -26885,72 +26859,98 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>T600</t>
+          <t>Coupa</t>
         </is>
       </c>
       <c r="D510" t="n">
-        <v>676600</v>
+        <v>891850</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/zotye/t600-1588</t>
+          <t>https://nord-car.ru/catalog/zotue/coupa</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>891850</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>https://nord-car.ru/catalog/zotue/coupa</t>
         </is>
       </c>
       <c r="L510" t="n">
-        <v>676800</v>
+        <v>894700</v>
       </c>
       <c r="M510" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/zotye/t600-19992092</t>
+          <t>https://warshauto.ru/zotye/coupa-19991838</t>
         </is>
       </c>
       <c r="R510" t="n">
-        <v>676600</v>
+        <v>894600</v>
       </c>
       <c r="S510" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/zotye/t600/</t>
+          <t>https://vita-auto.ru/zotye/coupa/</t>
         </is>
       </c>
       <c r="T510" t="n">
-        <v>676600</v>
+        <v>894600</v>
       </c>
       <c r="U510" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/zotye/t600-1588</t>
+          <t>https://alcon-auto.ru/zotye/coupa-6241</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Новая машина, необходимо назначить id</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>chery</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>tiggo4new2024</t>
+          <t>T600</t>
         </is>
       </c>
       <c r="D511" t="n">
-        <v>1562100</v>
+        <v>676600</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/chery/tiggo-4-new-2024/</t>
+          <t>https://alcon-auto.ru/zotye/t600-1588</t>
+        </is>
+      </c>
+      <c r="L511" t="n">
+        <v>676800</v>
+      </c>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>https://warshauto.ru/zotye/t600-19992092</t>
         </is>
       </c>
       <c r="R511" t="n">
-        <v>1562100</v>
+        <v>676600</v>
       </c>
       <c r="S511" t="inlineStr">
         <is>
-          <t>https://vita-auto.ru/chery/tiggo-4-new-2024/</t>
+          <t>https://vita-auto.ru/zotye/t600/</t>
+        </is>
+      </c>
+      <c r="T511" t="n">
+        <v>676600</v>
+      </c>
+      <c r="U511" t="inlineStr">
+        <is>
+          <t>https://alcon-auto.ru/zotye/t600-1588</t>
         </is>
       </c>
     </row>
@@ -26967,7 +26967,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>tiggo4new24</t>
+          <t>tiggo4new2024</t>
         </is>
       </c>
       <c r="D512" t="n">
@@ -26975,56 +26975,15 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>https://alcon-auto.ru/chery/tiggo-4-1688907340</t>
-        </is>
-      </c>
-      <c r="L512" t="n">
+          <t>https://vita-auto.ru/chery/tiggo-4-new-2024/</t>
+        </is>
+      </c>
+      <c r="R512" t="n">
         <v>1562100</v>
       </c>
-      <c r="M512" t="inlineStr">
-        <is>
-          <t>https://warshauto.ru/chery/tiggo-4-1688907340</t>
-        </is>
-      </c>
-      <c r="T512" t="n">
-        <v>1562100</v>
-      </c>
-      <c r="U512" t="inlineStr">
-        <is>
-          <t>https://alcon-auto.ru/chery/tiggo-4-1688907340</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>Новая машина, необходимо назначить id</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>peugeot</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>4008</t>
-        </is>
-      </c>
-      <c r="D513" t="n">
-        <v>2729000</v>
-      </c>
-      <c r="E513" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/peugeot/4008/</t>
-        </is>
-      </c>
-      <c r="N513" t="n">
-        <v>2729000</v>
-      </c>
-      <c r="O513" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/peugeot/4008/</t>
+      <c r="S512" t="inlineStr">
+        <is>
+          <t>https://vita-auto.ru/chery/tiggo-4-new-2024/</t>
         </is>
       </c>
     </row>

--- a/xlsx/moscow.xlsx
+++ b/xlsx/moscow.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI583"/>
+  <dimension ref="A1:AK583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,6 +597,16 @@
           <t>avanta-avto-credit.ru</t>
         </is>
       </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>ca-geely.ru_price</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>ca-geely.ru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4493,6 +4503,14 @@
           <t>https://kosmos-cars.ru/cars/chery/new_tiggo_4/</t>
         </is>
       </c>
+      <c r="P49" t="n">
+        <v>1389000</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>https://idol-avto.ru/cars-new/chery/tiggo-4/i-res2-allroad-5/</t>
+        </is>
+      </c>
       <c r="R49" t="n">
         <v>885000</v>
       </c>
@@ -10986,7 +11004,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://fair-cars.ru/catalog/geely/atlas</t>
+          <t>https://ca-geely.ru/auto/geely/Atlas/cuv</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -11067,6 +11085,14 @@
           <t>https://fair-cars.ru/catalog/geely/atlas</t>
         </is>
       </c>
+      <c r="AJ151" t="n">
+        <v>668299</v>
+      </c>
+      <c r="AK151" t="inlineStr">
+        <is>
+          <t>https://ca-geely.ru/auto/geely/Atlas/cuv</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -11089,7 +11115,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://fair-cars.ru/catalog/geely/atlas-new</t>
+          <t>https://ca-geely.ru/auto/geely/Atlas/suv-2gen</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -11202,6 +11228,14 @@
           <t>https://avanta-avto-credit.ru/cars/geely/atlas-new/</t>
         </is>
       </c>
+      <c r="AJ152" t="n">
+        <v>1484989</v>
+      </c>
+      <c r="AK152" t="inlineStr">
+        <is>
+          <t>https://ca-geely.ru/auto/geely/Atlas/suv-2gen</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11224,7 +11258,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://fair-cars.ru/catalog/geely/geely-atlas-pro-3</t>
+          <t>https://ca-geely.ru/auto/geely/atlas-pro/cuv</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -11345,6 +11379,14 @@
           <t>https://avanta-avto-credit.ru/cars/geely/atlas-pro/</t>
         </is>
       </c>
+      <c r="AJ153" t="n">
+        <v>778799</v>
+      </c>
+      <c r="AK153" t="inlineStr">
+        <is>
+          <t>https://ca-geely.ru/auto/geely/atlas-pro/cuv</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11577,6 +11619,14 @@
           <t>https://avanta-avto-credit.ru/cars/geely/cityray/</t>
         </is>
       </c>
+      <c r="AJ157" t="n">
+        <v>1699990</v>
+      </c>
+      <c r="AK157" t="inlineStr">
+        <is>
+          <t>https://ca-geely.ru/auto/geely/cityray/suv-1gen</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11599,7 +11649,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://fair-cars.ru/catalog/geely/coolray</t>
+          <t>https://ca-geely.ru/auto/geely/coolray/cuv</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -11712,6 +11762,14 @@
           <t>https://avanta-avto-credit.ru/cars/geely/coolray/</t>
         </is>
       </c>
+      <c r="AJ158" t="n">
+        <v>717799</v>
+      </c>
+      <c r="AK158" t="inlineStr">
+        <is>
+          <t>https://ca-geely.ru/auto/geely/coolray/cuv</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11898,11 +11956,11 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1039000</v>
+        <v>970899</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://moscowautos777.ru/auto/geely/emgrand/ii/sedan</t>
+          <t>https://ca-geely.ru/auto/geely/emgrand/sedan-2gen</t>
         </is>
       </c>
       <c r="J161" t="n">
@@ -11953,6 +12011,14 @@
           <t>https://avanta-avto-credit.ru/cars/geely/emgrand-7/</t>
         </is>
       </c>
+      <c r="AJ161" t="n">
+        <v>970899</v>
+      </c>
+      <c r="AK161" t="inlineStr">
+        <is>
+          <t>https://ca-geely.ru/auto/geely/emgrand/sedan-2gen</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -12157,11 +12223,11 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>719990</v>
+        <v>337000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://msk-carshop777.ru/auto/geely/emgrand_x7/</t>
+          <t>https://ca-geely.ru/auto/geely/emgrand-x-7-new/crossover</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -12192,6 +12258,14 @@
           <t>https://msk-carshop777.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
+      <c r="AJ166" t="n">
+        <v>337000</v>
+      </c>
+      <c r="AK166" t="inlineStr">
+        <is>
+          <t>https://ca-geely.ru/auto/geely/emgrand-x-7-new/crossover</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -12386,6 +12460,14 @@
           <t>https://avanta-avto-credit.ru/cars/geely/geely-monjaro/</t>
         </is>
       </c>
+      <c r="AJ168" t="n">
+        <v>2486499</v>
+      </c>
+      <c r="AK168" t="inlineStr">
+        <is>
+          <t>https://ca-geely.ru/auto/geely/monjaro/monjaro</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12521,11 +12603,11 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1550000</v>
+        <v>1449000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/okavango/</t>
+          <t>https://ca-geely.ru/auto/geely/okavango/suv-1gen</t>
         </is>
       </c>
       <c r="J172" t="n">
@@ -12592,6 +12674,14 @@
           <t>https://avanta-avto-credit.ru/cars/geely/okavango/</t>
         </is>
       </c>
+      <c r="AJ172" t="n">
+        <v>1449000</v>
+      </c>
+      <c r="AK172" t="inlineStr">
+        <is>
+          <t>https://ca-geely.ru/auto/geely/okavango/suv-1gen</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12614,7 +12704,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://fair-cars.ru/catalog/geely/okavango-new</t>
+          <t>https://ca-geely.ru/auto/geely/okavango/suv-1gen-rest</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -12711,6 +12801,14 @@
           <t>https://avanta-avto-credit.ru/cars/geely/okavango-new/</t>
         </is>
       </c>
+      <c r="AJ173" t="n">
+        <v>1527799</v>
+      </c>
+      <c r="AK173" t="inlineStr">
+        <is>
+          <t>https://ca-geely.ru/auto/geely/okavango/suv-1gen-rest</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12800,6 +12898,14 @@
           <t>https://avanta-avto-credit.ru/cars/geely/preface/</t>
         </is>
       </c>
+      <c r="AJ174" t="n">
+        <v>1600990</v>
+      </c>
+      <c r="AK174" t="inlineStr">
+        <is>
+          <t>https://ca-geely.ru/auto/geely/preface/sedan-1gen-rest</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12883,11 +12989,11 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1533994</v>
+        <v>1433900</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://moscowautos777.ru/auto/geely/tugella/i-restyling/suv-5d</t>
+          <t>https://ca-geely.ru/auto/geely/tugella/cuv</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -12972,6 +13078,14 @@
           <t>https://avanta-avto-credit.ru/cars/geely/geely-tugella-new/</t>
         </is>
       </c>
+      <c r="AJ176" t="n">
+        <v>1433900</v>
+      </c>
+      <c r="AK176" t="inlineStr">
+        <is>
+          <t>https://ca-geely.ru/auto/geely/tugella/cuv</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -13083,6 +13197,14 @@
           <t>https://fair-cars.ru/catalog/geely/tugella-new</t>
         </is>
       </c>
+      <c r="AJ177" t="n">
+        <v>1738999</v>
+      </c>
+      <c r="AK177" t="inlineStr">
+        <is>
+          <t>https://ca-geely.ru/auto/geely/tugella-new/tugella-new</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -16008,11 +16130,11 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>863100</v>
+        <v>753200</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>https://idol-avto.ru/cars-new/hyundai/creta/ii-allroad-5/</t>
+          <t>https://idol-avto.ru/cars-new/hyundai/creta/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="X219" t="inlineStr">

--- a/xlsx/moscow.xlsx
+++ b/xlsx/moscow.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI561"/>
+  <dimension ref="A1:AG561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,12 +449,12 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>nord-car.ru_price</t>
+          <t>avanta-avto-credit.ru_price</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>nord-car.ru</t>
+          <t>avanta-avto-credit.ru</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -585,16 +585,6 @@
       <c r="AG1" t="inlineStr">
         <is>
           <t>fair-cars.ru</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>avanta-avto-credit.ru_price</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>avanta-avto-credit.ru</t>
         </is>
       </c>
     </row>
@@ -619,6 +609,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>https://msk-carshop777.ru/auto/baic/bj40/</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2575000</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>https://avanta-avto-credit.ru/cars/baic/baic-bj40-plus/</t>
         </is>
       </c>
@@ -682,14 +680,6 @@
           <t>https://moscowautos777.ru/auto/baic/bj40/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH2" t="n">
-        <v>2575000</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/baic/baic-bj40-plus/</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -756,6 +746,14 @@
           <t>https://moscowautos777.ru/auto/baic/u5-plus/i/sedan</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>1105000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/baic/baic-u5-plus/</t>
+        </is>
+      </c>
       <c r="J4" t="n">
         <v>1583400</v>
       </c>
@@ -832,14 +830,6 @@
           <t>https://moscowautos777.ru/auto/baic/u5-plus/i/sedan</t>
         </is>
       </c>
-      <c r="AH4" t="n">
-        <v>1105000</v>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/baic/baic-u5-plus/</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -898,6 +888,14 @@
           <t>https://moscowautos777.ru/auto/baic/x35/i/suv-5d</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>1075000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/baic/baic-x35/</t>
+        </is>
+      </c>
       <c r="J6" t="n">
         <v>1468500</v>
       </c>
@@ -974,14 +972,6 @@
           <t>https://moscowautos777.ru/auto/baic/x35/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH6" t="n">
-        <v>1075000</v>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/baic/baic-x35/</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1007,6 +997,14 @@
           <t>https://avanta-avto-credit.ru/cars/baic/baic-x55/</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/baic/baic-x55/</t>
+        </is>
+      </c>
       <c r="J7" t="n">
         <v>2077900</v>
       </c>
@@ -1083,14 +1081,6 @@
           <t>https://moscowautos777.ru/auto/baic/x55/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH7" t="n">
-        <v>1450000</v>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/baic/baic-x55/</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1116,6 +1106,14 @@
           <t>https://avanta-avto-credit.ru/cars/baic/baic-x7/</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/baic/baic-x7/</t>
+        </is>
+      </c>
       <c r="J8" t="n">
         <v>2167800</v>
       </c>
@@ -1172,14 +1170,6 @@
           <t>https://moscowautos777.ru/auto/baic/x7/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH8" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/baic/baic-x7/</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1205,6 +1195,14 @@
           <t>https://moscowautos777.ru/auto/baic/x75/i/suv-5d</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>1990000</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/baic/x75/</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>2291200</v>
       </c>
@@ -1245,14 +1243,6 @@
           <t>https://moscowautos777.ru/auto/baic/x75/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH9" t="n">
-        <v>1990000</v>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/baic/x75/</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1278,10 +1268,10 @@
           <t>https://avanta-avto-credit.ru/cars/byd/han/</t>
         </is>
       </c>
-      <c r="AH10" t="n">
+      <c r="F10" t="n">
         <v>4350000</v>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/byd/han/</t>
         </is>
@@ -1311,10 +1301,10 @@
           <t>https://avanta-avto-credit.ru/cars/byd/byd-qin/</t>
         </is>
       </c>
-      <c r="AH11" t="n">
+      <c r="F11" t="n">
         <v>1599900</v>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/byd/byd-qin/</t>
         </is>
@@ -1344,6 +1334,14 @@
           <t>https://dc-dbr.ru/catalog/belgee/x50</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>775990</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/belgee/belgee-x50/</t>
+        </is>
+      </c>
       <c r="H12" t="n">
         <v>635491</v>
       </c>
@@ -1392,14 +1390,6 @@
           <t>https://fair-cars.ru/catalog/belgee/x50</t>
         </is>
       </c>
-      <c r="AH12" t="n">
-        <v>775990</v>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/belgee/belgee-x50/</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1422,6 +1412,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>https://msk-carshop777.ru/auto/belgee/x70/</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1114990</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>https://avanta-avto-credit.ru/cars/belgee/belgee-x70/</t>
         </is>
       </c>
@@ -1477,14 +1475,6 @@
           <t>https://moscowautos777.ru/auto/belgee/x70/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH13" t="n">
-        <v>1114990</v>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/belgee/belgee-x70/</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1666,6 +1656,14 @@
           <t>https://fair-cars.ru/catalog/changan/alsvin</t>
         </is>
       </c>
+      <c r="F18" t="n">
+        <v>749900</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/alsvin/</t>
+        </is>
+      </c>
       <c r="H18" t="n">
         <v>560000</v>
       </c>
@@ -1730,14 +1728,6 @@
           <t>https://fair-cars.ru/catalog/changan/alsvin</t>
         </is>
       </c>
-      <c r="AH18" t="n">
-        <v>749900</v>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/alsvin/</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1763,6 +1753,14 @@
           <t>https://idol-avto.ru/cars-new/changan/cs35plus/i-allroad-5/</t>
         </is>
       </c>
+      <c r="F19" t="n">
+        <v>979900</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/cs35plus-new/</t>
+        </is>
+      </c>
       <c r="H19" t="n">
         <v>898200</v>
       </c>
@@ -1803,14 +1801,6 @@
           <t>https://vita-auto.ru/changan/cs35-plus/</t>
         </is>
       </c>
-      <c r="AH19" t="n">
-        <v>979900</v>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/cs35plus-new/</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1889,7 +1879,7 @@
         </is>
       </c>
       <c r="AD20" t="n">
-        <v>1249000</v>
+        <v>1541940</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -1970,6 +1960,14 @@
           <t>https://msk-carshop777.ru/auto/changan/cs55/</t>
         </is>
       </c>
+      <c r="F22" t="n">
+        <v>1189900</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/cs55/</t>
+        </is>
+      </c>
       <c r="H22" t="n">
         <v>875600</v>
       </c>
@@ -2038,14 +2036,6 @@
           <t>https://moscowautos777.ru/auto/changan/cs55/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH22" t="n">
-        <v>1189900</v>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/cs55/</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2071,6 +2061,14 @@
           <t>https://msk-carshop777.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
+      <c r="F23" t="n">
+        <v>1319900</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/cs55plus/</t>
+        </is>
+      </c>
       <c r="J23" t="n">
         <v>1348700</v>
       </c>
@@ -2123,14 +2121,6 @@
           <t>https://msk-carshop777.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
-      <c r="AH23" t="n">
-        <v>1319900</v>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/cs55plus/</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2197,6 +2187,14 @@
           <t>https://moscowautos777.ru/auto/changan/cs75-plus/i/suv-5d</t>
         </is>
       </c>
+      <c r="F25" t="n">
+        <v>1849900</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/cs75plus/</t>
+        </is>
+      </c>
       <c r="J25" t="n">
         <v>2176800</v>
       </c>
@@ -2245,14 +2243,6 @@
           <t>https://moscowautos777.ru/auto/changan/cs75-plus/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH25" t="n">
-        <v>1849900</v>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/cs75plus/</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2278,6 +2268,14 @@
           <t>https://idol-avto.ru/cars-new/changan/cs75plus/ii-allroad-5/</t>
         </is>
       </c>
+      <c r="F26" t="n">
+        <v>2340000</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/cs75plus-new/</t>
+        </is>
+      </c>
       <c r="J26" t="n">
         <v>1418500</v>
       </c>
@@ -2318,14 +2316,6 @@
           <t>https://moscowautos777.ru/auto/changan/cs75-plus/iii/suv-5d</t>
         </is>
       </c>
-      <c r="AH26" t="n">
-        <v>2340000</v>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/cs75plus-new/</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2392,6 +2382,14 @@
           <t>https://fair-cars.ru/catalog/changan/cs75fl</t>
         </is>
       </c>
+      <c r="F28" t="n">
+        <v>1539900</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/shangan-cs75fl/</t>
+        </is>
+      </c>
       <c r="H28" t="n">
         <v>1184900</v>
       </c>
@@ -2452,14 +2450,6 @@
           <t>https://fair-cars.ru/catalog/changan/cs75fl</t>
         </is>
       </c>
-      <c r="AH28" t="n">
-        <v>1539900</v>
-      </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/shangan-cs75fl/</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2526,6 +2516,14 @@
           <t>https://moscowautos777.ru/auto/changan/cs85/i/coupe</t>
         </is>
       </c>
+      <c r="F30" t="n">
+        <v>2309900</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/cs85/</t>
+        </is>
+      </c>
       <c r="H30" t="n">
         <v>2399900</v>
       </c>
@@ -2586,14 +2584,6 @@
           <t>https://moscowautos777.ru/auto/changan/cs85/i/coupe</t>
         </is>
       </c>
-      <c r="AH30" t="n">
-        <v>2309900</v>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/cs85/</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2619,6 +2609,14 @@
           <t>https://msk-carshop777.ru/auto/changan/cs95/</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>2649900</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/changan-cs95/</t>
+        </is>
+      </c>
       <c r="H31" t="n">
         <v>2499900</v>
       </c>
@@ -2703,14 +2701,6 @@
           <t>https://moscowautos777.ru/auto/changan/cs95/1-rest/suv-5d</t>
         </is>
       </c>
-      <c r="AH31" t="n">
-        <v>2649900</v>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/changan-cs95/</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2736,6 +2726,14 @@
           <t>https://moscowautos777.ru/auto/changan/cs95/i-rest2/suv-5d</t>
         </is>
       </c>
+      <c r="F32" t="n">
+        <v>2869900</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/changan-cs95-new/</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>3313200</v>
       </c>
@@ -2760,14 +2758,6 @@
           <t>https://moscowautos777.ru/auto/changan/cs95/i-rest2/suv-5d</t>
         </is>
       </c>
-      <c r="AH32" t="n">
-        <v>2869900</v>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/changan-cs95-new/</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2834,6 +2824,14 @@
           <t>https://fair-cars.ru/catalog/changan/eado-plus</t>
         </is>
       </c>
+      <c r="F34" t="n">
+        <v>1009900</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/eado-plus/</t>
+        </is>
+      </c>
       <c r="H34" t="n">
         <v>1809900</v>
       </c>
@@ -2926,14 +2924,6 @@
           <t>https://fair-cars.ru/catalog/changan/eado-plus</t>
         </is>
       </c>
-      <c r="AH34" t="n">
-        <v>1009900</v>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/eado-plus/</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3068,6 +3058,14 @@
           <t>https://moscowautos777.ru/auto/changan/lamore/i/sedan</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>1739900</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/lamore/</t>
+        </is>
+      </c>
       <c r="H36" t="n">
         <v>1900000</v>
       </c>
@@ -3152,14 +3150,6 @@
           <t>https://moscowautos777.ru/auto/changan/lamore/i/sedan</t>
         </is>
       </c>
-      <c r="AH36" t="n">
-        <v>1739900</v>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/lamore/</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3185,6 +3175,14 @@
           <t>https://fair-cars.ru/catalog/changan/uni-k</t>
         </is>
       </c>
+      <c r="F37" t="n">
+        <v>2439900</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/uni-k/</t>
+        </is>
+      </c>
       <c r="H37" t="n">
         <v>1689900</v>
       </c>
@@ -3277,14 +3275,6 @@
           <t>https://fair-cars.ru/catalog/changan/uni-k</t>
         </is>
       </c>
-      <c r="AH37" t="n">
-        <v>2439900</v>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/uni-k/</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3343,6 +3333,14 @@
           <t>https://avanta-avto-credit.ru/cars/changan/uni-s/</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>1379900</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/uni-s/</t>
+        </is>
+      </c>
       <c r="H39" t="n">
         <v>1500000</v>
       </c>
@@ -3375,14 +3373,6 @@
           <t>http://avtohous-group.ru/katalog/changan/uni-s/suv</t>
         </is>
       </c>
-      <c r="AH39" t="n">
-        <v>1379900</v>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/uni-s/</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3441,6 +3431,14 @@
           <t>https://msk-carshop777.ru/auto/changan/uni-t/</t>
         </is>
       </c>
+      <c r="F41" t="n">
+        <v>1569900</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/uni-t/</t>
+        </is>
+      </c>
       <c r="H41" t="n">
         <v>2219900</v>
       </c>
@@ -3533,14 +3531,6 @@
           <t>https://fair-cars.ru/catalog/changan/uni-t</t>
         </is>
       </c>
-      <c r="AH41" t="n">
-        <v>1569900</v>
-      </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/uni-t/</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3566,6 +3556,14 @@
           <t>https://msk-carshop777.ru/auto/changan/uni-v/</t>
         </is>
       </c>
+      <c r="F42" t="n">
+        <v>1629900</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/changan/uni-v/</t>
+        </is>
+      </c>
       <c r="H42" t="n">
         <v>1650000</v>
       </c>
@@ -3650,14 +3648,6 @@
           <t>https://moscowautos777.ru/auto/changan/uni-v/i/liftback</t>
         </is>
       </c>
-      <c r="AH42" t="n">
-        <v>1629900</v>
-      </c>
-      <c r="AI42" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/changan/uni-v/</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3683,10 +3673,10 @@
           <t>https://avanta-avto-credit.ru/cars/changan/uni-z/</t>
         </is>
       </c>
-      <c r="AH43" t="n">
+      <c r="F43" t="n">
         <v>1750000</v>
       </c>
-      <c r="AI43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/changan/uni-z/</t>
         </is>
@@ -3716,6 +3706,14 @@
           <t>https://fair-cars.ru/catalog/chery/arrizo-8</t>
         </is>
       </c>
+      <c r="F44" t="n">
+        <v>1139000</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/chery-arrizo-8/</t>
+        </is>
+      </c>
       <c r="H44" t="n">
         <v>3099900</v>
       </c>
@@ -3757,7 +3755,7 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2295100</v>
+        <v>1430200</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -3808,14 +3806,6 @@
           <t>https://fair-cars.ru/catalog/chery/arrizo-8</t>
         </is>
       </c>
-      <c r="AH44" t="n">
-        <v>1139000</v>
-      </c>
-      <c r="AI44" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/chery-arrizo-8/</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3841,6 +3831,14 @@
           <t>https://avanta-avto-credit.ru/cars/chery/explore-06/</t>
         </is>
       </c>
+      <c r="F45" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/explore-06/</t>
+        </is>
+      </c>
       <c r="J45" t="n">
         <v>1588400</v>
       </c>
@@ -3857,14 +3855,6 @@
           <t>https://idol-avto.ru/cars-new/chery/explore-06/2023-allroad-5/</t>
         </is>
       </c>
-      <c r="AH45" t="n">
-        <v>1250000</v>
-      </c>
-      <c r="AI45" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/explore-06/</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3890,10 +3880,10 @@
           <t>https://avanta-avto-credit.ru/cars/chery/tiggo-2-pro/</t>
         </is>
       </c>
-      <c r="AH46" t="n">
+      <c r="F46" t="n">
         <v>949900</v>
       </c>
-      <c r="AI46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/chery/tiggo-2-pro/</t>
         </is>
@@ -3968,6 +3958,14 @@
           <t>https://fair-cars.ru/catalog/chery/tiggo-4</t>
         </is>
       </c>
+      <c r="F48" t="n">
+        <v>1109000</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-4-new/</t>
+        </is>
+      </c>
       <c r="H48" t="n">
         <v>561000</v>
       </c>
@@ -4000,14 +3998,6 @@
           <t>https://fair-cars.ru/catalog/chery/tiggo-4</t>
         </is>
       </c>
-      <c r="AH48" t="n">
-        <v>1109000</v>
-      </c>
-      <c r="AI48" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-4-new/</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4082,6 +4072,14 @@
           <t>https://dc-dbr.ru/catalog/chery/tiggo-4-pro</t>
         </is>
       </c>
+      <c r="F50" t="n">
+        <v>1009000</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/chery-tiggo-4-pro/</t>
+        </is>
+      </c>
       <c r="H50" t="n">
         <v>630000</v>
       </c>
@@ -4123,7 +4121,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1374500</v>
+        <v>1251200</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -4146,14 +4144,6 @@
           <t>https://moscowautos777.ru/auto/chery/tiggo-4-pro/i-rest/18-years-edition</t>
         </is>
       </c>
-      <c r="AH50" t="n">
-        <v>1009000</v>
-      </c>
-      <c r="AI50" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/chery-tiggo-4-pro/</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4298,6 +4288,14 @@
           <t>https://fair-cars.ru/catalog/chery/tiggo-7-pro</t>
         </is>
       </c>
+      <c r="F54" t="n">
+        <v>1069000</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-7-pro/</t>
+        </is>
+      </c>
       <c r="H54" t="n">
         <v>709900</v>
       </c>
@@ -4315,7 +4313,7 @@
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1733200</v>
+        <v>1387200</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -4338,14 +4336,6 @@
           <t>https://fair-cars.ru/catalog/chery/tiggo-7-pro</t>
         </is>
       </c>
-      <c r="AH54" t="n">
-        <v>1069000</v>
-      </c>
-      <c r="AI54" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-7-pro/</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4371,6 +4361,14 @@
           <t>https://fair-cars.ru/catalog/chery/tiggo-7-pro-max</t>
         </is>
       </c>
+      <c r="F55" t="n">
+        <v>1109000</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-7-pro-max/</t>
+        </is>
+      </c>
       <c r="H55" t="n">
         <v>1269900</v>
       </c>
@@ -4412,7 +4410,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1998200</v>
+        <v>1555200</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -4463,14 +4461,6 @@
           <t>https://fair-cars.ru/catalog/chery/tiggo-7-pro-max</t>
         </is>
       </c>
-      <c r="AH55" t="n">
-        <v>1109000</v>
-      </c>
-      <c r="AI55" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-7-pro-max/</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4493,6 +4483,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>https://msk-carshop777.ru/auto/chery/tiggo_7_pro_max/</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1179000</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>https://avanta-avto-credit.ru/cars/chery/tiggo-7-pro-max-new/</t>
         </is>
       </c>
@@ -4537,7 +4535,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2124200</v>
+        <v>1843200</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -4580,14 +4578,6 @@
           <t>https://moscowautos777.ru/auto/chery/tiggo-7-pro-max/1-rest/suv-5d</t>
         </is>
       </c>
-      <c r="AH56" t="n">
-        <v>1179000</v>
-      </c>
-      <c r="AI56" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-7-pro-max-new/</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4613,6 +4603,14 @@
           <t>https://moscowautos777.ru/auto/chery/tiggo-7pro-plug-in-hybrid/i/suv-5d</t>
         </is>
       </c>
+      <c r="F57" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-7-pro-plug-in-hybrid/</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>2912200</v>
       </c>
@@ -4637,14 +4635,6 @@
           <t>https://moscowautos777.ru/auto/chery/tiggo-7pro-plug-in-hybrid/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH57" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="AI57" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-7-pro-plug-in-hybrid/</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4670,6 +4660,14 @@
           <t>https://fair-cars.ru/catalog/chery/tiggo-8</t>
         </is>
       </c>
+      <c r="F58" t="n">
+        <v>1729000</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-8/</t>
+        </is>
+      </c>
       <c r="H58" t="n">
         <v>812600</v>
       </c>
@@ -4695,7 +4693,7 @@
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1553100</v>
+        <v>1653200</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -4738,14 +4736,6 @@
           <t>https://fair-cars.ru/catalog/chery/tiggo-8</t>
         </is>
       </c>
-      <c r="AH58" t="n">
-        <v>1729000</v>
-      </c>
-      <c r="AI58" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-8/</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4768,7 +4758,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/chery/tiggo-8-1082193977</t>
+          <t>https://vita-auto.ru/chery/tiggo-8-new/</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -4780,7 +4770,7 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1935200</v>
+        <v>1799200</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -4812,6 +4802,14 @@
           <t>https://fair-cars.ru/catalog/chery/tiggo-8-pro</t>
         </is>
       </c>
+      <c r="F60" t="n">
+        <v>1969000</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-8-pro/</t>
+        </is>
+      </c>
       <c r="H60" t="n">
         <v>1328000</v>
       </c>
@@ -4829,7 +4827,7 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2167200</v>
+        <v>1811200</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -4872,14 +4870,6 @@
           <t>https://fair-cars.ru/catalog/chery/tiggo-8-pro</t>
         </is>
       </c>
-      <c r="AH60" t="n">
-        <v>1969000</v>
-      </c>
-      <c r="AI60" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-8-pro/</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4905,6 +4895,14 @@
           <t>https://fair-cars.ru/catalog/chery/tiggo-8-pro-max</t>
         </is>
       </c>
+      <c r="F61" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-8-pro-max/</t>
+        </is>
+      </c>
       <c r="H61" t="n">
         <v>1589000</v>
       </c>
@@ -4946,7 +4944,7 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2591100</v>
+        <v>1912200</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -4982,7 +4980,7 @@
         </is>
       </c>
       <c r="AD61" t="n">
-        <v>1950000</v>
+        <v>1859000</v>
       </c>
       <c r="AE61" t="inlineStr">
         <is>
@@ -4997,14 +4995,6 @@
           <t>https://fair-cars.ru/catalog/chery/tiggo-8-pro-max</t>
         </is>
       </c>
-      <c r="AH61" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="AI61" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-8-pro-max/</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5023,11 +5013,19 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1859000</v>
+        <v>1999000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://moscowautos777.ru/auto/chery/tiggo-8-pro-max/i-rest/suv-5d</t>
+          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-8-pro-max-new/</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1999000</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-8-pro-max-new/</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -5039,7 +5037,7 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3251100</v>
+        <v>2567200</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -5067,19 +5065,11 @@
         </is>
       </c>
       <c r="AD62" t="n">
-        <v>1859000</v>
+        <v>2022000</v>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
           <t>https://moscowautos777.ru/auto/chery/tiggo-8-pro-max/i-rest/suv-5d</t>
-        </is>
-      </c>
-      <c r="AH62" t="n">
-        <v>1999000</v>
-      </c>
-      <c r="AI62" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-8-pro-max-new/</t>
         </is>
       </c>
     </row>
@@ -5156,6 +5146,14 @@
           <t>https://moscowautos777.ru/auto/chery/tiggo-8pro-plug-in-hybrid/i/suv-5d</t>
         </is>
       </c>
+      <c r="F64" t="n">
+        <v>3349000</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-8-pro-plug-in-hybrid/</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>3315200</v>
       </c>
@@ -5180,14 +5178,6 @@
           <t>https://moscowautos777.ru/auto/chery/tiggo-8pro-plug-in-hybrid/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH64" t="n">
-        <v>3349000</v>
-      </c>
-      <c r="AI64" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-8-pro-plug-in-hybrid/</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5262,6 +5252,14 @@
           <t>https://idol-avto.ru/cars-new/chery/tiggo-9/2023-allroad-5/</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>2119000</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/chery-tiggo-9/</t>
+        </is>
+      </c>
       <c r="J66" t="n">
         <v>1948100</v>
       </c>
@@ -5295,7 +5293,7 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4068200</v>
+        <v>3708200</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -5318,14 +5316,6 @@
           <t>https://moscowautos777.ru/auto/chery/tiggo-9/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH66" t="n">
-        <v>2119000</v>
-      </c>
-      <c r="AI66" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/chery-tiggo-9/</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5351,6 +5341,14 @@
           <t>https://avanta-avto-credit.ru/cars/chery/tiggo-9-new/</t>
         </is>
       </c>
+      <c r="F67" t="n">
+        <v>2849000</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-9-new/</t>
+        </is>
+      </c>
       <c r="J67" t="n">
         <v>2905000</v>
       </c>
@@ -5367,14 +5365,6 @@
           <t>https://idol-avto.ru/cars-new/chery/tiggo-9/i-allroad-5/</t>
         </is>
       </c>
-      <c r="AH67" t="n">
-        <v>2849000</v>
-      </c>
-      <c r="AI67" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/chery/tiggo-9-new/</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5696,7 +5686,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1484400</v>
+        <v>1549200</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -5704,7 +5694,7 @@
         </is>
       </c>
       <c r="R75" t="n">
-        <v>1484400</v>
+        <v>1549200</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -5762,7 +5752,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1655200</v>
+        <v>1702200</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -5770,7 +5760,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1655200</v>
+        <v>1702200</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -5844,7 +5834,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1242200</v>
+        <v>1776200</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -5860,7 +5850,7 @@
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1242200</v>
+        <v>1776200</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -6221,6 +6211,14 @@
           <t>https://idol-avto.ru/cars-new/dongfeng/580/i-allroad-5/</t>
         </is>
       </c>
+      <c r="F89" t="n">
+        <v>1649000</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/dongfeng/dongfeng-580/</t>
+        </is>
+      </c>
       <c r="J89" t="n">
         <v>808200</v>
       </c>
@@ -6277,14 +6275,6 @@
           <t>https://moscowautos777.ru/auto/dfm/580/i-rest/suv-5d</t>
         </is>
       </c>
-      <c r="AH89" t="n">
-        <v>1649000</v>
-      </c>
-      <c r="AI89" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/dongfeng/dongfeng-580/</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6400,6 +6390,14 @@
           <t>https://kosmos-cars.ru/cars/dongfeng/df6/</t>
         </is>
       </c>
+      <c r="F92" t="n">
+        <v>1990000</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/dongfeng/df6/</t>
+        </is>
+      </c>
       <c r="J92" t="n">
         <v>2043000</v>
       </c>
@@ -6448,14 +6446,6 @@
           <t>http://avtohous-group.ru/katalog/dongfeng/df6/suv</t>
         </is>
       </c>
-      <c r="AH92" t="n">
-        <v>1990000</v>
-      </c>
-      <c r="AI92" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/dongfeng/df6/</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6481,6 +6471,14 @@
           <t>https://kosmos-cars.ru/cars/dongfeng/dfsk_500/</t>
         </is>
       </c>
+      <c r="F93" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/dongfeng/dfsk-500/</t>
+        </is>
+      </c>
       <c r="N93" t="n">
         <v>1099000</v>
       </c>
@@ -6497,14 +6495,6 @@
           <t>https://moscowautos777.ru/auto/dfm/dfsk-500/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH93" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="AI93" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/dongfeng/dfsk-500/</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6530,10 +6520,10 @@
           <t>https://avanta-avto-credit.ru/cars/dongfeng/580-new/</t>
         </is>
       </c>
-      <c r="AH94" t="n">
+      <c r="F94" t="n">
         <v>1650000</v>
       </c>
-      <c r="AI94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/dongfeng/580-new/</t>
         </is>
@@ -6563,6 +6553,14 @@
           <t>https://moscowautos777.ru/auto/dfm/dfsk-ix5/i/suv-5d</t>
         </is>
       </c>
+      <c r="F95" t="n">
+        <v>1990000</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/dongfeng/dfsk-ix5/</t>
+        </is>
+      </c>
       <c r="N95" t="n">
         <v>1390000</v>
       </c>
@@ -6587,14 +6585,6 @@
           <t>https://moscowautos777.ru/auto/dfm/dfsk-ix5/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH95" t="n">
-        <v>1990000</v>
-      </c>
-      <c r="AI95" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/dongfeng/dfsk-ix5/</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6620,6 +6610,14 @@
           <t>https://kosmos-cars.ru/cars/dongfeng/dfsk_ix7/</t>
         </is>
       </c>
+      <c r="F96" t="n">
+        <v>2990000</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/dongfeng/dfsk-ix7/</t>
+        </is>
+      </c>
       <c r="N96" t="n">
         <v>2090000</v>
       </c>
@@ -6636,14 +6634,6 @@
           <t>http://avtohous-group.ru/katalog/dongfeng/dfsk_ix7/suv</t>
         </is>
       </c>
-      <c r="AH96" t="n">
-        <v>2990000</v>
-      </c>
-      <c r="AI96" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/dongfeng/dfsk-ix7/</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6669,6 +6659,14 @@
           <t>https://avanta-avto-credit.ru/cars/dongfeng/shine-max/</t>
         </is>
       </c>
+      <c r="F97" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/dongfeng/shine-max/</t>
+        </is>
+      </c>
       <c r="H97" t="n">
         <v>2690000</v>
       </c>
@@ -6733,14 +6731,6 @@
           <t>https://moscowautos777.ru/auto/dfm/shine-max/i/sedan</t>
         </is>
       </c>
-      <c r="AH97" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="AI97" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/dongfeng/shine-max/</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6766,6 +6756,14 @@
           <t>https://fair-cars.ru/catalog/exeed/exeed-lx</t>
         </is>
       </c>
+      <c r="F98" t="n">
+        <v>1760000</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/cheryexeed/lx/</t>
+        </is>
+      </c>
       <c r="H98" t="n">
         <v>1690000</v>
       </c>
@@ -6850,14 +6848,6 @@
           <t>https://fair-cars.ru/catalog/exeed/exeed-lx</t>
         </is>
       </c>
-      <c r="AH98" t="n">
-        <v>1760000</v>
-      </c>
-      <c r="AI98" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/cheryexeed/lx/</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6924,6 +6914,14 @@
           <t>https://avanta-avto-credit.ru/cars/cheryexeed/lx-new/</t>
         </is>
       </c>
+      <c r="F100" t="n">
+        <v>1890000</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/cheryexeed/lx-new/</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>2231200</v>
       </c>
@@ -6956,14 +6954,6 @@
           <t>http://avtohous-group.ru/katalog/exeed/lx/1-restyling-2</t>
         </is>
       </c>
-      <c r="AH100" t="n">
-        <v>1890000</v>
-      </c>
-      <c r="AI100" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/cheryexeed/lx-new/</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6989,6 +6979,14 @@
           <t>https://fair-cars.ru/catalog/exeed/rx</t>
         </is>
       </c>
+      <c r="F101" t="n">
+        <v>2440000</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/cheryexeed/rx/</t>
+        </is>
+      </c>
       <c r="H101" t="n">
         <v>4000000</v>
       </c>
@@ -7073,14 +7071,6 @@
           <t>https://fair-cars.ru/catalog/exeed/rx</t>
         </is>
       </c>
-      <c r="AH101" t="n">
-        <v>2440000</v>
-      </c>
-      <c r="AI101" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/cheryexeed/rx/</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7106,6 +7096,14 @@
           <t>https://fair-cars.ru/catalog/exeed/exeed-txl-1</t>
         </is>
       </c>
+      <c r="F102" t="n">
+        <v>2210000</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/cheryexeed/txl-2021/</t>
+        </is>
+      </c>
       <c r="H102" t="n">
         <v>1490000</v>
       </c>
@@ -7174,14 +7172,6 @@
           <t>https://fair-cars.ru/catalog/exeed/exeed-txl-1</t>
         </is>
       </c>
-      <c r="AH102" t="n">
-        <v>2210000</v>
-      </c>
-      <c r="AI102" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/cheryexeed/txl-2021/</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7207,6 +7197,14 @@
           <t>https://dc-dbr.ru/catalog/exeed/exeed-txl-new</t>
         </is>
       </c>
+      <c r="F103" t="n">
+        <v>2450000</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/cheryexeed/txl-2024/</t>
+        </is>
+      </c>
       <c r="H103" t="n">
         <v>1540000</v>
       </c>
@@ -7247,14 +7245,6 @@
           <t>https://fair-cars.ru/catalog/exeed/exeed-txl-new</t>
         </is>
       </c>
-      <c r="AH103" t="n">
-        <v>2450000</v>
-      </c>
-      <c r="AI103" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/cheryexeed/txl-2024/</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7362,6 +7352,14 @@
           <t>https://fair-cars.ru/catalog/exeed/exeed-vx</t>
         </is>
       </c>
+      <c r="F106" t="n">
+        <v>3009900</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/cheryexeed/vx/</t>
+        </is>
+      </c>
       <c r="H106" t="n">
         <v>2490000</v>
       </c>
@@ -7446,14 +7444,6 @@
           <t>https://fair-cars.ru/catalog/exeed/exeed-vx</t>
         </is>
       </c>
-      <c r="AH106" t="n">
-        <v>3009900</v>
-      </c>
-      <c r="AI106" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/cheryexeed/vx/</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7479,6 +7469,14 @@
           <t>https://fair-cars.ru/catalog/exeed/vx-new</t>
         </is>
       </c>
+      <c r="F107" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/cheryexeed/vx-new/</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>5341200</v>
       </c>
@@ -7503,14 +7501,6 @@
           <t>https://fair-cars.ru/catalog/exeed/vx-new</t>
         </is>
       </c>
-      <c r="AH107" t="n">
-        <v>3200000</v>
-      </c>
-      <c r="AI107" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/cheryexeed/vx-new/</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7667,6 +7657,14 @@
           <t>https://moscowautos777.ru/auto/faw/bestune-b70/i/liftback</t>
         </is>
       </c>
+      <c r="F111" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/faw/besturn-b70/</t>
+        </is>
+      </c>
       <c r="H111" t="n">
         <v>2128000</v>
       </c>
@@ -7727,14 +7725,6 @@
           <t>https://moscowautos777.ru/auto/faw/bestune-b70/i/liftback</t>
         </is>
       </c>
-      <c r="AH111" t="n">
-        <v>1650000</v>
-      </c>
-      <c r="AI111" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/faw/besturn-b70/</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7760,10 +7750,10 @@
           <t>https://avanta-avto-credit.ru/cars/faw/bestune-b70-new/</t>
         </is>
       </c>
-      <c r="AH112" t="n">
+      <c r="F112" t="n">
         <v>1699990</v>
       </c>
-      <c r="AI112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/faw/bestune-b70-new/</t>
         </is>
@@ -7793,6 +7783,14 @@
           <t>https://moscowautos777.ru/auto/faw/bestune-t55/i/suv-5d</t>
         </is>
       </c>
+      <c r="F113" t="n">
+        <v>1539000</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/faw/bestune-t55/</t>
+        </is>
+      </c>
       <c r="H113" t="n">
         <v>2089000</v>
       </c>
@@ -7869,14 +7867,6 @@
           <t>https://moscowautos777.ru/auto/faw/bestune-t55/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH113" t="n">
-        <v>1539000</v>
-      </c>
-      <c r="AI113" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/faw/bestune-t55/</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7902,6 +7892,14 @@
           <t>https://moscowautos777.ru/auto/faw/bestune-t77/i/suv-5d</t>
         </is>
       </c>
+      <c r="F114" t="n">
+        <v>1619000</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/faw/bestune-t77/</t>
+        </is>
+      </c>
       <c r="H114" t="n">
         <v>1318000</v>
       </c>
@@ -7962,14 +7960,6 @@
           <t>https://moscowautos777.ru/auto/faw/bestune-t77/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH114" t="n">
-        <v>1619000</v>
-      </c>
-      <c r="AI114" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/faw/bestune-t77/</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7995,10 +7985,10 @@
           <t>https://avanta-avto-credit.ru/cars/faw/bestune-t90/</t>
         </is>
       </c>
-      <c r="AH115" t="n">
+      <c r="F115" t="n">
         <v>1779990</v>
       </c>
-      <c r="AI115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/faw/bestune-t90/</t>
         </is>
@@ -8025,6 +8015,14 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>https://msk-carshop777.ru/auto/faw/bestune_t99/</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>https://avanta-avto-credit.ru/cars/faw/bestune-t99/</t>
         </is>
       </c>
@@ -8080,14 +8078,6 @@
           <t>https://msk-carshop777.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
-      <c r="AH116" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="AI116" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/faw/bestune-t99/</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8352,6 +8342,14 @@
           <t>https://avanta-avto-credit.ru/cars/forthing/forthing-t5/</t>
         </is>
       </c>
+      <c r="F124" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/forthing/forthing-t5/</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1830200</v>
       </c>
@@ -8368,14 +8366,6 @@
           <t>https://vita-auto.ru/forthing/t5/</t>
         </is>
       </c>
-      <c r="AH124" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AI124" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/forthing/forthing-t5/</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8401,6 +8391,14 @@
           <t>https://avanta-avto-credit.ru/cars/forthing/t5-evo/</t>
         </is>
       </c>
+      <c r="F125" t="n">
+        <v>1710000</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/forthing/t5-evo/</t>
+        </is>
+      </c>
       <c r="H125" t="n">
         <v>2410000</v>
       </c>
@@ -8425,14 +8423,6 @@
           <t>https://vita-auto.ru/forthing/t5-evo/</t>
         </is>
       </c>
-      <c r="AH125" t="n">
-        <v>1710000</v>
-      </c>
-      <c r="AI125" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/forthing/t5-evo/</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8458,6 +8448,14 @@
           <t>https://avanta-avto-credit.ru/cars/forthing/yacht/</t>
         </is>
       </c>
+      <c r="F126" t="n">
+        <v>2760000</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/forthing/yacht/</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>3133200</v>
       </c>
@@ -8474,14 +8472,6 @@
           <t>https://vita-auto.ru/forthing/yacht/</t>
         </is>
       </c>
-      <c r="AH126" t="n">
-        <v>2760000</v>
-      </c>
-      <c r="AI126" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/forthing/yacht/</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8696,6 +8686,14 @@
           <t>https://fair-cars.ru/catalog/gac/gs3</t>
         </is>
       </c>
+      <c r="F132" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/gac/gs3/</t>
+        </is>
+      </c>
       <c r="J132" t="n">
         <v>1723300</v>
       </c>
@@ -8760,14 +8758,6 @@
           <t>https://fair-cars.ru/catalog/gac/gs3</t>
         </is>
       </c>
-      <c r="AH132" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="AI132" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/gac/gs3/</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8793,6 +8783,14 @@
           <t>https://dc-dbr.ru/catalog/gac/gs5</t>
         </is>
       </c>
+      <c r="F133" t="n">
+        <v>1546000</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/gac/gs5/</t>
+        </is>
+      </c>
       <c r="H133" t="n">
         <v>1125900</v>
       </c>
@@ -8849,14 +8847,6 @@
           <t>https://moscowautos777.ru/auto/gac/gs5/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH133" t="n">
-        <v>1546000</v>
-      </c>
-      <c r="AI133" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/gac/gs5/</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8882,6 +8872,14 @@
           <t>https://fair-cars.ru/catalog/gac/gs8</t>
         </is>
       </c>
+      <c r="F134" t="n">
+        <v>2599000</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/gac/gac-gs8-new/</t>
+        </is>
+      </c>
       <c r="H134" t="n">
         <v>1524000</v>
       </c>
@@ -8930,14 +8928,6 @@
           <t>https://fair-cars.ru/catalog/gac/gs8</t>
         </is>
       </c>
-      <c r="AH134" t="n">
-        <v>2599000</v>
-      </c>
-      <c r="AI134" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/gac/gac-gs8-new/</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9142,6 +9132,14 @@
           <t>https://fair-cars.ru/catalog/geely/atlas</t>
         </is>
       </c>
+      <c r="F138" t="n">
+        <v>1494990</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/geely/atlas-new/</t>
+        </is>
+      </c>
       <c r="H138" t="n">
         <v>1177990</v>
       </c>
@@ -9198,14 +9196,6 @@
           <t>https://fair-cars.ru/catalog/geely/atlas</t>
         </is>
       </c>
-      <c r="AH138" t="n">
-        <v>1494990</v>
-      </c>
-      <c r="AI138" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/atlas-new/</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9348,6 +9338,14 @@
           <t>https://fair-cars.ru/catalog/geely/geely-atlas-pro-3</t>
         </is>
       </c>
+      <c r="F140" t="n">
+        <v>1138990</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/geely/atlas-pro/</t>
+        </is>
+      </c>
       <c r="H140" t="n">
         <v>1049000</v>
       </c>
@@ -9448,14 +9446,6 @@
           <t>https://fair-cars.ru/catalog/geely/geely-atlas-pro-3</t>
         </is>
       </c>
-      <c r="AH140" t="n">
-        <v>1138990</v>
-      </c>
-      <c r="AI140" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/atlas-pro/</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9604,6 +9594,14 @@
           <t>https://idol-avto.ru/cars-new/geely/cityray/2024-allroad-5/</t>
         </is>
       </c>
+      <c r="F144" t="n">
+        <v>1474990</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/geely/cityray/</t>
+        </is>
+      </c>
       <c r="J144" t="n">
         <v>1299000</v>
       </c>
@@ -9660,14 +9658,6 @@
           <t>http://avtohous-group.ru/katalog/geely/cityray/suv</t>
         </is>
       </c>
-      <c r="AH144" t="n">
-        <v>1474990</v>
-      </c>
-      <c r="AI144" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/cityray/</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9693,6 +9683,14 @@
           <t>https://fair-cars.ru/catalog/geely/coolray</t>
         </is>
       </c>
+      <c r="F145" t="n">
+        <v>899990</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/geely/coolray/</t>
+        </is>
+      </c>
       <c r="H145" t="n">
         <v>735491</v>
       </c>
@@ -9785,14 +9783,6 @@
           <t>https://fair-cars.ru/catalog/geely/coolray</t>
         </is>
       </c>
-      <c r="AH145" t="n">
-        <v>899990</v>
-      </c>
-      <c r="AI145" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/coolray/</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9818,6 +9808,14 @@
           <t>https://msk-carshop777.ru/auto/geely/coolray/</t>
         </is>
       </c>
+      <c r="F146" t="n">
+        <v>1199990</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/geely/coolray-new/</t>
+        </is>
+      </c>
       <c r="H146" t="n">
         <v>1050000</v>
       </c>
@@ -9894,14 +9892,6 @@
           <t>https://fair-cars.ru/catalog/geely/coolray-new</t>
         </is>
       </c>
-      <c r="AH146" t="n">
-        <v>1199990</v>
-      </c>
-      <c r="AI146" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/coolray-new/</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9976,6 +9966,14 @@
           <t>https://ca-geely.ru/auto/geely/emgrand/sedan-2gen</t>
         </is>
       </c>
+      <c r="F148" t="n">
+        <v>1149990</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/geely/emgrand-7/</t>
+        </is>
+      </c>
       <c r="J148" t="n">
         <v>1039000</v>
       </c>
@@ -10017,19 +10015,11 @@
         </is>
       </c>
       <c r="AD148" t="n">
-        <v>1040000</v>
+        <v>1307994</v>
       </c>
       <c r="AE148" t="inlineStr">
         <is>
           <t>https://moscowautos777.ru/auto/geely/emgrand/ii/sedan</t>
-        </is>
-      </c>
-      <c r="AH148" t="n">
-        <v>1149990</v>
-      </c>
-      <c r="AI148" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/emgrand-7/</t>
         </is>
       </c>
     </row>
@@ -10300,6 +10290,14 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
+          <t>https://msk-carshop777.ru/auto/geely/monjaro/</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>2349990</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
           <t>https://avanta-avto-credit.ru/cars/geely/geely-monjaro/</t>
         </is>
       </c>
@@ -10387,14 +10385,6 @@
           <t>https://moscowautos777.ru/auto/geely/monjaro/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH155" t="n">
-        <v>2349990</v>
-      </c>
-      <c r="AI155" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/geely-monjaro/</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10461,6 +10451,14 @@
           <t>https://avanta-avto-credit.ru/cars/geely/monjaro-new/</t>
         </is>
       </c>
+      <c r="F157" t="n">
+        <v>2599000</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/geely/monjaro-new/</t>
+        </is>
+      </c>
       <c r="N157" t="n">
         <v>3099000</v>
       </c>
@@ -10469,14 +10467,6 @@
           <t>https://kosmos-cars.ru/cars/geely/monjaro_new/</t>
         </is>
       </c>
-      <c r="AH157" t="n">
-        <v>2599000</v>
-      </c>
-      <c r="AI157" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/monjaro-new/</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -10535,6 +10525,14 @@
           <t>https://ca-geely.ru/auto/geely/okavango/suv-1gen</t>
         </is>
       </c>
+      <c r="F159" t="n">
+        <v>1549000</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/geely/okavango/</t>
+        </is>
+      </c>
       <c r="J159" t="n">
         <v>1852100</v>
       </c>
@@ -10599,14 +10597,6 @@
           <t>https://moscowautos777.ru/auto/geely/okavango/i-rest/suv-5d</t>
         </is>
       </c>
-      <c r="AH159" t="n">
-        <v>1549000</v>
-      </c>
-      <c r="AI159" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/okavango/</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10632,6 +10622,14 @@
           <t>https://fair-cars.ru/catalog/geely/okavango-new</t>
         </is>
       </c>
+      <c r="F160" t="n">
+        <v>1949990</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/geely/okavango-new/</t>
+        </is>
+      </c>
       <c r="J160" t="n">
         <v>1809300</v>
       </c>
@@ -10708,14 +10706,6 @@
           <t>https://fair-cars.ru/catalog/geely/okavango-new</t>
         </is>
       </c>
-      <c r="AH160" t="n">
-        <v>1949990</v>
-      </c>
-      <c r="AI160" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/okavango-new/</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -10741,6 +10731,14 @@
           <t>https://avanta-avto-credit.ru/cars/geely/preface/</t>
         </is>
       </c>
+      <c r="F161" t="n">
+        <v>1549000</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/geely/preface/</t>
+        </is>
+      </c>
       <c r="J161" t="n">
         <v>2796200</v>
       </c>
@@ -10797,14 +10795,6 @@
           <t>http://avtohous-group.ru/katalog/geely/preface/suv</t>
         </is>
       </c>
-      <c r="AH161" t="n">
-        <v>1549000</v>
-      </c>
-      <c r="AI161" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/preface/</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10830,6 +10820,14 @@
           <t>https://avanta-avto-credit.ru/cars/geely/preface-new/</t>
         </is>
       </c>
+      <c r="F162" t="n">
+        <v>1699990</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/geely/preface-new/</t>
+        </is>
+      </c>
       <c r="J162" t="n">
         <v>2995900</v>
       </c>
@@ -10870,14 +10868,6 @@
           <t>http://avtohous-group.ru/katalog/geely/preface/1-restyling-2</t>
         </is>
       </c>
-      <c r="AH162" t="n">
-        <v>1699990</v>
-      </c>
-      <c r="AI162" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/preface-new/</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10903,6 +10893,14 @@
           <t>https://ca-geely.ru/auto/geely/tugella/cuv</t>
         </is>
       </c>
+      <c r="F163" t="n">
+        <v>1999990</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/geely/geely-tugella-new/</t>
+        </is>
+      </c>
       <c r="H163" t="n">
         <v>1533994</v>
       </c>
@@ -10952,19 +10950,11 @@
         </is>
       </c>
       <c r="AD163" t="n">
-        <v>1620000</v>
+        <v>1950000</v>
       </c>
       <c r="AE163" t="inlineStr">
         <is>
           <t>https://moscowautos777.ru/auto/geely/tugella/i-restyling/suv-5d</t>
-        </is>
-      </c>
-      <c r="AH163" t="n">
-        <v>1999990</v>
-      </c>
-      <c r="AI163" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/geely/geely-tugella-new/</t>
         </is>
       </c>
     </row>
@@ -11455,6 +11445,14 @@
           <t>https://warshauto.ru/haima/7x-1409319445</t>
         </is>
       </c>
+      <c r="F175" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haima/haima-7x/</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>2894200</v>
       </c>
@@ -11471,14 +11469,6 @@
           <t>https://vita-auto.ru/haima/7x/</t>
         </is>
       </c>
-      <c r="AH175" t="n">
-        <v>3100000</v>
-      </c>
-      <c r="AI175" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haima/haima-7x/</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -11504,6 +11494,14 @@
           <t>https://avanta-avto-credit.ru/cars/haima/haima-8s/</t>
         </is>
       </c>
+      <c r="F176" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haima/haima-8s/</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>2537200</v>
       </c>
@@ -11520,14 +11518,6 @@
           <t>https://vita-auto.ru/haima/8s/</t>
         </is>
       </c>
-      <c r="AH176" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="AI176" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haima/haima-8s/</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11586,6 +11576,14 @@
           <t>https://fair-cars.ru/catalog/haval/dargo</t>
         </is>
       </c>
+      <c r="F178" t="n">
+        <v>1699000</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haval/dargo/</t>
+        </is>
+      </c>
       <c r="H178" t="n">
         <v>1389000</v>
       </c>
@@ -11678,14 +11676,6 @@
           <t>https://fair-cars.ru/catalog/haval/dargo</t>
         </is>
       </c>
-      <c r="AH178" t="n">
-        <v>1699000</v>
-      </c>
-      <c r="AI178" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haval/dargo/</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11711,6 +11701,14 @@
           <t>https://fair-cars.ru/catalog/haval/dargo-x</t>
         </is>
       </c>
+      <c r="F179" t="n">
+        <v>1999000</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haval/dargo-x/</t>
+        </is>
+      </c>
       <c r="H179" t="n">
         <v>2519000</v>
       </c>
@@ -11803,14 +11801,6 @@
           <t>https://fair-cars.ru/catalog/haval/dargo-x</t>
         </is>
       </c>
-      <c r="AH179" t="n">
-        <v>1999000</v>
-      </c>
-      <c r="AI179" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haval/dargo-x/</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -11836,6 +11826,14 @@
           <t>https://dc-dbr.ru/catalog/haval/f7</t>
         </is>
       </c>
+      <c r="F180" t="n">
+        <v>1449000</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haval/f7-2022/</t>
+        </is>
+      </c>
       <c r="H180" t="n">
         <v>869000</v>
       </c>
@@ -11892,14 +11890,6 @@
           <t>https://moscowautos777.ru/auto/haval/f_7/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH180" t="n">
-        <v>1449000</v>
-      </c>
-      <c r="AI180" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haval/f7-2022/</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11925,6 +11915,14 @@
           <t>https://msk-carshop777.ru/auto/haval/f7/</t>
         </is>
       </c>
+      <c r="F181" t="n">
+        <v>1649000</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haval/f7-2024/</t>
+        </is>
+      </c>
       <c r="J181" t="n">
         <v>2152300</v>
       </c>
@@ -12001,14 +11999,6 @@
           <t>https://fair-cars.ru/catalog/haval/f7-new-2024</t>
         </is>
       </c>
-      <c r="AH181" t="n">
-        <v>1649000</v>
-      </c>
-      <c r="AI181" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haval/f7-2024/</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12091,6 +12081,14 @@
           <t>https://dc-dbr.ru/catalog/haval/f7x</t>
         </is>
       </c>
+      <c r="F183" t="n">
+        <v>1549000</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haval/f7x-2022/</t>
+        </is>
+      </c>
       <c r="H183" t="n">
         <v>849000</v>
       </c>
@@ -12139,14 +12137,6 @@
           <t>https://moscowautos777.ru/auto/haval/f_7_x/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH183" t="n">
-        <v>1549000</v>
-      </c>
-      <c r="AI183" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haval/f7x-2022/</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12405,6 +12395,14 @@
           <t>https://fair-cars.ru/catalog/haval/h3</t>
         </is>
       </c>
+      <c r="F189" t="n">
+        <v>1599000</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haval/haval-h3/</t>
+        </is>
+      </c>
       <c r="J189" t="n">
         <v>1978000</v>
       </c>
@@ -12481,14 +12479,6 @@
           <t>https://fair-cars.ru/catalog/haval/h3</t>
         </is>
       </c>
-      <c r="AH189" t="n">
-        <v>1599000</v>
-      </c>
-      <c r="AI189" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haval/haval-h3/</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -12514,6 +12504,14 @@
           <t>https://dc-dbr.ru/catalog/haval/h5</t>
         </is>
       </c>
+      <c r="F190" t="n">
+        <v>2299000</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haval/haval-h5-new/</t>
+        </is>
+      </c>
       <c r="H190" t="n">
         <v>643600</v>
       </c>
@@ -12538,14 +12536,6 @@
           <t>https://moscowautos777.ru/auto/haval/h5/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH190" t="n">
-        <v>2299000</v>
-      </c>
-      <c r="AI190" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haval/haval-h5-new/</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -12672,6 +12662,14 @@
           <t>https://dc-dbr.ru/catalog/haval/h6</t>
         </is>
       </c>
+      <c r="F192" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haval/h6-new/</t>
+        </is>
+      </c>
       <c r="H192" t="n">
         <v>602200</v>
       </c>
@@ -12696,14 +12694,6 @@
           <t>https://fair-cars.ru/catalog/haval/h6</t>
         </is>
       </c>
-      <c r="AH192" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="AI192" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haval/h6-new/</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -12794,6 +12784,14 @@
           <t>https://msk-carshop777.ru/auto/haval/h9/</t>
         </is>
       </c>
+      <c r="F194" t="n">
+        <v>2699000</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haval/h9-new/</t>
+        </is>
+      </c>
       <c r="H194" t="n">
         <v>1479000</v>
       </c>
@@ -12886,14 +12884,6 @@
           <t>https://fair-cars.ru/catalog/haval/h9</t>
         </is>
       </c>
-      <c r="AH194" t="n">
-        <v>2699000</v>
-      </c>
-      <c r="AI194" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haval/h9-new/</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -12984,6 +12974,14 @@
           <t>https://fair-cars.ru/catalog/haval/jolion</t>
         </is>
       </c>
+      <c r="F196" t="n">
+        <v>849000</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haval/jolion/</t>
+        </is>
+      </c>
       <c r="H196" t="n">
         <v>749000</v>
       </c>
@@ -13056,14 +13054,6 @@
           <t>https://fair-cars.ru/catalog/haval/jolion</t>
         </is>
       </c>
-      <c r="AH196" t="n">
-        <v>849000</v>
-      </c>
-      <c r="AI196" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haval/jolion/</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13089,6 +13079,14 @@
           <t>https://fair-cars.ru/catalog/haval/jolion-new</t>
         </is>
       </c>
+      <c r="F197" t="n">
+        <v>949000</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haval/jolion-new/</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1488100</v>
       </c>
@@ -13129,14 +13127,6 @@
           <t>https://fair-cars.ru/catalog/haval/jolion-new</t>
         </is>
       </c>
-      <c r="AH197" t="n">
-        <v>949000</v>
-      </c>
-      <c r="AI197" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haval/jolion-new/</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -13211,6 +13201,14 @@
           <t>https://msk-carshop777.ru/auto/haval/m6/</t>
         </is>
       </c>
+      <c r="F199" t="n">
+        <v>859000</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/haval/m6/</t>
+        </is>
+      </c>
       <c r="H199" t="n">
         <v>1449000</v>
       </c>
@@ -13303,14 +13301,6 @@
           <t>https://fair-cars.ru/catalog/haval/m6</t>
         </is>
       </c>
-      <c r="AH199" t="n">
-        <v>859000</v>
-      </c>
-      <c r="AI199" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/haval/m6/</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -13418,6 +13408,14 @@
           <t>https://avanta-avto-credit.ru/cars/hyundai/bayon/</t>
         </is>
       </c>
+      <c r="F202" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/bayon/</t>
+        </is>
+      </c>
       <c r="H202" t="n">
         <v>1700000</v>
       </c>
@@ -13458,14 +13456,6 @@
           <t>https://vita-auto.ru/hyundai/bayon/</t>
         </is>
       </c>
-      <c r="AH202" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="AI202" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/bayon/</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -13524,6 +13514,14 @@
           <t>https://dc-dbr.ru/catalog/hyundai/creta</t>
         </is>
       </c>
+      <c r="F204" t="n">
+        <v>1159000</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/creta/</t>
+        </is>
+      </c>
       <c r="H204" t="n">
         <v>446899</v>
       </c>
@@ -13582,14 +13580,6 @@
           <t>https://fair-cars.ru/catalog/hyundai/creta-1</t>
         </is>
       </c>
-      <c r="AH204" t="n">
-        <v>1159000</v>
-      </c>
-      <c r="AI204" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/creta/</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -13640,7 +13630,7 @@
         </is>
       </c>
       <c r="R205" t="n">
-        <v>1324200</v>
+        <v>1226200</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -13723,6 +13713,14 @@
           <t>https://kosmos-cars.ru/cars/hyundai/elantra/</t>
         </is>
       </c>
+      <c r="F207" t="n">
+        <v>1349000</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/elantra/</t>
+        </is>
+      </c>
       <c r="J207" t="n">
         <v>1107900</v>
       </c>
@@ -13756,19 +13754,11 @@
         </is>
       </c>
       <c r="AD207" t="n">
-        <v>1109000</v>
+        <v>1289400</v>
       </c>
       <c r="AE207" t="inlineStr">
         <is>
           <t>https://moscowautos777.ru/auto/hyundai/elantra/vii/sedan</t>
-        </is>
-      </c>
-      <c r="AH207" t="n">
-        <v>1349000</v>
-      </c>
-      <c r="AI207" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/elantra/</t>
         </is>
       </c>
     </row>
@@ -13796,6 +13786,14 @@
           <t>https://msk-carshop777.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
+      <c r="F208" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/elantra-new/</t>
+        </is>
+      </c>
       <c r="H208" t="n">
         <v>836300</v>
       </c>
@@ -13837,7 +13835,7 @@
         </is>
       </c>
       <c r="R208" t="n">
-        <v>1577200</v>
+        <v>1467200</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
@@ -13872,14 +13870,6 @@
           <t>https://msk-carshop777.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
-      <c r="AH208" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="AI208" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/elantra-new/</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -13997,6 +13987,14 @@
           <t>https://idol-avto.ru/cars-new/hyundai/mufasa/i-allroad-5/</t>
         </is>
       </c>
+      <c r="F211" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/mufasa/</t>
+        </is>
+      </c>
       <c r="J211" t="n">
         <v>1471500</v>
       </c>
@@ -14030,7 +14028,7 @@
         </is>
       </c>
       <c r="R211" t="n">
-        <v>2290100</v>
+        <v>1827100</v>
       </c>
       <c r="S211" t="inlineStr">
         <is>
@@ -14045,14 +14043,6 @@
           <t>http://avtohous-group.ru/katalog/hyundai/mufasa/suv</t>
         </is>
       </c>
-      <c r="AH211" t="n">
-        <v>1700000</v>
-      </c>
-      <c r="AI211" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/mufasa/</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -14078,6 +14068,14 @@
           <t>https://fair-cars.ru/catalog/hyundai/palisade</t>
         </is>
       </c>
+      <c r="F212" t="n">
+        <v>3509000</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/palisade/</t>
+        </is>
+      </c>
       <c r="H212" t="n">
         <v>3299000</v>
       </c>
@@ -14152,14 +14150,6 @@
           <t>https://fair-cars.ru/catalog/hyundai/palisade</t>
         </is>
       </c>
-      <c r="AH212" t="n">
-        <v>3509000</v>
-      </c>
-      <c r="AI212" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/palisade/</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -14185,6 +14175,14 @@
           <t>https://idol-avto.ru/cars-new/hyundai/palisade/i-res-allroad-5/</t>
         </is>
       </c>
+      <c r="F213" t="n">
+        <v>5800000</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/palisade-new/</t>
+        </is>
+      </c>
       <c r="J213" t="n">
         <v>3868100</v>
       </c>
@@ -14225,14 +14223,6 @@
           <t>https://vita-auto.ru/hyundai/palisade-new/</t>
         </is>
       </c>
-      <c r="AH213" t="n">
-        <v>5800000</v>
-      </c>
-      <c r="AI213" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/palisade-new/</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -14258,6 +14248,14 @@
           <t>https://kosmos-cars.ru/cars/hyundai/santa_fe/</t>
         </is>
       </c>
+      <c r="F214" t="n">
+        <v>2769000</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/santa-fe-2021/</t>
+        </is>
+      </c>
       <c r="N214" t="n">
         <v>2229000</v>
       </c>
@@ -14282,14 +14280,6 @@
           <t>https://moscowautos777.ru/auto/hyundai/santa_fe/iv/suv-5d</t>
         </is>
       </c>
-      <c r="AH214" t="n">
-        <v>2769000</v>
-      </c>
-      <c r="AI214" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/santa-fe-2021/</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -14315,6 +14305,14 @@
           <t>https://dc-dbr.ru/catalog/hyundai/santa-fe-new</t>
         </is>
       </c>
+      <c r="F215" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/santa-fe-new/</t>
+        </is>
+      </c>
       <c r="H215" t="n">
         <v>1587000</v>
       </c>
@@ -14356,7 +14354,7 @@
         </is>
       </c>
       <c r="R215" t="n">
-        <v>3206200</v>
+        <v>2432900</v>
       </c>
       <c r="S215" t="inlineStr">
         <is>
@@ -14381,14 +14379,6 @@
           <t>https://fair-cars.ru/catalog/hyundai/santa-fe-new</t>
         </is>
       </c>
-      <c r="AH215" t="n">
-        <v>3900000</v>
-      </c>
-      <c r="AI215" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/santa-fe-new/</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -14455,6 +14445,14 @@
           <t>https://avanta-avto-credit.ru/cars/hyundai/solaris/</t>
         </is>
       </c>
+      <c r="F217" t="n">
+        <v>783000</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/solaris/</t>
+        </is>
+      </c>
       <c r="J217" t="n">
         <v>898100</v>
       </c>
@@ -14487,14 +14485,6 @@
           <t>http://avtohous-group.ru/katalog/hyundai/solaris/sedan</t>
         </is>
       </c>
-      <c r="AH217" t="n">
-        <v>783000</v>
-      </c>
-      <c r="AI217" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/solaris/</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -14587,6 +14577,14 @@
           <t>https://msk-carshop777.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
+      <c r="F219" t="n">
+        <v>1619000</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/sonata/</t>
+        </is>
+      </c>
       <c r="J219" t="n">
         <v>1368600</v>
       </c>
@@ -14647,14 +14645,6 @@
           <t>https://moscowautos777.ru/auto/hyundai/sonata/viii/sedan</t>
         </is>
       </c>
-      <c r="AH219" t="n">
-        <v>1619000</v>
-      </c>
-      <c r="AI219" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/sonata/</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -14680,6 +14670,14 @@
           <t>https://dc-dbr.ru/catalog/hyundai/sonata-new</t>
         </is>
       </c>
+      <c r="F220" t="n">
+        <v>2350000</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/sonata-new/</t>
+        </is>
+      </c>
       <c r="H220" t="n">
         <v>1268100</v>
       </c>
@@ -14721,19 +14719,11 @@
         </is>
       </c>
       <c r="R220" t="n">
-        <v>2093200</v>
+        <v>1702200</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
           <t>https://vita-auto.ru/hyundai/sonata-new2k/</t>
-        </is>
-      </c>
-      <c r="AH220" t="n">
-        <v>2350000</v>
-      </c>
-      <c r="AI220" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/sonata-new/</t>
         </is>
       </c>
     </row>
@@ -14802,6 +14792,14 @@
           <t>https://moscowautos777.ru/auto/hyundai/staria/i/minivan</t>
         </is>
       </c>
+      <c r="F222" t="n">
+        <v>6299000</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/staria/</t>
+        </is>
+      </c>
       <c r="H222" t="n">
         <v>2599000</v>
       </c>
@@ -14884,14 +14882,6 @@
           <t>https://fair-cars.ru/catalog/hyundai/hyundai-staria</t>
         </is>
       </c>
-      <c r="AH222" t="n">
-        <v>6299000</v>
-      </c>
-      <c r="AI222" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/staria/</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -14917,6 +14907,14 @@
           <t>https://fair-cars.ru/catalog/hyundai/tucson</t>
         </is>
       </c>
+      <c r="F223" t="n">
+        <v>1999000</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/tucson-2021/</t>
+        </is>
+      </c>
       <c r="H223" t="n">
         <v>1029900</v>
       </c>
@@ -14968,7 +14966,7 @@
         </is>
       </c>
       <c r="AD223" t="n">
-        <v>1394000</v>
+        <v>1649400</v>
       </c>
       <c r="AE223" t="inlineStr">
         <is>
@@ -14983,14 +14981,6 @@
           <t>https://fair-cars.ru/catalog/hyundai/tucson</t>
         </is>
       </c>
-      <c r="AH223" t="n">
-        <v>1999000</v>
-      </c>
-      <c r="AI223" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/tucson-2021/</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -15049,6 +15039,14 @@
           <t>https://fair-cars.ru/catalog/hyundai/tucson-new</t>
         </is>
       </c>
+      <c r="F225" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/hyundai/tucson-new/</t>
+        </is>
+      </c>
       <c r="H225" t="n">
         <v>1349200</v>
       </c>
@@ -15066,7 +15064,7 @@
         </is>
       </c>
       <c r="R225" t="n">
-        <v>2121200</v>
+        <v>1733200</v>
       </c>
       <c r="S225" t="inlineStr">
         <is>
@@ -15119,14 +15117,6 @@
           <t>https://fair-cars.ru/catalog/hyundai/tucson-new</t>
         </is>
       </c>
-      <c r="AH225" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="AI225" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/hyundai/tucson-new/</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -15152,10 +15142,10 @@
           <t>https://avanta-avto-credit.ru/cars/hyundai/i20/</t>
         </is>
       </c>
-      <c r="AH226" t="n">
+      <c r="F226" t="n">
         <v>1400000</v>
       </c>
-      <c r="AI226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/hyundai/i20/</t>
         </is>
@@ -15185,10 +15175,10 @@
           <t>https://avanta-avto-credit.ru/cars/hyundai/i30-khetchbek/</t>
         </is>
       </c>
-      <c r="AH227" t="n">
+      <c r="F227" t="n">
         <v>1550000</v>
       </c>
-      <c r="AI227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/hyundai/i30-khetchbek/</t>
         </is>
@@ -15218,10 +15208,10 @@
           <t>https://avanta-avto-credit.ru/cars/hyundai/i30-universal/</t>
         </is>
       </c>
-      <c r="AH228" t="n">
+      <c r="F228" t="n">
         <v>1600000</v>
       </c>
-      <c r="AI228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/hyundai/i30-universal/</t>
         </is>
@@ -15248,7 +15238,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/hyundai/ix35-1170495871</t>
+          <t>https://vita-auto.ru/hyundai/ix35-new/</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -15260,7 +15250,7 @@
         </is>
       </c>
       <c r="R229" t="n">
-        <v>2025200</v>
+        <v>1812600</v>
       </c>
       <c r="S229" t="inlineStr">
         <is>
@@ -15292,6 +15282,14 @@
           <t>https://fair-cars.ru/catalog/jac/j7</t>
         </is>
       </c>
+      <c r="F230" t="n">
+        <v>849000</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jac/jac-j7/</t>
+        </is>
+      </c>
       <c r="H230" t="n">
         <v>541000</v>
       </c>
@@ -15356,14 +15354,6 @@
           <t>https://fair-cars.ru/catalog/jac/j7</t>
         </is>
       </c>
-      <c r="AH230" t="n">
-        <v>849000</v>
-      </c>
-      <c r="AI230" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jac/jac-j7/</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -15389,6 +15379,14 @@
           <t>https://idol-avto.ru/cars-new/jac/js3/2023-allroad-5/</t>
         </is>
       </c>
+      <c r="F231" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jac/jac-js3/</t>
+        </is>
+      </c>
       <c r="J231" t="n">
         <v>832200</v>
       </c>
@@ -15445,14 +15443,6 @@
           <t>https://moscowautos777.ru/auto/jac/js3/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH231" t="n">
-        <v>1099000</v>
-      </c>
-      <c r="AI231" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jac/jac-js3/</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -15527,6 +15517,14 @@
           <t>https://avanta-avto-credit.ru/cars/jac/js6/</t>
         </is>
       </c>
+      <c r="F233" t="n">
+        <v>1409000</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jac/js6/</t>
+        </is>
+      </c>
       <c r="J233" t="n">
         <v>1648400</v>
       </c>
@@ -15575,14 +15573,6 @@
           <t>https://moscowautos777.ru/auto/jac/js6/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH233" t="n">
-        <v>1409000</v>
-      </c>
-      <c r="AI233" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jac/js6/</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -16068,6 +16058,14 @@
           <t>https://fair-cars.ru/catalog/jaecoo/j7-1</t>
         </is>
       </c>
+      <c r="F242" t="n">
+        <v>1699900</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jaecoo/jaecoo-j7/</t>
+        </is>
+      </c>
       <c r="H242" t="n">
         <v>2399900</v>
       </c>
@@ -16160,14 +16158,6 @@
           <t>https://fair-cars.ru/catalog/jaecoo/j7-1</t>
         </is>
       </c>
-      <c r="AH242" t="n">
-        <v>1699900</v>
-      </c>
-      <c r="AI242" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jaecoo/jaecoo-j7/</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -16193,6 +16183,14 @@
           <t>https://fair-cars.ru/catalog/jaecoo/j8</t>
         </is>
       </c>
+      <c r="F243" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jaecoo/jaecoo-j8/</t>
+        </is>
+      </c>
       <c r="J243" t="n">
         <v>3075900</v>
       </c>
@@ -16249,14 +16247,6 @@
           <t>https://fair-cars.ru/catalog/jaecoo/j8</t>
         </is>
       </c>
-      <c r="AH243" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="AI243" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jaecoo/jaecoo-j8/</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -16282,6 +16272,14 @@
           <t>https://fair-cars.ru/catalog/jetour/dasheng</t>
         </is>
       </c>
+      <c r="F244" t="n">
+        <v>1139900</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jetour/dashing/</t>
+        </is>
+      </c>
       <c r="H244" t="n">
         <v>2039900</v>
       </c>
@@ -16374,14 +16372,6 @@
           <t>https://fair-cars.ru/catalog/jetour/dasheng</t>
         </is>
       </c>
-      <c r="AH244" t="n">
-        <v>1139900</v>
-      </c>
-      <c r="AI244" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jetour/dashing/</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -16407,6 +16397,14 @@
           <t>https://fair-cars.ru/catalog/jetour/t2</t>
         </is>
       </c>
+      <c r="F245" t="n">
+        <v>2069000</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jetour/jetour-t2/</t>
+        </is>
+      </c>
       <c r="J245" t="n">
         <v>2661300</v>
       </c>
@@ -16491,14 +16489,6 @@
           <t>https://fair-cars.ru/catalog/jetour/t2</t>
         </is>
       </c>
-      <c r="AH245" t="n">
-        <v>2069000</v>
-      </c>
-      <c r="AI245" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jetour/jetour-t2/</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -16524,6 +16514,14 @@
           <t>https://avanta-avto-credit.ru/cars/jetour/jetour-x50/</t>
         </is>
       </c>
+      <c r="F246" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jetour/jetour-x50/</t>
+        </is>
+      </c>
       <c r="J246" t="n">
         <v>1640000</v>
       </c>
@@ -16572,14 +16570,6 @@
           <t>https://moscowautos777.ru/auto/jetour/x50/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH246" t="n">
-        <v>1050000</v>
-      </c>
-      <c r="AI246" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jetour/jetour-x50/</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -16605,6 +16595,14 @@
           <t>https://avanta-avto-credit.ru/cars/jetour/jetour-x70/</t>
         </is>
       </c>
+      <c r="F247" t="n">
+        <v>1449000</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jetour/jetour-x70/</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1843200</v>
       </c>
@@ -16645,14 +16643,6 @@
           <t>https://moscowautos777.ru/auto/jetour/x70/i-rest-2/suv-5d</t>
         </is>
       </c>
-      <c r="AH247" t="n">
-        <v>1449000</v>
-      </c>
-      <c r="AI247" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jetour/jetour-x70/</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -16678,6 +16668,14 @@
           <t>https://avanta-avto-credit.ru/cars/jetour/x70-plus/</t>
         </is>
       </c>
+      <c r="F248" t="n">
+        <v>1499900</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jetour/x70-plus/</t>
+        </is>
+      </c>
       <c r="H248" t="n">
         <v>1699900</v>
       </c>
@@ -16770,14 +16768,6 @@
           <t>https://fair-cars.ru/catalog/jetour/x70-plus</t>
         </is>
       </c>
-      <c r="AH248" t="n">
-        <v>1499900</v>
-      </c>
-      <c r="AI248" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jetour/x70-plus/</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -16803,6 +16793,14 @@
           <t>https://fair-cars.ru/catalog/jetour/x90</t>
         </is>
       </c>
+      <c r="F249" t="n">
+        <v>1849900</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jetour/x90plus/</t>
+        </is>
+      </c>
       <c r="H249" t="n">
         <v>2949900</v>
       </c>
@@ -16895,14 +16893,6 @@
           <t>https://fair-cars.ru/catalog/jetour/x90</t>
         </is>
       </c>
-      <c r="AH249" t="n">
-        <v>1849900</v>
-      </c>
-      <c r="AI249" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jetour/x90plus/</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -16928,6 +16918,14 @@
           <t>https://msk-carshop777.ru/auto/jetta/va3/</t>
         </is>
       </c>
+      <c r="F250" t="n">
+        <v>1028000</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jetta/va3/</t>
+        </is>
+      </c>
       <c r="H250" t="n">
         <v>790000</v>
       </c>
@@ -16988,14 +16986,6 @@
           <t>https://moscowautos777.ru/auto/jetta/va3/i/sedan</t>
         </is>
       </c>
-      <c r="AH250" t="n">
-        <v>1028000</v>
-      </c>
-      <c r="AI250" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jetta/va3/</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -17021,6 +17011,14 @@
           <t>https://moscowautos777.ru/auto/jetta/vs5/i/suv-5d</t>
         </is>
       </c>
+      <c r="F251" t="n">
+        <v>1452000</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jetta/vs5/</t>
+        </is>
+      </c>
       <c r="H251" t="n">
         <v>1590000</v>
       </c>
@@ -17081,14 +17079,6 @@
           <t>https://moscowautos777.ru/auto/jetta/vs5/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH251" t="n">
-        <v>1452000</v>
-      </c>
-      <c r="AI251" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jetta/vs5/</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -17114,6 +17104,14 @@
           <t>https://avanta-avto-credit.ru/cars/jetta/vs5-new/</t>
         </is>
       </c>
+      <c r="F252" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jetta/vs5-new/</t>
+        </is>
+      </c>
       <c r="Z252" t="n">
         <v>2291000</v>
       </c>
@@ -17122,14 +17120,6 @@
           <t>http://avtohous-group.ru/katalog/jetta/vs5/1-restyling-2</t>
         </is>
       </c>
-      <c r="AH252" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="AI252" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jetta/vs5-new/</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -17155,6 +17145,14 @@
           <t>https://moscowautos777.ru/auto/jetta/vs7/i/suv-5d</t>
         </is>
       </c>
+      <c r="F253" t="n">
+        <v>1717000</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jetta/vs7/</t>
+        </is>
+      </c>
       <c r="H253" t="n">
         <v>1749000</v>
       </c>
@@ -17215,14 +17213,6 @@
           <t>https://moscowautos777.ru/auto/jetta/vs7/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH253" t="n">
-        <v>1717000</v>
-      </c>
-      <c r="AI253" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jetta/vs7/</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -17248,6 +17238,14 @@
           <t>https://avanta-avto-credit.ru/cars/jetta/vs7-new/</t>
         </is>
       </c>
+      <c r="F254" t="n">
+        <v>1867000</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/jetta/vs7-new/</t>
+        </is>
+      </c>
       <c r="Z254" t="n">
         <v>2512000</v>
       </c>
@@ -17256,14 +17254,6 @@
           <t>http://avtohous-group.ru/katalog/jetta/vs7/1-restyling-2</t>
         </is>
       </c>
-      <c r="AH254" t="n">
-        <v>1867000</v>
-      </c>
-      <c r="AI254" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/jetta/vs7-new/</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -17289,6 +17279,14 @@
           <t>https://moscowautos777.ru/auto/kaiyi/e5/i/sedan</t>
         </is>
       </c>
+      <c r="F255" t="n">
+        <v>945000</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kaiyi/kaiyi-e5/</t>
+        </is>
+      </c>
       <c r="H255" t="n">
         <v>1859000</v>
       </c>
@@ -17373,14 +17371,6 @@
           <t>https://moscowautos777.ru/auto/kaiyi/e5/i/sedan</t>
         </is>
       </c>
-      <c r="AH255" t="n">
-        <v>945000</v>
-      </c>
-      <c r="AI255" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kaiyi/kaiyi-e5/</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -17406,6 +17396,14 @@
           <t>https://msk-carshop777.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
+      <c r="F256" t="n">
+        <v>1068000</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kaiyi/kaiyi-x3/</t>
+        </is>
+      </c>
       <c r="J256" t="n">
         <v>1388600</v>
       </c>
@@ -17482,14 +17480,6 @@
           <t>https://moscowautos777.ru/auto/kaiyi/x3/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH256" t="n">
-        <v>1068000</v>
-      </c>
-      <c r="AI256" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kaiyi/kaiyi-x3/</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -17515,6 +17505,14 @@
           <t>https://msk-carshop777.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
+      <c r="F257" t="n">
+        <v>1564900</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kaiyi/x3-pro/</t>
+        </is>
+      </c>
       <c r="J257" t="n">
         <v>1868100</v>
       </c>
@@ -17591,14 +17589,6 @@
           <t>https://moscowautos777.ru/auto/kaiyi/x3-pro/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH257" t="n">
-        <v>1564900</v>
-      </c>
-      <c r="AI257" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kaiyi/x3-pro/</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -17657,6 +17647,14 @@
           <t>https://avanta-avto-credit.ru/cars/kaiyi/x7-kunlun/</t>
         </is>
       </c>
+      <c r="F259" t="n">
+        <v>1697900</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kaiyi/x7-kunlun/</t>
+        </is>
+      </c>
       <c r="J259" t="n">
         <v>2296600</v>
       </c>
@@ -17705,14 +17703,6 @@
           <t>https://moscowautos777.ru/auto/kaiyi/x7-kunlun/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH259" t="n">
-        <v>1697900</v>
-      </c>
-      <c r="AI259" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kaiyi/x7-kunlun/</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -17771,10 +17761,10 @@
           <t>https://avanta-avto-credit.ru/cars/kgm/korando/</t>
         </is>
       </c>
-      <c r="AH261" t="n">
+      <c r="F261" t="n">
         <v>3390000</v>
       </c>
-      <c r="AI261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/kgm/korando/</t>
         </is>
@@ -17804,10 +17794,10 @@
           <t>https://avanta-avto-credit.ru/cars/kgm/rexton/</t>
         </is>
       </c>
-      <c r="AH262" t="n">
+      <c r="F262" t="n">
         <v>5790000</v>
       </c>
-      <c r="AI262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/kgm/rexton/</t>
         </is>
@@ -17870,6 +17860,14 @@
           <t>https://vita-auto.ru/ssangyong/tivoli/</t>
         </is>
       </c>
+      <c r="F264" t="n">
+        <v>2590000</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kgm/kgm-tivoli/</t>
+        </is>
+      </c>
       <c r="R264" t="n">
         <v>1236700</v>
       </c>
@@ -17878,14 +17876,6 @@
           <t>https://vita-auto.ru/ssangyong/tivoli/</t>
         </is>
       </c>
-      <c r="AH264" t="n">
-        <v>2590000</v>
-      </c>
-      <c r="AI264" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kgm/kgm-tivoli/</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -17911,10 +17901,10 @@
           <t>https://avanta-avto-credit.ru/cars/kgm/torres/</t>
         </is>
       </c>
-      <c r="AH265" t="n">
+      <c r="F265" t="n">
         <v>4150000</v>
       </c>
-      <c r="AI265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/kgm/torres/</t>
         </is>
@@ -17944,6 +17934,14 @@
           <t>https://dc-dbr.ru/catalog/kia/carnival</t>
         </is>
       </c>
+      <c r="F266" t="n">
+        <v>3464900</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/carnival/</t>
+        </is>
+      </c>
       <c r="H266" t="n">
         <v>1989000</v>
       </c>
@@ -18008,14 +18006,6 @@
           <t>https://fair-cars.ru/catalog/kia/carnival</t>
         </is>
       </c>
-      <c r="AH266" t="n">
-        <v>3464900</v>
-      </c>
-      <c r="AI266" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/carnival/</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -18041,6 +18031,14 @@
           <t>https://avanta-avto-credit.ru/cars/kia/carnival-new/</t>
         </is>
       </c>
+      <c r="F267" t="n">
+        <v>4300000</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/carnival-new/</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>5827400</v>
       </c>
@@ -18057,14 +18055,6 @@
           <t>https://vita-auto.ru/ki/carnival-new/</t>
         </is>
       </c>
-      <c r="AH267" t="n">
-        <v>4300000</v>
-      </c>
-      <c r="AI267" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/carnival-new/</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -18090,6 +18080,14 @@
           <t>https://fair-cars.ru/catalog/kia/ceed</t>
         </is>
       </c>
+      <c r="F268" t="n">
+        <v>1264900</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/ceed/</t>
+        </is>
+      </c>
       <c r="H268" t="n">
         <v>566047</v>
       </c>
@@ -18138,14 +18136,6 @@
           <t>https://fair-cars.ru/catalog/kia/ceed</t>
         </is>
       </c>
-      <c r="AH268" t="n">
-        <v>1264900</v>
-      </c>
-      <c r="AI268" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/ceed/</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -18220,6 +18210,14 @@
           <t>https://dc-dbr.ru/catalog/kia/new-ceed-sw</t>
         </is>
       </c>
+      <c r="F270" t="n">
+        <v>1364900</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/ceed-sw/</t>
+        </is>
+      </c>
       <c r="H270" t="n">
         <v>597393</v>
       </c>
@@ -18252,14 +18250,6 @@
           <t>https://fair-cars.ru/catalog/kia/new-ceed-sw</t>
         </is>
       </c>
-      <c r="AH270" t="n">
-        <v>1364900</v>
-      </c>
-      <c r="AI270" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/ceed-sw/</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -18375,6 +18365,14 @@
           <t>https://dc-dbr.ru/catalog/kia/new-cerato</t>
         </is>
       </c>
+      <c r="F273" t="n">
+        <v>1354900</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/cerato/</t>
+        </is>
+      </c>
       <c r="H273" t="n">
         <v>824900</v>
       </c>
@@ -18407,14 +18405,6 @@
           <t>https://moscowautos777.ru/auto/kia/cerato/iv-restyling/sedan</t>
         </is>
       </c>
-      <c r="AH273" t="n">
-        <v>1354900</v>
-      </c>
-      <c r="AI273" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/cerato/</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -18583,6 +18573,14 @@
           <t>https://fair-cars.ru/catalog/kia/k5</t>
         </is>
       </c>
+      <c r="F277" t="n">
+        <v>1684900</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/kia-k5/</t>
+        </is>
+      </c>
       <c r="H277" t="n">
         <v>1323900</v>
       </c>
@@ -18667,14 +18665,6 @@
           <t>https://fair-cars.ru/catalog/kia/k5</t>
         </is>
       </c>
-      <c r="AH277" t="n">
-        <v>1684900</v>
-      </c>
-      <c r="AI277" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/kia-k5/</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -18700,6 +18690,14 @@
           <t>https://vita-auto.ru/ki/k5-new/</t>
         </is>
       </c>
+      <c r="F278" t="n">
+        <v>2450000</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/k5-new/</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>2144400</v>
       </c>
@@ -18724,14 +18722,6 @@
           <t>http://avtohous-group.ru/katalog/kia/k5/3-restyling</t>
         </is>
       </c>
-      <c r="AH278" t="n">
-        <v>2450000</v>
-      </c>
-      <c r="AI278" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/k5-new/</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -18757,6 +18747,14 @@
           <t>https://moscowautos777.ru/auto/kia/k9/ii-rj-rest/sedan</t>
         </is>
       </c>
+      <c r="F279" t="n">
+        <v>6224900</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/kia-k9/</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>6235100</v>
       </c>
@@ -18781,14 +18779,6 @@
           <t>https://moscowautos777.ru/auto/kia/k9/ii-rj-rest/sedan</t>
         </is>
       </c>
-      <c r="AH279" t="n">
-        <v>6224900</v>
-      </c>
-      <c r="AI279" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/kia-k9/</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -18847,6 +18837,14 @@
           <t>https://kosmos-cars.ru/cars/kia/mohave/</t>
         </is>
       </c>
+      <c r="F281" t="n">
+        <v>3699900</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/mohave/</t>
+        </is>
+      </c>
       <c r="J281" t="n">
         <v>3841000</v>
       </c>
@@ -18887,14 +18885,6 @@
           <t>https://moscowautos777.ru/auto/kia/mohave/i-rest-2/suv-5d</t>
         </is>
       </c>
-      <c r="AH281" t="n">
-        <v>3699900</v>
-      </c>
-      <c r="AI281" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/mohave/</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -18977,10 +18967,10 @@
           <t>https://avanta-avto-credit.ru/cars/kia/pegas/</t>
         </is>
       </c>
-      <c r="AH283" t="n">
+      <c r="F283" t="n">
         <v>1050000</v>
       </c>
-      <c r="AI283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/kia/pegas/</t>
         </is>
@@ -19010,6 +19000,14 @@
           <t>https://kosmos-cars.ru/cars/kia/picanto/</t>
         </is>
       </c>
+      <c r="F284" t="n">
+        <v>854900</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/picanto/</t>
+        </is>
+      </c>
       <c r="J284" t="n">
         <v>679300</v>
       </c>
@@ -19042,14 +19040,6 @@
           <t>http://avtohous-group.ru/katalog/kia/picanto/3-restyling</t>
         </is>
       </c>
-      <c r="AH284" t="n">
-        <v>854900</v>
-      </c>
-      <c r="AI284" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/picanto/</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -19177,6 +19167,14 @@
           <t>https://avanta-avto-credit.ru/cars/kia/rio/</t>
         </is>
       </c>
+      <c r="F287" t="n">
+        <v>834900</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/rio/</t>
+        </is>
+      </c>
       <c r="J287" t="n">
         <v>898100</v>
       </c>
@@ -19217,14 +19215,6 @@
           <t>https://moscowautos777.ru/auto/kia/rio/iv-restyling/sedan</t>
         </is>
       </c>
-      <c r="AH287" t="n">
-        <v>834900</v>
-      </c>
-      <c r="AI287" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/rio/</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -19307,6 +19297,14 @@
           <t>https://fair-cars.ru/catalog/kia/rio-x</t>
         </is>
       </c>
+      <c r="F289" t="n">
+        <v>954900</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/rio-x/</t>
+        </is>
+      </c>
       <c r="H289" t="n">
         <v>543900</v>
       </c>
@@ -19363,14 +19361,6 @@
           <t>https://fair-cars.ru/catalog/kia/rio-x</t>
         </is>
       </c>
-      <c r="AH289" t="n">
-        <v>954900</v>
-      </c>
-      <c r="AI289" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/rio-x/</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -19478,6 +19468,14 @@
           <t>https://fair-cars.ru/catalog/kia/seltos</t>
         </is>
       </c>
+      <c r="F292" t="n">
+        <v>1409900</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/seltos/</t>
+        </is>
+      </c>
       <c r="H292" t="n">
         <v>739000</v>
       </c>
@@ -19526,14 +19524,6 @@
           <t>https://fair-cars.ru/catalog/kia/seltos</t>
         </is>
       </c>
-      <c r="AH292" t="n">
-        <v>1409900</v>
-      </c>
-      <c r="AI292" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/seltos/</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -19559,6 +19549,14 @@
           <t>https://vita-auto.ru/ki/seltos/</t>
         </is>
       </c>
+      <c r="F293" t="n">
+        <v>1950000</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/seltos-new/</t>
+        </is>
+      </c>
       <c r="J293" t="n">
         <v>1373600</v>
       </c>
@@ -19607,14 +19605,6 @@
           <t>http://avtohous-group.ru/katalog/kia/seltos/1-restyling</t>
         </is>
       </c>
-      <c r="AH293" t="n">
-        <v>1950000</v>
-      </c>
-      <c r="AI293" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/seltos-new/</t>
-        </is>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -19673,6 +19663,14 @@
           <t>https://idol-avto.ru/cars-new/kia/sorento/iv-allroad-5/</t>
         </is>
       </c>
+      <c r="F295" t="n">
+        <v>2909900</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/sorento/</t>
+        </is>
+      </c>
       <c r="J295" t="n">
         <v>1619400</v>
       </c>
@@ -19713,14 +19711,6 @@
           <t>https://moscowautos777.ru/auto/kia/sorento/iv/suv-5d</t>
         </is>
       </c>
-      <c r="AH295" t="n">
-        <v>2909900</v>
-      </c>
-      <c r="AI295" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/sorento/</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -19746,6 +19736,14 @@
           <t>https://dc-dbr.ru/catalog/kia/sorento-new</t>
         </is>
       </c>
+      <c r="F296" t="n">
+        <v>4100000</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/sorento-new/</t>
+        </is>
+      </c>
       <c r="H296" t="n">
         <v>1519000</v>
       </c>
@@ -19810,14 +19808,6 @@
           <t>https://fair-cars.ru/catalog/kia/sorento-new</t>
         </is>
       </c>
-      <c r="AH296" t="n">
-        <v>4100000</v>
-      </c>
-      <c r="AI296" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/sorento-new/</t>
-        </is>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -19843,6 +19833,14 @@
           <t>https://kosmos-cars.ru/cars/kia/soul/</t>
         </is>
       </c>
+      <c r="F297" t="n">
+        <v>1169900</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/soul/</t>
+        </is>
+      </c>
       <c r="J297" t="n">
         <v>637400</v>
       </c>
@@ -19875,14 +19873,6 @@
           <t>http://avtohous-group.ru/katalog/kia/soul/hatchback</t>
         </is>
       </c>
-      <c r="AH297" t="n">
-        <v>1169900</v>
-      </c>
-      <c r="AI297" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/soul/</t>
-        </is>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -19908,6 +19898,14 @@
           <t>https://fair-cars.ru/catalog/kia/new-soul</t>
         </is>
       </c>
+      <c r="F298" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/soul-new/</t>
+        </is>
+      </c>
       <c r="H298" t="n">
         <v>579000</v>
       </c>
@@ -19964,14 +19962,6 @@
           <t>https://fair-cars.ru/catalog/kia/new-soul</t>
         </is>
       </c>
-      <c r="AH298" t="n">
-        <v>1740000</v>
-      </c>
-      <c r="AI298" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/soul-new/</t>
-        </is>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -20038,6 +20028,14 @@
           <t>https://idol-avto.ru/cars-new/kia/sportage/iv-res-allroad-5/</t>
         </is>
       </c>
+      <c r="F300" t="n">
+        <v>1949900</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/sportage-2022/</t>
+        </is>
+      </c>
       <c r="J300" t="n">
         <v>1141900</v>
       </c>
@@ -20078,14 +20076,6 @@
           <t>https://moscowautos777.ru/auto/kia/sportage/v/suv-5d</t>
         </is>
       </c>
-      <c r="AH300" t="n">
-        <v>1949900</v>
-      </c>
-      <c r="AI300" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/sportage-2022/</t>
-        </is>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -20278,6 +20268,14 @@
           <t>https://kosmos-cars.ru/cars/kia/stinger/</t>
         </is>
       </c>
+      <c r="F304" t="n">
+        <v>3139900</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/stinger/</t>
+        </is>
+      </c>
       <c r="N304" t="n">
         <v>2159900</v>
       </c>
@@ -20286,14 +20284,6 @@
           <t>https://kosmos-cars.ru/cars/kia/stinger/</t>
         </is>
       </c>
-      <c r="AH304" t="n">
-        <v>3139900</v>
-      </c>
-      <c r="AI304" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/kia/stinger/</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -20527,6 +20517,14 @@
           <t>https://avanta-avto-credit.ru/cars/knewstar/knewstar-001/</t>
         </is>
       </c>
+      <c r="F309" t="n">
+        <v>2295990</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/knewstar/knewstar-001/</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>2719190</v>
       </c>
@@ -20567,14 +20565,6 @@
           <t>https://moscowautos777.ru/auto/knewstar/001/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH309" t="n">
-        <v>2295990</v>
-      </c>
-      <c r="AI309" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/knewstar/knewstar-001/</t>
-        </is>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -23505,6 +23495,14 @@
           <t>https://moscowautos777.ru/auto/livan/s6pro/i/sedan</t>
         </is>
       </c>
+      <c r="F363" t="n">
+        <v>1099900</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/livan/livan-s6-pro/</t>
+        </is>
+      </c>
       <c r="J363" t="n">
         <v>1910000</v>
       </c>
@@ -23573,14 +23571,6 @@
           <t>https://moscowautos777.ru/auto/livan/s6pro/i/sedan</t>
         </is>
       </c>
-      <c r="AH363" t="n">
-        <v>1099900</v>
-      </c>
-      <c r="AI363" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/livan/livan-s6-pro/</t>
-        </is>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -23606,6 +23596,14 @@
           <t>https://avanta-avto-credit.ru/cars/livan/livan-x3-pro/</t>
         </is>
       </c>
+      <c r="F364" t="n">
+        <v>992000</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/livan/livan-x3-pro/</t>
+        </is>
+      </c>
       <c r="J364" t="n">
         <v>1457500</v>
       </c>
@@ -23682,14 +23680,6 @@
           <t>https://moscowautos777.ru/auto/livan/x3pro/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH364" t="n">
-        <v>992000</v>
-      </c>
-      <c r="AI364" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/livan/livan-x3-pro/</t>
-        </is>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -23715,6 +23705,14 @@
           <t>https://moscowautos777.ru/auto/livan/x6pro/i/suv-5d</t>
         </is>
       </c>
+      <c r="F365" t="n">
+        <v>1119900</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/livan/livan-x6-pro/</t>
+        </is>
+      </c>
       <c r="J365" t="n">
         <v>1970900</v>
       </c>
@@ -23791,14 +23789,6 @@
           <t>https://moscowautos777.ru/auto/livan/x6pro/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH365" t="n">
-        <v>1119900</v>
-      </c>
-      <c r="AI365" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/livan/livan-x6-pro/</t>
-        </is>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -23824,6 +23814,14 @@
           <t>https://fair-cars.ru/catalog/lixiang/l6</t>
         </is>
       </c>
+      <c r="F366" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/lixiang/lixiang-l6/</t>
+        </is>
+      </c>
       <c r="N366" t="n">
         <v>5990000</v>
       </c>
@@ -23840,14 +23838,6 @@
           <t>https://fair-cars.ru/catalog/lixiang/l6</t>
         </is>
       </c>
-      <c r="AH366" t="n">
-        <v>4800000</v>
-      </c>
-      <c r="AI366" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/lixiang/lixiang-l6/</t>
-        </is>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -23873,6 +23863,14 @@
           <t>https://fair-cars.ru/catalog/lixiang/l7</t>
         </is>
       </c>
+      <c r="F367" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/lixiang/lixiang-l7/</t>
+        </is>
+      </c>
       <c r="N367" t="n">
         <v>6590000</v>
       </c>
@@ -23889,14 +23887,6 @@
           <t>https://fair-cars.ru/catalog/lixiang/l7</t>
         </is>
       </c>
-      <c r="AH367" t="n">
-        <v>4900000</v>
-      </c>
-      <c r="AI367" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/lixiang/lixiang-l7/</t>
-        </is>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -23922,6 +23912,14 @@
           <t>https://avanta-avto-credit.ru/cars/lixiang/lixiang-l8/</t>
         </is>
       </c>
+      <c r="F368" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/lixiang/lixiang-l8/</t>
+        </is>
+      </c>
       <c r="N368" t="n">
         <v>6890000</v>
       </c>
@@ -23938,14 +23936,6 @@
           <t>https://fair-cars.ru/catalog/lixiang/l8</t>
         </is>
       </c>
-      <c r="AH368" t="n">
-        <v>5400000</v>
-      </c>
-      <c r="AI368" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/lixiang/lixiang-l8/</t>
-        </is>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -23971,6 +23961,14 @@
           <t>https://fair-cars.ru/catalog/lixiang/l9</t>
         </is>
       </c>
+      <c r="F369" t="n">
+        <v>6400000</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/lixiang/lixiang-l9/</t>
+        </is>
+      </c>
       <c r="N369" t="n">
         <v>7190000</v>
       </c>
@@ -23987,14 +23985,6 @@
           <t>https://fair-cars.ru/catalog/lixiang/l9</t>
         </is>
       </c>
-      <c r="AH369" t="n">
-        <v>6400000</v>
-      </c>
-      <c r="AI369" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/lixiang/lixiang-l9/</t>
-        </is>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -24086,6 +24076,14 @@
           <t>https://fair-cars.ru/catalog/mg/5</t>
         </is>
       </c>
+      <c r="F372" t="n">
+        <v>1130000</v>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mg/mg-5/</t>
+        </is>
+      </c>
       <c r="J372" t="n">
         <v>1567400</v>
       </c>
@@ -24142,14 +24140,6 @@
           <t>https://fair-cars.ru/catalog/mg/5</t>
         </is>
       </c>
-      <c r="AH372" t="n">
-        <v>1130000</v>
-      </c>
-      <c r="AI372" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mg/mg-5/</t>
-        </is>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -24175,6 +24165,14 @@
           <t>https://fair-cars.ru/catalog/mg/6-1</t>
         </is>
       </c>
+      <c r="F373" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mg/mg-6/</t>
+        </is>
+      </c>
       <c r="J373" t="n">
         <v>1797200</v>
       </c>
@@ -24231,14 +24229,6 @@
           <t>https://fair-cars.ru/catalog/mg/6-1</t>
         </is>
       </c>
-      <c r="AH373" t="n">
-        <v>1350000</v>
-      </c>
-      <c r="AI373" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mg/mg-6/</t>
-        </is>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -24264,6 +24254,14 @@
           <t>https://fair-cars.ru/catalog/mg/7</t>
         </is>
       </c>
+      <c r="F374" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mg/mg-7/</t>
+        </is>
+      </c>
       <c r="AF374" t="n">
         <v>1639999</v>
       </c>
@@ -24272,14 +24270,6 @@
           <t>https://fair-cars.ru/catalog/mg/7</t>
         </is>
       </c>
-      <c r="AH374" t="n">
-        <v>1650000</v>
-      </c>
-      <c r="AI374" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mg/mg-7/</t>
-        </is>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -24387,10 +24377,10 @@
           <t>https://avanta-avto-credit.ru/cars/mg/mg-one/</t>
         </is>
       </c>
-      <c r="AH377" t="n">
+      <c r="F377" t="n">
         <v>1850000</v>
       </c>
-      <c r="AI377" t="inlineStr">
+      <c r="G377" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/mg/mg-one/</t>
         </is>
@@ -24493,10 +24483,10 @@
           <t>https://avanta-avto-credit.ru/cars/mazda/3-khetchbek-new/</t>
         </is>
       </c>
-      <c r="AH379" t="n">
+      <c r="F379" t="n">
         <v>2120000</v>
       </c>
-      <c r="AI379" t="inlineStr">
+      <c r="G379" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/mazda/3-khetchbek-new/</t>
         </is>
@@ -24526,10 +24516,10 @@
           <t>https://avanta-avto-credit.ru/cars/mazda/3-sedan-new/</t>
         </is>
       </c>
-      <c r="AH380" t="n">
+      <c r="F380" t="n">
         <v>2235000</v>
       </c>
-      <c r="AI380" t="inlineStr">
+      <c r="G380" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/mazda/3-sedan-new/</t>
         </is>
@@ -24559,6 +24549,14 @@
           <t>https://kosmos-cars.ru/cars/mazda/6/</t>
         </is>
       </c>
+      <c r="F381" t="n">
+        <v>1748000</v>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mazda/6/</t>
+        </is>
+      </c>
       <c r="N381" t="n">
         <v>1273000</v>
       </c>
@@ -24575,14 +24573,6 @@
           <t>http://avtohous-group.ru/katalog/mazda/6/sedan</t>
         </is>
       </c>
-      <c r="AH381" t="n">
-        <v>1748000</v>
-      </c>
-      <c r="AI381" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mazda/6/</t>
-        </is>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -24608,6 +24598,14 @@
           <t>https://dc-dbr.ru/catalog/mazda/new-6</t>
         </is>
       </c>
+      <c r="F382" t="n">
+        <v>2548000</v>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mazda/6-new/</t>
+        </is>
+      </c>
       <c r="H382" t="n">
         <v>1497000</v>
       </c>
@@ -24625,19 +24623,11 @@
         </is>
       </c>
       <c r="R382" t="n">
-        <v>2368200</v>
+        <v>1891200</v>
       </c>
       <c r="S382" t="inlineStr">
         <is>
           <t>https://vita-auto.ru/mazda/6-new/</t>
-        </is>
-      </c>
-      <c r="AH382" t="n">
-        <v>2548000</v>
-      </c>
-      <c r="AI382" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mazda/6-new/</t>
         </is>
       </c>
     </row>
@@ -24665,6 +24655,14 @@
           <t>https://warshauto.ru/mazda/cx-30-149257409</t>
         </is>
       </c>
+      <c r="F383" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mazda/mazda-cx-30/</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1871300</v>
       </c>
@@ -24681,14 +24679,6 @@
           <t>http://avtohous-group.ru/katalog/mazda/cx-30/suv</t>
         </is>
       </c>
-      <c r="AH383" t="n">
-        <v>2430000</v>
-      </c>
-      <c r="AI383" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mazda/mazda-cx-30/</t>
-        </is>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -24711,7 +24701,15 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/mazda/cx-4-1118083023</t>
+          <t>https://vita-auto.ru/mazda/cx-4/</t>
+        </is>
+      </c>
+      <c r="F384" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mazda/cx-4/</t>
         </is>
       </c>
       <c r="L384" t="n">
@@ -24723,19 +24721,11 @@
         </is>
       </c>
       <c r="R384" t="n">
-        <v>1742200</v>
+        <v>1689200</v>
       </c>
       <c r="S384" t="inlineStr">
         <is>
           <t>https://vita-auto.ru/mazda/cx-4/</t>
-        </is>
-      </c>
-      <c r="AH384" t="n">
-        <v>2600000</v>
-      </c>
-      <c r="AI384" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mazda/cx-4/</t>
         </is>
       </c>
     </row>
@@ -24763,6 +24753,14 @@
           <t>https://dc-dbr.ru/catalog/mazda/cx-5</t>
         </is>
       </c>
+      <c r="F385" t="n">
+        <v>1945000</v>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mazda/cx-5/</t>
+        </is>
+      </c>
       <c r="H385" t="n">
         <v>1253000</v>
       </c>
@@ -24787,14 +24785,6 @@
           <t>http://avtohous-group.ru/katalog/mazda/cx5/suv</t>
         </is>
       </c>
-      <c r="AH385" t="n">
-        <v>1945000</v>
-      </c>
-      <c r="AI385" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mazda/cx-5/</t>
-        </is>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -24813,27 +24803,27 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>2023200</v>
+        <v>1969200</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
           <t>https://vita-auto.ru/mazda/cx-5-new2/</t>
         </is>
       </c>
+      <c r="F386" t="n">
+        <v>2780000</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mazda/cx-5-new/</t>
+        </is>
+      </c>
       <c r="R386" t="n">
-        <v>2023200</v>
+        <v>1969200</v>
       </c>
       <c r="S386" t="inlineStr">
         <is>
           <t>https://vita-auto.ru/mazda/cx-5-new2/</t>
-        </is>
-      </c>
-      <c r="AH386" t="n">
-        <v>2780000</v>
-      </c>
-      <c r="AI386" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mazda/cx-5-new/</t>
         </is>
       </c>
     </row>
@@ -24858,7 +24848,15 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/mazda/cx-50-1416335687</t>
+          <t>https://vita-auto.ru/mazda/cx-50/</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>3420000</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mazda/cx-50/</t>
         </is>
       </c>
       <c r="L387" t="n">
@@ -24870,19 +24868,11 @@
         </is>
       </c>
       <c r="R387" t="n">
-        <v>2506200</v>
+        <v>2306200</v>
       </c>
       <c r="S387" t="inlineStr">
         <is>
           <t>https://vita-auto.ru/mazda/cx-50/</t>
-        </is>
-      </c>
-      <c r="AH387" t="n">
-        <v>3420000</v>
-      </c>
-      <c r="AI387" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mazda/cx-50/</t>
         </is>
       </c>
     </row>
@@ -24907,7 +24897,15 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/mazda/cx-60-1416335730</t>
+          <t>https://vita-auto.ru/mazda/cx-60/</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>3950000</v>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mazda/cx-60/</t>
         </is>
       </c>
       <c r="L388" t="n">
@@ -24919,19 +24917,11 @@
         </is>
       </c>
       <c r="R388" t="n">
-        <v>3480200</v>
+        <v>3280200</v>
       </c>
       <c r="S388" t="inlineStr">
         <is>
           <t>https://vita-auto.ru/mazda/cx-60/</t>
-        </is>
-      </c>
-      <c r="AH388" t="n">
-        <v>3950000</v>
-      </c>
-      <c r="AI388" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mazda/cx-60/</t>
         </is>
       </c>
     </row>
@@ -24959,6 +24949,14 @@
           <t>https://avanta-avto-credit.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
+      <c r="F389" t="n">
+        <v>2603000</v>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mazda/cx-9/</t>
+        </is>
+      </c>
       <c r="N389" t="n">
         <v>2973000</v>
       </c>
@@ -24967,14 +24965,6 @@
           <t>https://kosmos-cars.ru/cars/mazda/cx-9/</t>
         </is>
       </c>
-      <c r="AH389" t="n">
-        <v>2603000</v>
-      </c>
-      <c r="AI389" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mazda/cx-9/</t>
-        </is>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -24997,7 +24987,15 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>https://warshauto.ru/mazda/cx-9-979501725</t>
+          <t>https://vita-auto.ru/mazda/cx-9-new2021/</t>
+        </is>
+      </c>
+      <c r="F390" t="n">
+        <v>4850000</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mazda/cx-9-new/</t>
         </is>
       </c>
       <c r="L390" t="n">
@@ -25009,19 +25007,11 @@
         </is>
       </c>
       <c r="R390" t="n">
-        <v>3782200</v>
+        <v>3337200</v>
       </c>
       <c r="S390" t="inlineStr">
         <is>
           <t>https://vita-auto.ru/mazda/cx-9-new2021/</t>
-        </is>
-      </c>
-      <c r="AH390" t="n">
-        <v>4850000</v>
-      </c>
-      <c r="AI390" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mazda/cx-9-new/</t>
         </is>
       </c>
     </row>
@@ -25049,10 +25039,10 @@
           <t>https://avanta-avto-credit.ru/cars/mazda/cx-90/</t>
         </is>
       </c>
-      <c r="AH391" t="n">
+      <c r="F391" t="n">
         <v>5300000</v>
       </c>
-      <c r="AI391" t="inlineStr">
+      <c r="G391" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/mazda/cx-90/</t>
         </is>
@@ -25082,6 +25072,14 @@
           <t>https://avanta-avto-credit.ru/cars/mitsubishi/asx/</t>
         </is>
       </c>
+      <c r="F392" t="n">
+        <v>1769000</v>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mitsubishi/asx/</t>
+        </is>
+      </c>
       <c r="Z392" t="n">
         <v>2549000</v>
       </c>
@@ -25090,14 +25088,6 @@
           <t>http://avtohous-group.ru/katalog/mitsubishi/asx/suv</t>
         </is>
       </c>
-      <c r="AH392" t="n">
-        <v>1769000</v>
-      </c>
-      <c r="AI392" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mitsubishi/asx/</t>
-        </is>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -25172,6 +25162,14 @@
           <t>https://dc-dbr.ru/catalog/mitsubishi/eclipse-cross</t>
         </is>
       </c>
+      <c r="F394" t="n">
+        <v>2629000</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mitsubishi/eclipse-cross/</t>
+        </is>
+      </c>
       <c r="H394" t="n">
         <v>924000</v>
       </c>
@@ -25180,14 +25178,6 @@
           <t>https://dc-dbr.ru/catalog/mitsubishi/eclipse-cross</t>
         </is>
       </c>
-      <c r="AH394" t="n">
-        <v>2629000</v>
-      </c>
-      <c r="AI394" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mitsubishi/eclipse-cross/</t>
-        </is>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -25303,10 +25293,10 @@
           <t>https://avanta-avto-credit.ru/cars/mitsubishi/montero-sport/</t>
         </is>
       </c>
-      <c r="AH397" t="n">
+      <c r="F397" t="n">
         <v>3220000</v>
       </c>
-      <c r="AI397" t="inlineStr">
+      <c r="G397" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/mitsubishi/montero-sport/</t>
         </is>
@@ -25336,6 +25326,14 @@
           <t>https://dc-dbr.ru/catalog/mitsubishi/outlander</t>
         </is>
       </c>
+      <c r="F398" t="n">
+        <v>2089000</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mitsubishi/outlander/</t>
+        </is>
+      </c>
       <c r="H398" t="n">
         <v>1707999</v>
       </c>
@@ -25352,14 +25350,6 @@
           <t>http://avtohous-group.ru/katalog/mitsubishi/outlander/suv</t>
         </is>
       </c>
-      <c r="AH398" t="n">
-        <v>2089000</v>
-      </c>
-      <c r="AI398" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mitsubishi/outlander/</t>
-        </is>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -25426,6 +25416,14 @@
           <t>https://dc-dbr.ru/catalog/mitsubishi/outlander-new</t>
         </is>
       </c>
+      <c r="F400" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mitsubishi/outlander-new/</t>
+        </is>
+      </c>
       <c r="H400" t="n">
         <v>1293000</v>
       </c>
@@ -25458,14 +25456,6 @@
           <t>http://avtohous-group.ru/katalog/mitsubishi/outlander/4-restyling</t>
         </is>
       </c>
-      <c r="AH400" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="AI400" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mitsubishi/outlander-new/</t>
-        </is>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -25524,6 +25514,14 @@
           <t>https://avanta-avto-credit.ru/cars/mitsubishi/pajero-sport/</t>
         </is>
       </c>
+      <c r="F402" t="n">
+        <v>2456000</v>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/mitsubishi/pajero-sport/</t>
+        </is>
+      </c>
       <c r="H402" t="n">
         <v>2477999</v>
       </c>
@@ -25540,14 +25538,6 @@
           <t>http://avtohous-group.ru/katalog/mitsubishi/pajero-sport/3-restyling</t>
         </is>
       </c>
-      <c r="AH402" t="n">
-        <v>2456000</v>
-      </c>
-      <c r="AI402" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/mitsubishi/pajero-sport/</t>
-        </is>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -25663,6 +25653,14 @@
           <t>https://msk-carshop777.ru/auto/moskvich/3/</t>
         </is>
       </c>
+      <c r="F405" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/moskvich/moskvich-3/</t>
+        </is>
+      </c>
       <c r="H405" t="n">
         <v>1770000</v>
       </c>
@@ -25747,14 +25745,6 @@
           <t>https://moscowautos777.ru/auto/moskvich/3/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH405" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="AI405" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/moskvich/moskvich-3/</t>
-        </is>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -25833,6 +25823,14 @@
           <t>https://moscowautos777.ru/auto/moskvich/6/i/liftback</t>
         </is>
       </c>
+      <c r="F407" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/moskvich/moskvich-6/</t>
+        </is>
+      </c>
       <c r="H407" t="n">
         <v>1926000</v>
       </c>
@@ -25897,14 +25895,6 @@
           <t>https://moscowautos777.ru/auto/moskvich/6/i/liftback</t>
         </is>
       </c>
-      <c r="AH407" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="AI407" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/moskvich/moskvich-6/</t>
-        </is>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -26023,10 +26013,10 @@
           <t>https://avanta-avto-credit.ru/cars/nissan/pathfinder-2022/</t>
         </is>
       </c>
-      <c r="AH409" t="n">
+      <c r="F409" t="n">
         <v>4285000</v>
       </c>
-      <c r="AI409" t="inlineStr">
+      <c r="G409" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/nissan/pathfinder-2022/</t>
         </is>
@@ -26122,6 +26112,14 @@
           <t>https://idol-avto.ru/cars-new/nissan/qashqai/ii-res-allroad-5/</t>
         </is>
       </c>
+      <c r="F412" t="n">
+        <v>1387000</v>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/nissan/qashqai/</t>
+        </is>
+      </c>
       <c r="J412" t="n">
         <v>789200</v>
       </c>
@@ -26162,14 +26160,6 @@
           <t>https://moscowautos777.ru/auto/nissan/qashqai/2-rest/suv-5d</t>
         </is>
       </c>
-      <c r="AH412" t="n">
-        <v>1387000</v>
-      </c>
-      <c r="AI412" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/nissan/qashqai/</t>
-        </is>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -26260,6 +26250,14 @@
           <t>https://kosmos-cars.ru/cars/nissan/terrano/</t>
         </is>
       </c>
+      <c r="F414" t="n">
+        <v>965000</v>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/nissan/terrano/</t>
+        </is>
+      </c>
       <c r="J414" t="n">
         <v>689300</v>
       </c>
@@ -26316,14 +26314,6 @@
           <t>https://moscowautos777.ru/auto/nissan/terrano/iii/suv-5d</t>
         </is>
       </c>
-      <c r="AH414" t="n">
-        <v>965000</v>
-      </c>
-      <c r="AI414" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/nissan/terrano/</t>
-        </is>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -26382,6 +26372,14 @@
           <t>https://msk-carshop777.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
+      <c r="F416" t="n">
+        <v>1812000</v>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/nissan/x-trail/</t>
+        </is>
+      </c>
       <c r="J416" t="n">
         <v>854100</v>
       </c>
@@ -26434,14 +26432,6 @@
           <t>https://moscowautos777.ru/auto/nissan/x-trail/iii-rest/suv-5d</t>
         </is>
       </c>
-      <c r="AH416" t="n">
-        <v>1812000</v>
-      </c>
-      <c r="AI416" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/nissan/x-trail/</t>
-        </is>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -26467,6 +26457,14 @@
           <t>https://dc-dbr.ru/catalog/nissan/new-x-trail</t>
         </is>
       </c>
+      <c r="F417" t="n">
+        <v>2230000</v>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/nissan/x-trail-new/</t>
+        </is>
+      </c>
       <c r="H417" t="n">
         <v>769000</v>
       </c>
@@ -26507,14 +26505,6 @@
           <t>https://vita-auto.ru/nissan/x-trail-t32-new-2019/</t>
         </is>
       </c>
-      <c r="AH417" t="n">
-        <v>2230000</v>
-      </c>
-      <c r="AI417" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/nissan/x-trail-new/</t>
-        </is>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -26540,6 +26530,14 @@
           <t>https://fair-cars.ru/catalog/omoda/c5</t>
         </is>
       </c>
+      <c r="F418" t="n">
+        <v>1029900</v>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/omoda/c5-2022/</t>
+        </is>
+      </c>
       <c r="H418" t="n">
         <v>1109900</v>
       </c>
@@ -26632,14 +26630,6 @@
           <t>https://fair-cars.ru/catalog/omoda/c5</t>
         </is>
       </c>
-      <c r="AH418" t="n">
-        <v>1029900</v>
-      </c>
-      <c r="AI418" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/omoda/c5-2022/</t>
-        </is>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -26665,6 +26655,14 @@
           <t>https://avanta-avto-credit.ru/cars/omoda/c5-new/</t>
         </is>
       </c>
+      <c r="F419" t="n">
+        <v>1269900</v>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/omoda/c5-new/</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1637200</v>
       </c>
@@ -26697,14 +26695,6 @@
           <t>https://moscowautos777.ru/auto/omoda/c5/i-rest/suv-5d</t>
         </is>
       </c>
-      <c r="AH419" t="n">
-        <v>1269900</v>
-      </c>
-      <c r="AI419" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/omoda/c5-new/</t>
-        </is>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -26730,6 +26720,14 @@
           <t>https://fair-cars.ru/catalog/omoda/s5-1</t>
         </is>
       </c>
+      <c r="F420" t="n">
+        <v>1049000</v>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/omoda/omoda-s5/</t>
+        </is>
+      </c>
       <c r="H420" t="n">
         <v>849000</v>
       </c>
@@ -26822,14 +26820,6 @@
           <t>https://fair-cars.ru/catalog/omoda/s5-1</t>
         </is>
       </c>
-      <c r="AH420" t="n">
-        <v>1049000</v>
-      </c>
-      <c r="AI420" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/omoda/omoda-s5/</t>
-        </is>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -26855,6 +26845,14 @@
           <t>https://avanta-avto-credit.ru/cars/omoda/omoda-s5-gt/</t>
         </is>
       </c>
+      <c r="F421" t="n">
+        <v>1339900</v>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/omoda/omoda-s5-gt/</t>
+        </is>
+      </c>
       <c r="J421" t="n">
         <v>1868000</v>
       </c>
@@ -26903,14 +26901,6 @@
           <t>http://avtohous-group.ru/katalog/omoda/s5_gt/sedan</t>
         </is>
       </c>
-      <c r="AH421" t="n">
-        <v>1339900</v>
-      </c>
-      <c r="AI421" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/omoda/omoda-s5-gt/</t>
-        </is>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -27100,6 +27090,14 @@
           <t>http://avtohous-group.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
+      <c r="F426" t="n">
+        <v>2799000</v>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/oting/paladin/</t>
+        </is>
+      </c>
       <c r="J426" t="n">
         <v>3245800</v>
       </c>
@@ -27148,14 +27146,6 @@
           <t>http://avtohous-group.ru/katalog/oting/paladin/1</t>
         </is>
       </c>
-      <c r="AH426" t="n">
-        <v>2799000</v>
-      </c>
-      <c r="AI426" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/oting/paladin/</t>
-        </is>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -27720,6 +27710,14 @@
           <t>https://idol-avto.ru/cars-new/renault/arkana/i-allroad-5/</t>
         </is>
       </c>
+      <c r="F438" t="n">
+        <v>1324000</v>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/renault/arkana/</t>
+        </is>
+      </c>
       <c r="J438" t="n">
         <v>689300</v>
       </c>
@@ -27768,14 +27766,6 @@
           <t>https://moscowautos777.ru/auto/renault/arkana/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH438" t="n">
-        <v>1324000</v>
-      </c>
-      <c r="AI438" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/renault/arkana/</t>
-        </is>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -27883,6 +27873,14 @@
           <t>https://idol-avto.ru/cars-new/renault/duster/ii-allroad-5/</t>
         </is>
       </c>
+      <c r="F441" t="n">
+        <v>1118000</v>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/renault/duster/</t>
+        </is>
+      </c>
       <c r="J441" t="n">
         <v>649400</v>
       </c>
@@ -27908,19 +27906,11 @@
         </is>
       </c>
       <c r="AD441" t="n">
-        <v>970800</v>
+        <v>650000</v>
       </c>
       <c r="AE441" t="inlineStr">
         <is>
           <t>https://moscowautos777.ru/auto/renault/duster/ii/suv-5d</t>
-        </is>
-      </c>
-      <c r="AH441" t="n">
-        <v>1118000</v>
-      </c>
-      <c r="AI441" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/renault/duster/</t>
         </is>
       </c>
     </row>
@@ -28005,6 +27995,14 @@
           <t>https://idol-avto.ru/cars-new/renault/kaptur/i-res-allroad-5/</t>
         </is>
       </c>
+      <c r="F443" t="n">
+        <v>1224000</v>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/renault/renault-kaptur-new/</t>
+        </is>
+      </c>
       <c r="J443" t="n">
         <v>669300</v>
       </c>
@@ -28045,14 +28043,6 @@
           <t>https://moscowautos777.ru/auto/renault/kaptur/i-rest/suv-5d</t>
         </is>
       </c>
-      <c r="AH443" t="n">
-        <v>1224000</v>
-      </c>
-      <c r="AI443" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/renault/renault-kaptur-new/</t>
-        </is>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -28168,6 +28158,14 @@
           <t>https://kosmos-cars.ru/cars/renault/logan/</t>
         </is>
       </c>
+      <c r="F446" t="n">
+        <v>694000</v>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/renault/logan/</t>
+        </is>
+      </c>
       <c r="J446" t="n">
         <v>489500</v>
       </c>
@@ -28200,14 +28198,6 @@
           <t>http://avtohous-group.ru/katalog/renault/logan/sedan</t>
         </is>
       </c>
-      <c r="AH446" t="n">
-        <v>694000</v>
-      </c>
-      <c r="AI446" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/renault/logan/</t>
-        </is>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -28282,6 +28272,14 @@
           <t>https://fair-cars.ru/catalog/renault/logan-stepway</t>
         </is>
       </c>
+      <c r="F448" t="n">
+        <v>801000</v>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/renault/logan-stepway/</t>
+        </is>
+      </c>
       <c r="H448" t="n">
         <v>520850</v>
       </c>
@@ -28338,14 +28336,6 @@
           <t>https://fair-cars.ru/catalog/renault/logan-stepway</t>
         </is>
       </c>
-      <c r="AH448" t="n">
-        <v>801000</v>
-      </c>
-      <c r="AI448" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/renault/logan-stepway/</t>
-        </is>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -28404,6 +28394,14 @@
           <t>https://idol-avto.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
         </is>
       </c>
+      <c r="F450" t="n">
+        <v>758000</v>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/renault/sandero/</t>
+        </is>
+      </c>
       <c r="J450" t="n">
         <v>519500</v>
       </c>
@@ -28436,14 +28434,6 @@
           <t>http://avtohous-group.ru/katalog/renault/sandero/hatchback</t>
         </is>
       </c>
-      <c r="AH450" t="n">
-        <v>758000</v>
-      </c>
-      <c r="AI450" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/renault/sandero/</t>
-        </is>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -28526,6 +28516,14 @@
           <t>https://idol-avto.ru/cars-new/renault/sandero/ii-res-hatchback-stepway-5/</t>
         </is>
       </c>
+      <c r="F452" t="n">
+        <v>873000</v>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/renault/sandero-stepway/</t>
+        </is>
+      </c>
       <c r="J452" t="n">
         <v>549500</v>
       </c>
@@ -28558,14 +28556,6 @@
           <t>http://avtohous-group.ru/katalog/renault/sandero-stepway/hatchback</t>
         </is>
       </c>
-      <c r="AH452" t="n">
-        <v>873000</v>
-      </c>
-      <c r="AI452" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/renault/sandero-stepway/</t>
-        </is>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -28718,6 +28708,14 @@
           <t>https://avanta-avto-credit.ru/cars/swm/swm-g01/</t>
         </is>
       </c>
+      <c r="F456" t="n">
+        <v>833000</v>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/swm/swm-g01/</t>
+        </is>
+      </c>
       <c r="H456" t="n">
         <v>2438220</v>
       </c>
@@ -28782,14 +28780,6 @@
           <t>https://moscowautos777.ru/auto/swm/g01/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH456" t="n">
-        <v>833000</v>
-      </c>
-      <c r="AI456" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/swm/swm-g01/</t>
-        </is>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -28815,6 +28805,14 @@
           <t>https://avanta-avto-credit.ru/cars/swm/g01f/</t>
         </is>
       </c>
+      <c r="F457" t="n">
+        <v>973000</v>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/swm/g01f/</t>
+        </is>
+      </c>
       <c r="H457" t="n">
         <v>2588340</v>
       </c>
@@ -28879,14 +28877,6 @@
           <t>https://moscowautos777.ru/auto/swm/g01f/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH457" t="n">
-        <v>973000</v>
-      </c>
-      <c r="AI457" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/swm/g01f/</t>
-        </is>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -28912,6 +28902,14 @@
           <t>https://moscowautos777.ru/auto/swm/g05-pro/i/suv-5d</t>
         </is>
       </c>
+      <c r="F458" t="n">
+        <v>1021000</v>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/swm/swm-g05-pro/</t>
+        </is>
+      </c>
       <c r="H458" t="n">
         <v>2625960</v>
       </c>
@@ -28976,14 +28974,6 @@
           <t>https://moscowautos777.ru/auto/swm/g05-pro/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH458" t="n">
-        <v>1021000</v>
-      </c>
-      <c r="AI458" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/swm/swm-g05-pro/</t>
-        </is>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -29050,6 +29040,14 @@
           <t>https://msk-carshop777.ru/auto/skoda/karoq/</t>
         </is>
       </c>
+      <c r="F460" t="n">
+        <v>1505000</v>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/skoda/karoq/</t>
+        </is>
+      </c>
       <c r="H460" t="n">
         <v>720700</v>
       </c>
@@ -29126,14 +29124,6 @@
           <t>https://moscowautos777.ru/auto/skoda/karoq/i-restayling/suv-5d</t>
         </is>
       </c>
-      <c r="AH460" t="n">
-        <v>1505000</v>
-      </c>
-      <c r="AI460" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/skoda/karoq/</t>
-        </is>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -29159,6 +29149,14 @@
           <t>https://avanta-avto-credit.ru/cars/skoda/karoq-new/</t>
         </is>
       </c>
+      <c r="F461" t="n">
+        <v>1950000</v>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/skoda/karoq-new/</t>
+        </is>
+      </c>
       <c r="R461" t="n">
         <v>2100200</v>
       </c>
@@ -29167,14 +29165,6 @@
           <t>https://vita-auto.ru/skoda/karoq/</t>
         </is>
       </c>
-      <c r="AH461" t="n">
-        <v>1950000</v>
-      </c>
-      <c r="AI461" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/skoda/karoq-new/</t>
-        </is>
-      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -29241,6 +29231,14 @@
           <t>https://dc-dbr.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
+      <c r="F463" t="n">
+        <v>1762000</v>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/skoda/kodiaq/</t>
+        </is>
+      </c>
       <c r="H463" t="n">
         <v>929000</v>
       </c>
@@ -29274,19 +29272,11 @@
         </is>
       </c>
       <c r="AD463" t="n">
-        <v>930000</v>
+        <v>1234200</v>
       </c>
       <c r="AE463" t="inlineStr">
         <is>
           <t>https://moscowautos777.ru/auto/skoda/kodiaq/i-rest/suv-5d</t>
-        </is>
-      </c>
-      <c r="AH463" t="n">
-        <v>1762000</v>
-      </c>
-      <c r="AI463" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
@@ -29380,6 +29370,14 @@
           <t>https://msk-carshop777.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
+      <c r="F466" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/skoda/kodiaq-new/</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>2798200</v>
       </c>
@@ -29424,14 +29422,6 @@
           <t>https://msk-carshop777.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
-      <c r="AH466" t="n">
-        <v>2400000</v>
-      </c>
-      <c r="AI466" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/skoda/kodiaq-new/</t>
-        </is>
-      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -29564,6 +29554,14 @@
           <t>https://moscowautos777.ru/auto/skoda/octavia/iv/liftback</t>
         </is>
       </c>
+      <c r="F470" t="n">
+        <v>1357000</v>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/skoda/octavia/</t>
+        </is>
+      </c>
       <c r="J470" t="n">
         <v>1006000</v>
       </c>
@@ -29604,14 +29602,6 @@
           <t>https://moscowautos777.ru/auto/skoda/octavia/iv/liftback</t>
         </is>
       </c>
-      <c r="AH470" t="n">
-        <v>1357000</v>
-      </c>
-      <c r="AI470" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/skoda/octavia/</t>
-        </is>
-      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -29731,6 +29721,14 @@
           <t>https://idol-avto.ru/cars-new/skoda/rapid/ii-liftback-5/</t>
         </is>
       </c>
+      <c r="F473" t="n">
+        <v>901000</v>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/skoda/rapid/</t>
+        </is>
+      </c>
       <c r="J473" t="n">
         <v>899000</v>
       </c>
@@ -29755,14 +29753,6 @@
           <t>https://idol-avto.ru/cars-new/skoda/rapid/ii-liftback-5/</t>
         </is>
       </c>
-      <c r="AH473" t="n">
-        <v>901000</v>
-      </c>
-      <c r="AI473" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/skoda/rapid/</t>
-        </is>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -30147,6 +30137,14 @@
           <t>https://fair-cars.ru/catalog/solaris/hc</t>
         </is>
       </c>
+      <c r="F481" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/solaris/solaris-hc/</t>
+        </is>
+      </c>
       <c r="J481" t="n">
         <v>1290700</v>
       </c>
@@ -30223,14 +30221,6 @@
           <t>https://fair-cars.ru/catalog/solaris/hc</t>
         </is>
       </c>
-      <c r="AH481" t="n">
-        <v>1550000</v>
-      </c>
-      <c r="AI481" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/solaris/solaris-hc/</t>
-        </is>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -30256,6 +30246,14 @@
           <t>https://fair-cars.ru/catalog/solaris/hs-1</t>
         </is>
       </c>
+      <c r="F482" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/solaris/solaris-hs/</t>
+        </is>
+      </c>
       <c r="J482" t="n">
         <v>795200</v>
       </c>
@@ -30332,14 +30330,6 @@
           <t>https://fair-cars.ru/catalog/solaris/hs-1</t>
         </is>
       </c>
-      <c r="AH482" t="n">
-        <v>1150000</v>
-      </c>
-      <c r="AI482" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/solaris/solaris-hs/</t>
-        </is>
-      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -30365,6 +30355,14 @@
           <t>https://fair-cars.ru/catalog/solaris/krs</t>
         </is>
       </c>
+      <c r="F483" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/solaris/solaris-krs/</t>
+        </is>
+      </c>
       <c r="J483" t="n">
         <v>858100</v>
       </c>
@@ -30441,14 +30439,6 @@
           <t>https://fair-cars.ru/catalog/solaris/krs</t>
         </is>
       </c>
-      <c r="AH483" t="n">
-        <v>1260000</v>
-      </c>
-      <c r="AI483" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/solaris/solaris-krs/</t>
-        </is>
-      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -30474,6 +30464,14 @@
           <t>https://fair-cars.ru/catalog/solaris/krx</t>
         </is>
       </c>
+      <c r="F484" t="n">
+        <v>1311000</v>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/solaris/solaris-krx/</t>
+        </is>
+      </c>
       <c r="J484" t="n">
         <v>975000</v>
       </c>
@@ -30550,14 +30548,6 @@
           <t>https://fair-cars.ru/catalog/solaris/krx</t>
         </is>
       </c>
-      <c r="AH484" t="n">
-        <v>1311000</v>
-      </c>
-      <c r="AI484" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/solaris/solaris-krx/</t>
-        </is>
-      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -30583,10 +30573,10 @@
           <t>https://avanta-avto-credit.ru/cars/soueast/dx5/</t>
         </is>
       </c>
-      <c r="AH485" t="n">
+      <c r="F485" t="n">
         <v>1250000</v>
       </c>
-      <c r="AI485" t="inlineStr">
+      <c r="G485" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/soueast/dx5/</t>
         </is>
@@ -30616,10 +30606,10 @@
           <t>https://avanta-avto-credit.ru/cars/soueast/dx8s/</t>
         </is>
       </c>
-      <c r="AH486" t="n">
+      <c r="F486" t="n">
         <v>1225000</v>
       </c>
-      <c r="AI486" t="inlineStr">
+      <c r="G486" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/soueast/dx8s/</t>
         </is>
@@ -30682,6 +30672,14 @@
           <t>https://avanta-avto-credit.ru/cars/soueast/s07/</t>
         </is>
       </c>
+      <c r="F488" t="n">
+        <v>1599000</v>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/soueast/s07/</t>
+        </is>
+      </c>
       <c r="N488" t="n">
         <v>2049000</v>
       </c>
@@ -30698,14 +30696,6 @@
           <t>https://moscowautos777.ru/auto/soueast/s07/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH488" t="n">
-        <v>1599000</v>
-      </c>
-      <c r="AI488" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/soueast/s07/</t>
-        </is>
-      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -31045,6 +31035,14 @@
           <t>https://fair-cars.ru/catalog/tank/300</t>
         </is>
       </c>
+      <c r="F495" t="n">
+        <v>2599000</v>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/tank/tank-300/</t>
+        </is>
+      </c>
       <c r="H495" t="n">
         <v>3599000</v>
       </c>
@@ -31137,14 +31135,6 @@
           <t>https://fair-cars.ru/catalog/tank/300</t>
         </is>
       </c>
-      <c r="AH495" t="n">
-        <v>2599000</v>
-      </c>
-      <c r="AI495" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/tank/tank-300/</t>
-        </is>
-      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -31170,6 +31160,14 @@
           <t>https://avanta-avto-credit.ru/cars/tank/tank-400/</t>
         </is>
       </c>
+      <c r="F496" t="n">
+        <v>3299000</v>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/tank/tank-400/</t>
+        </is>
+      </c>
       <c r="AD496" t="n">
         <v>3479400</v>
       </c>
@@ -31178,14 +31176,6 @@
           <t>https://moscowautos777.ru/auto/tank/400/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH496" t="n">
-        <v>3299000</v>
-      </c>
-      <c r="AI496" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/tank/tank-400/</t>
-        </is>
-      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -31211,6 +31201,14 @@
           <t>https://fair-cars.ru/catalog/tank/500</t>
         </is>
       </c>
+      <c r="F497" t="n">
+        <v>3799000</v>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/tank/tank-500/</t>
+        </is>
+      </c>
       <c r="H497" t="n">
         <v>3799000</v>
       </c>
@@ -31303,14 +31301,6 @@
           <t>https://fair-cars.ru/catalog/tank/500</t>
         </is>
       </c>
-      <c r="AH497" t="n">
-        <v>3799000</v>
-      </c>
-      <c r="AI497" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/tank/tank-500/</t>
-        </is>
-      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -31336,10 +31326,10 @@
           <t>https://avanta-avto-credit.ru/cars/tank/tank-700/</t>
         </is>
       </c>
-      <c r="AH498" t="n">
+      <c r="F498" t="n">
         <v>6399000</v>
       </c>
-      <c r="AI498" t="inlineStr">
+      <c r="G498" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/tank/tank-700/</t>
         </is>
@@ -31369,6 +31359,14 @@
           <t>https://vita-auto.ru/toyota/alphard/</t>
         </is>
       </c>
+      <c r="F499" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/toyota/alphard/</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>9228200</v>
       </c>
@@ -31385,14 +31383,6 @@
           <t>https://vita-auto.ru/toyota/alphard/</t>
         </is>
       </c>
-      <c r="AH499" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="AI499" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/toyota/alphard/</t>
-        </is>
-      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -31516,6 +31506,14 @@
           <t>https://avanta-avto-credit.ru/cars/toyota/camry-2021/</t>
         </is>
       </c>
+      <c r="F502" t="n">
+        <v>2398000</v>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/toyota/camry-2021/</t>
+        </is>
+      </c>
       <c r="J502" t="n">
         <v>2679300</v>
       </c>
@@ -31540,14 +31538,6 @@
           <t>https://idol-avto.ru/cars-new/toyota/camry/viii-res-sedan-4/</t>
         </is>
       </c>
-      <c r="AH502" t="n">
-        <v>2398000</v>
-      </c>
-      <c r="AI502" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/toyota/camry-2021/</t>
-        </is>
-      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -31646,6 +31636,14 @@
           <t>https://idol-avto.ru/cars-new/toyota/corolla/xii-sedan-4/</t>
         </is>
       </c>
+      <c r="F504" t="n">
+        <v>1755000</v>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/toyota/corolla/</t>
+        </is>
+      </c>
       <c r="J504" t="n">
         <v>1248800</v>
       </c>
@@ -31670,14 +31668,6 @@
           <t>https://idol-avto.ru/cars-new/toyota/corolla/xii-sedan-4/</t>
         </is>
       </c>
-      <c r="AH504" t="n">
-        <v>1755000</v>
-      </c>
-      <c r="AI504" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/toyota/corolla/</t>
-        </is>
-      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -31752,6 +31742,14 @@
           <t>https://avanta-avto-credit.ru/cars/toyota/fortuner/</t>
         </is>
       </c>
+      <c r="F506" t="n">
+        <v>3619000</v>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/toyota/fortuner/</t>
+        </is>
+      </c>
       <c r="Z506" t="n">
         <v>3931000</v>
       </c>
@@ -31760,14 +31758,6 @@
           <t>http://avtohous-group.ru/katalog/toyota/fortuner/suv</t>
         </is>
       </c>
-      <c r="AH506" t="n">
-        <v>3619000</v>
-      </c>
-      <c r="AI506" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/toyota/fortuner/</t>
-        </is>
-      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -31834,6 +31824,14 @@
           <t>https://avanta-avto-credit.ru/cars/toyota/highlander/</t>
         </is>
       </c>
+      <c r="F508" t="n">
+        <v>5164000</v>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/toyota/highlander/</t>
+        </is>
+      </c>
       <c r="N508" t="n">
         <v>6190000</v>
       </c>
@@ -31842,14 +31840,6 @@
           <t>https://kosmos-cars.ru/cars/toyota/highlander/</t>
         </is>
       </c>
-      <c r="AH508" t="n">
-        <v>5164000</v>
-      </c>
-      <c r="AI508" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/toyota/highlander/</t>
-        </is>
-      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -31916,10 +31906,10 @@
           <t>https://avanta-avto-credit.ru/cars/toyota/hilux/</t>
         </is>
       </c>
-      <c r="AH510" t="n">
+      <c r="F510" t="n">
         <v>3574000</v>
       </c>
-      <c r="AI510" t="inlineStr">
+      <c r="G510" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/toyota/hilux/</t>
         </is>
@@ -31990,6 +31980,14 @@
           <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_300/</t>
         </is>
       </c>
+      <c r="F512" t="n">
+        <v>10590000</v>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/toyota/land-cruiser-300/</t>
+        </is>
+      </c>
       <c r="J512" t="n">
         <v>9755200</v>
       </c>
@@ -32014,14 +32012,6 @@
           <t>https://idol-avto.ru/cars-new/toyota/landcruiser/300-allroad-5/</t>
         </is>
       </c>
-      <c r="AH512" t="n">
-        <v>10590000</v>
-      </c>
-      <c r="AI512" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/toyota/land-cruiser-300/</t>
-        </is>
-      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -32047,6 +32037,14 @@
           <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
+      <c r="F513" t="n">
+        <v>13050000</v>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/toyota/land-cruiser-300-gr-sport/</t>
+        </is>
+      </c>
       <c r="N513" t="n">
         <v>11456500</v>
       </c>
@@ -32055,14 +32053,6 @@
           <t>https://kosmos-cars.ru/cars/toyota/land_cruiser_300_gr_sport/</t>
         </is>
       </c>
-      <c r="AH513" t="n">
-        <v>13050000</v>
-      </c>
-      <c r="AI513" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/toyota/land-cruiser-300-gr-sport/</t>
-        </is>
-      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -32088,6 +32078,14 @@
           <t>https://idol-avto.ru/cars-new/toyota/land-cruiser-prado/150-res3-allroad-5/</t>
         </is>
       </c>
+      <c r="F514" t="n">
+        <v>9190000</v>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/toyota/land-cruiser-prado/</t>
+        </is>
+      </c>
       <c r="J514" t="n">
         <v>5044000</v>
       </c>
@@ -32104,14 +32102,6 @@
           <t>https://idol-avto.ru/cars-new/toyota/land-cruiser-prado/150-res3-allroad-5/</t>
         </is>
       </c>
-      <c r="AH514" t="n">
-        <v>9190000</v>
-      </c>
-      <c r="AI514" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/toyota/land-cruiser-prado/</t>
-        </is>
-      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -32170,6 +32160,14 @@
           <t>https://idol-avto.ru/cars-new/toyota/rav4/v-allroad-5/</t>
         </is>
       </c>
+      <c r="F516" t="n">
+        <v>2441000</v>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/toyota/rav4/</t>
+        </is>
+      </c>
       <c r="J516" t="n">
         <v>1988000</v>
       </c>
@@ -32202,14 +32200,6 @@
           <t>http://avtohous-group.ru/katalog/toyota/rav4/suv</t>
         </is>
       </c>
-      <c r="AH516" t="n">
-        <v>2441000</v>
-      </c>
-      <c r="AI516" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/toyota/rav4/</t>
-        </is>
-      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -32611,10 +32601,10 @@
           <t>https://avanta-avto-credit.ru/cars/vgv/u70-pro/</t>
         </is>
       </c>
-      <c r="AH525" t="n">
+      <c r="F525" t="n">
         <v>1399900</v>
       </c>
-      <c r="AI525" t="inlineStr">
+      <c r="G525" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/vgv/u70-pro/</t>
         </is>
@@ -32644,10 +32634,10 @@
           <t>https://avanta-avto-credit.ru/cars/vgv/u75-plus/</t>
         </is>
       </c>
-      <c r="AH526" t="n">
+      <c r="F526" t="n">
         <v>1699900</v>
       </c>
-      <c r="AI526" t="inlineStr">
+      <c r="G526" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/vgv/u75-plus/</t>
         </is>
@@ -32677,6 +32667,14 @@
           <t>https://fair-cars.ru/catalog/voyah/dream</t>
         </is>
       </c>
+      <c r="F527" t="n">
+        <v>5790000</v>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/voyah/dream/</t>
+        </is>
+      </c>
       <c r="AF527" t="n">
         <v>5078999</v>
       </c>
@@ -32685,14 +32683,6 @@
           <t>https://fair-cars.ru/catalog/voyah/dream</t>
         </is>
       </c>
-      <c r="AH527" t="n">
-        <v>5790000</v>
-      </c>
-      <c r="AI527" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/voyah/dream/</t>
-        </is>
-      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -32718,6 +32708,14 @@
           <t>https://fair-cars.ru/catalog/voyah/free</t>
         </is>
       </c>
+      <c r="F528" t="n">
+        <v>3890000</v>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/voyah/free/</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>6061200</v>
       </c>
@@ -32742,14 +32740,6 @@
           <t>https://fair-cars.ru/catalog/voyah/free</t>
         </is>
       </c>
-      <c r="AH528" t="n">
-        <v>3890000</v>
-      </c>
-      <c r="AI528" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/voyah/free/</t>
-        </is>
-      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -32775,10 +32765,10 @@
           <t>https://avanta-avto-credit.ru/cars/voyah/m-hero/</t>
         </is>
       </c>
-      <c r="AH529" t="n">
+      <c r="F529" t="n">
         <v>15090000</v>
       </c>
-      <c r="AI529" t="inlineStr">
+      <c r="G529" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/voyah/m-hero/</t>
         </is>
@@ -32808,10 +32798,10 @@
           <t>https://avanta-avto-credit.ru/cars/voyah/passion/</t>
         </is>
       </c>
-      <c r="AH530" t="n">
+      <c r="F530" t="n">
         <v>4790000</v>
       </c>
-      <c r="AI530" t="inlineStr">
+      <c r="G530" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/voyah/passion/</t>
         </is>
@@ -32841,10 +32831,10 @@
           <t>https://avanta-avto-credit.ru/cars/venucia/d60-plus/</t>
         </is>
       </c>
-      <c r="AH531" t="n">
+      <c r="F531" t="n">
         <v>1140000</v>
       </c>
-      <c r="AI531" t="inlineStr">
+      <c r="G531" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/venucia/d60-plus/</t>
         </is>
@@ -32874,10 +32864,10 @@
           <t>https://avanta-avto-credit.ru/cars/venucia/v-online/</t>
         </is>
       </c>
-      <c r="AH532" t="n">
+      <c r="F532" t="n">
         <v>1580000</v>
       </c>
-      <c r="AI532" t="inlineStr">
+      <c r="G532" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/venucia/v-online/</t>
         </is>
@@ -32907,6 +32897,14 @@
           <t>https://vita-auto.ru/volkswagen/bora/</t>
         </is>
       </c>
+      <c r="F533" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/volkswagen/bora/</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1590200</v>
       </c>
@@ -32923,14 +32921,6 @@
           <t>https://vita-auto.ru/volkswagen/bora/</t>
         </is>
       </c>
-      <c r="AH533" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="AI533" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/volkswagen/bora/</t>
-        </is>
-      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -33096,6 +33086,14 @@
           <t>https://msk-carshop777.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
+      <c r="F538" t="n">
+        <v>1218000</v>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/volkswagen/volkswagen-jetta-new/</t>
+        </is>
+      </c>
       <c r="J538" t="n">
         <v>1283700</v>
       </c>
@@ -33148,14 +33146,6 @@
           <t>https://moscowautos777.ru/auto/volkswagen/jetta/vii/sedan</t>
         </is>
       </c>
-      <c r="AH538" t="n">
-        <v>1218000</v>
-      </c>
-      <c r="AI538" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/volkswagen/volkswagen-jetta-new/</t>
-        </is>
-      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -33198,7 +33188,7 @@
         </is>
       </c>
       <c r="R539" t="n">
-        <v>1666200</v>
+        <v>1617200</v>
       </c>
       <c r="S539" t="inlineStr">
         <is>
@@ -33260,6 +33250,14 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
+          <t>https://msk-carshop777.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="F541" t="n">
+        <v>2133000</v>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
           <t>https://avanta-avto-credit.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
@@ -33307,14 +33305,6 @@
           <t>https://msk-carshop777.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
-      <c r="AH541" t="n">
-        <v>2133000</v>
-      </c>
-      <c r="AI541" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/volkswagen/passat/</t>
-        </is>
-      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -33414,6 +33404,14 @@
           <t>https://kosmos-cars.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
+      <c r="F544" t="n">
+        <v>972400</v>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
       <c r="J544" t="n">
         <v>989000</v>
       </c>
@@ -33438,14 +33436,6 @@
           <t>https://idol-avto.ru/cars-new/volkswagen/polo/vi-liftback-5/</t>
         </is>
       </c>
-      <c r="AH544" t="n">
-        <v>972400</v>
-      </c>
-      <c r="AI544" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/volkswagen/polo/</t>
-        </is>
-      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -33488,7 +33478,7 @@
         </is>
       </c>
       <c r="R545" t="n">
-        <v>1095100</v>
+        <v>987000</v>
       </c>
       <c r="S545" t="inlineStr">
         <is>
@@ -33553,6 +33543,14 @@
           <t>https://msk-carshop777.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
+      <c r="F547" t="n">
+        <v>1628900</v>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/volkswagen/taos/</t>
+        </is>
+      </c>
       <c r="H547" t="n">
         <v>1124899</v>
       </c>
@@ -33597,14 +33595,6 @@
           <t>https://moscowautos777.ru/auto/volkswagen/taos/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH547" t="n">
-        <v>1628900</v>
-      </c>
-      <c r="AI547" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/volkswagen/taos/</t>
-        </is>
-      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -33769,6 +33759,14 @@
           <t>https://avanta-avto-credit.ru/cars/volkswagen/tiguan/</t>
         </is>
       </c>
+      <c r="F551" t="n">
+        <v>1734900</v>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/volkswagen/tiguan/</t>
+        </is>
+      </c>
       <c r="J551" t="n">
         <v>1933000</v>
       </c>
@@ -33801,14 +33799,6 @@
           <t>https://moscowautos777.ru/auto/volkswagen/tiguan/ii-rest/suv-5d</t>
         </is>
       </c>
-      <c r="AH551" t="n">
-        <v>1734900</v>
-      </c>
-      <c r="AI551" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/volkswagen/tiguan/</t>
-        </is>
-      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -33903,6 +33893,14 @@
           <t>https://moscowautos777.ru/auto/volkswagen/touareg/iii/suv-5d</t>
         </is>
       </c>
+      <c r="F553" t="n">
+        <v>5542000</v>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/volkswagen/touareg/</t>
+        </is>
+      </c>
       <c r="AD553" t="n">
         <v>5201700</v>
       </c>
@@ -33911,14 +33909,6 @@
           <t>https://moscowautos777.ru/auto/volkswagen/touareg/iii/suv-5d</t>
         </is>
       </c>
-      <c r="AH553" t="n">
-        <v>5542000</v>
-      </c>
-      <c r="AI553" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/volkswagen/touareg/</t>
-        </is>
-      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -33985,6 +33975,14 @@
           <t>https://avanta-avto-credit.ru/cars/xcite/x-cross-7/</t>
         </is>
       </c>
+      <c r="F555" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/xcite/x-cross-7/</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1979200</v>
       </c>
@@ -34017,14 +34015,6 @@
           <t>https://moscowautos777.ru/auto/xcite/x-cross-7/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH555" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="AI555" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/xcite/x-cross-7/</t>
-        </is>
-      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -34050,6 +34040,14 @@
           <t>https://avanta-avto-credit.ru/cars/xcite/x-cross-8/</t>
         </is>
       </c>
+      <c r="F556" t="n">
+        <v>1695500</v>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/xcite/x-cross-8/</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>2438200</v>
       </c>
@@ -34082,14 +34080,6 @@
           <t>https://moscowautos777.ru/auto/xcite/x-cross-8/i/suv-5d</t>
         </is>
       </c>
-      <c r="AH556" t="n">
-        <v>1695500</v>
-      </c>
-      <c r="AI556" t="inlineStr">
-        <is>
-          <t>https://avanta-avto-credit.ru/cars/xcite/x-cross-8/</t>
-        </is>
-      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -34115,10 +34105,10 @@
           <t>https://avanta-avto-credit.ru/cars/zeekr/zeekr-001/</t>
         </is>
       </c>
-      <c r="AH557" t="n">
+      <c r="F557" t="n">
         <v>5300000</v>
       </c>
-      <c r="AI557" t="inlineStr">
+      <c r="G557" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/zeekr/zeekr-001/</t>
         </is>
@@ -34148,10 +34138,10 @@
           <t>https://avanta-avto-credit.ru/cars/zeekr/zeekr-009/</t>
         </is>
       </c>
-      <c r="AH558" t="n">
+      <c r="F558" t="n">
         <v>10100000</v>
       </c>
-      <c r="AI558" t="inlineStr">
+      <c r="G558" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/zeekr/zeekr-009/</t>
         </is>
@@ -34181,10 +34171,10 @@
           <t>https://avanta-avto-credit.ru/cars/zeekr/zeekr-x/</t>
         </is>
       </c>
-      <c r="AH559" t="n">
+      <c r="F559" t="n">
         <v>3150000</v>
       </c>
-      <c r="AI559" t="inlineStr">
+      <c r="G559" t="inlineStr">
         <is>
           <t>https://avanta-avto-credit.ru/cars/zeekr/zeekr-x/</t>
         </is>

--- a/xlsx/moscow.xlsx
+++ b/xlsx/moscow.xlsx
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="AD8" t="n">
-        <v>1860000</v>
+        <v>1690000</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="AD41" t="n">
-        <v>1841940</v>
+        <v>1779000</v>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="AD56" t="n">
-        <v>1668000</v>
+        <v>1299000</v>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         </is>
       </c>
       <c r="AD133" t="n">
-        <v>1469400</v>
+        <v>1199000</v>
       </c>
       <c r="AE133" t="inlineStr">
         <is>
@@ -9877,14 +9877,6 @@
           <t>https://you-auto-credit.ru/cars-new/geely/boyue/ii-allroad-l-5/</t>
         </is>
       </c>
-      <c r="N145" t="n">
-        <v>1794000</v>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/geely/boyue/</t>
-        </is>
-      </c>
       <c r="P145" t="n">
         <v>1792200</v>
       </c>
@@ -10600,14 +10592,6 @@
           <t>https://you-auto-credit.ru/cars-new/geely/gs/i-allroad-5/</t>
         </is>
       </c>
-      <c r="N156" t="n">
-        <v>1000300</v>
-      </c>
-      <c r="O156" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/geely/gs/</t>
-        </is>
-      </c>
       <c r="P156" t="n">
         <v>699200</v>
       </c>
@@ -11120,7 +11104,7 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>2799000</v>
+        <v>2599000</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -11200,14 +11184,6 @@
           <t>https://you-auto-credit.ru/cars-new/geely/preface/i-res2-sedan-4/</t>
         </is>
       </c>
-      <c r="N164" t="n">
-        <v>2599000</v>
-      </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>https://kosmos-cars.ru/cars/geely/preface_new/</t>
-        </is>
-      </c>
       <c r="P164" t="n">
         <v>2995900</v>
       </c>
@@ -13747,7 +13723,7 @@
         </is>
       </c>
       <c r="AD202" t="n">
-        <v>1307400</v>
+        <v>890000</v>
       </c>
       <c r="AE202" t="inlineStr">
         <is>
@@ -14710,11 +14686,11 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2229000</v>
+        <v>1673000</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/hyundai/santa_fe/</t>
+          <t>https://moscowautos777.ru/auto/hyundai/santa_fe/iv/suv-5d</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -14742,7 +14718,7 @@
         </is>
       </c>
       <c r="AD217" t="n">
-        <v>2381400</v>
+        <v>1673000</v>
       </c>
       <c r="AE217" t="inlineStr">
         <is>
@@ -15943,7 +15919,7 @@
         </is>
       </c>
       <c r="AD234" t="n">
-        <v>1133400</v>
+        <v>1099000</v>
       </c>
       <c r="AE234" t="inlineStr">
         <is>
@@ -18546,7 +18522,7 @@
         </is>
       </c>
       <c r="AD269" t="n">
-        <v>2486940</v>
+        <v>2249900</v>
       </c>
       <c r="AE269" t="inlineStr">
         <is>
@@ -19112,11 +19088,19 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1902000</v>
+        <v>1650000</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>http://avtohous-group.ru/katalog/kia/k3/sedan</t>
+          <t>https://avanta-avto-credit.ru/cars/kia/kia-k3/</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/kia-k3/</t>
         </is>
       </c>
       <c r="Z279" t="n">
@@ -20323,7 +20307,7 @@
         </is>
       </c>
       <c r="AD298" t="n">
-        <v>2273940</v>
+        <v>1621000</v>
       </c>
       <c r="AE298" t="inlineStr">
         <is>
@@ -20805,6 +20789,14 @@
           <t>https://dc-dbr.ru/catalog/kia/sportage</t>
         </is>
       </c>
+      <c r="F305" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>https://avanta-avto-credit.ru/cars/kia/sportage-new/</t>
+        </is>
+      </c>
       <c r="H305" t="n">
         <v>955175</v>
       </c>
@@ -26816,7 +26808,7 @@
         </is>
       </c>
       <c r="AD411" t="n">
-        <v>2645400</v>
+        <v>2590000</v>
       </c>
       <c r="AE411" t="inlineStr">
         <is>
@@ -27078,11 +27070,11 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>659900</v>
+        <v>689300</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/nissan/terrano/</t>
+          <t>https://idol-avto.ru/cars-new/nissan/terrano/iii-allroad-5/</t>
         </is>
       </c>
       <c r="F417" t="n">
@@ -27110,7 +27102,7 @@
         </is>
       </c>
       <c r="N417" t="n">
-        <v>659900</v>
+        <v>890000</v>
       </c>
       <c r="O417" t="inlineStr">
         <is>
@@ -27142,7 +27134,7 @@
         </is>
       </c>
       <c r="AD417" t="n">
-        <v>690000</v>
+        <v>890000</v>
       </c>
       <c r="AE417" t="inlineStr">
         <is>
@@ -29018,11 +29010,11 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>460300</v>
+        <v>489500</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>https://kosmos-cars.ru/cars/renault/logan/</t>
+          <t>https://idol-avto.ru/cars-new/renault/logan/ii-res-sedan-4/</t>
         </is>
       </c>
       <c r="F449" t="n">
@@ -29042,7 +29034,7 @@
         </is>
       </c>
       <c r="N449" t="n">
-        <v>460300</v>
+        <v>690000</v>
       </c>
       <c r="O449" t="inlineStr">
         <is>
@@ -29286,7 +29278,7 @@
         </is>
       </c>
       <c r="N453" t="n">
-        <v>547300</v>
+        <v>730000</v>
       </c>
       <c r="O453" t="inlineStr">
         <is>
